--- a/tablas y comparaciones.xlsx
+++ b/tablas y comparaciones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5025" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="matrices na" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,13 @@
     <sheet name="vlpropiosEMPCA" sheetId="6" r:id="rId5"/>
     <sheet name="vtpropiosEMPCA" sheetId="7" r:id="rId6"/>
     <sheet name="componentesEMPCA" sheetId="8" r:id="rId7"/>
+    <sheet name="poder descriptivo" sheetId="9" r:id="rId8"/>
+    <sheet name="comp valores propios" sheetId="10" r:id="rId9"/>
+    <sheet name="comp vect propios" sheetId="11" r:id="rId10"/>
+    <sheet name="comp comp princ" sheetId="12" r:id="rId11"/>
+    <sheet name="cor comp 1" sheetId="14" r:id="rId12"/>
+    <sheet name="orto vectores" sheetId="15" r:id="rId13"/>
+    <sheet name="Imputacion" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="118">
   <si>
     <t>Colombia</t>
   </si>
@@ -342,15 +349,61 @@
   </si>
   <si>
     <t>C3</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Nipals</t>
+  </si>
+  <si>
+    <t>Poder descriptivo</t>
+  </si>
+  <si>
+    <t>ACP completo</t>
+  </si>
+  <si>
+    <t>ACP-EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nipals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACP-EM
+</t>
+  </si>
+  <si>
+    <t>ACP</t>
+  </si>
+  <si>
+    <t>Completa</t>
+  </si>
+  <si>
+    <t>%NA</t>
+  </si>
+  <si>
+    <t>NIPALS</t>
+  </si>
+  <si>
+    <t>Correlación Comp 1</t>
+  </si>
+  <si>
+    <t>Ortogonalidad</t>
+  </si>
+  <si>
+    <t>Norma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -389,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -514,11 +567,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,19 +638,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +653,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,58 +704,250 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2819,12 +3152,2364 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:S12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="66"/>
+    </row>
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="95">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="96"/>
+      <c r="H5" s="95">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="96"/>
+      <c r="J5" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="97"/>
+      <c r="L5" s="95">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="96"/>
+      <c r="N5" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="95">
+        <v>0.15</v>
+      </c>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="S5" s="96"/>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="85">
+        <v>-0.32665719999999998</v>
+      </c>
+      <c r="C7" s="88">
+        <v>0.57089840000000003</v>
+      </c>
+      <c r="D7" s="80">
+        <v>0.42971407</v>
+      </c>
+      <c r="E7" s="79">
+        <v>0.46277439999999997</v>
+      </c>
+      <c r="F7" s="80">
+        <v>0.48997160000000001</v>
+      </c>
+      <c r="G7" s="79">
+        <v>0.33762173000000001</v>
+      </c>
+      <c r="H7" s="80">
+        <v>0.5411724</v>
+      </c>
+      <c r="I7" s="79">
+        <v>0.2265876</v>
+      </c>
+      <c r="J7" s="81">
+        <v>0.45318444000000002</v>
+      </c>
+      <c r="K7" s="82">
+        <v>0.4373667</v>
+      </c>
+      <c r="L7" s="80">
+        <v>-0.33408460000000001</v>
+      </c>
+      <c r="M7" s="79">
+        <v>0.56224989999999997</v>
+      </c>
+      <c r="N7" s="80">
+        <v>0.59085041999999999</v>
+      </c>
+      <c r="O7" s="79">
+        <v>0.24144035999999999</v>
+      </c>
+      <c r="P7" s="80">
+        <v>0.60154492000000004</v>
+      </c>
+      <c r="Q7" s="79">
+        <v>-0.1149054</v>
+      </c>
+      <c r="R7" s="81">
+        <v>-0.26828289999999999</v>
+      </c>
+      <c r="S7" s="79">
+        <v>0.61469328999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="85">
+        <v>-0.15885869999999999</v>
+      </c>
+      <c r="C8" s="88">
+        <v>-0.60332770000000002</v>
+      </c>
+      <c r="D8" s="85">
+        <v>7.2809910000000005E-2</v>
+      </c>
+      <c r="E8" s="84">
+        <v>-0.63066449999999996</v>
+      </c>
+      <c r="F8" s="85">
+        <v>-0.22206490000000001</v>
+      </c>
+      <c r="G8" s="84">
+        <v>-0.62466712000000002</v>
+      </c>
+      <c r="H8" s="85">
+        <v>-0.37692730000000002</v>
+      </c>
+      <c r="I8" s="84">
+        <v>-0.4499708</v>
+      </c>
+      <c r="J8" s="87">
+        <v>3.1259809999999999E-2</v>
+      </c>
+      <c r="K8" s="88">
+        <v>-0.68032910000000002</v>
+      </c>
+      <c r="L8" s="85">
+        <v>-0.19081890000000001</v>
+      </c>
+      <c r="M8" s="84">
+        <v>-0.60209440000000003</v>
+      </c>
+      <c r="N8" s="85">
+        <v>-0.24704255</v>
+      </c>
+      <c r="O8" s="84">
+        <v>-0.55878981000000005</v>
+      </c>
+      <c r="P8" s="85">
+        <v>-0.55289695999999999</v>
+      </c>
+      <c r="Q8" s="84">
+        <v>-0.15664159999999999</v>
+      </c>
+      <c r="R8" s="87">
+        <v>-0.2245808</v>
+      </c>
+      <c r="S8" s="84">
+        <v>-0.62755658999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="85">
+        <v>-0.338171</v>
+      </c>
+      <c r="C9" s="88">
+        <v>-0.46359600000000001</v>
+      </c>
+      <c r="D9" s="85">
+        <v>0.19053603</v>
+      </c>
+      <c r="E9" s="84">
+        <v>-0.55745840000000002</v>
+      </c>
+      <c r="F9" s="85">
+        <v>5.57729E-2</v>
+      </c>
+      <c r="G9" s="84">
+        <v>-0.57778094999999996</v>
+      </c>
+      <c r="H9" s="85">
+        <v>-0.17996870000000001</v>
+      </c>
+      <c r="I9" s="84">
+        <v>-0.60360069999999999</v>
+      </c>
+      <c r="J9" s="87">
+        <v>0.39864007000000001</v>
+      </c>
+      <c r="K9" s="88">
+        <v>-0.29144740000000002</v>
+      </c>
+      <c r="L9" s="85">
+        <v>-0.33873199999999998</v>
+      </c>
+      <c r="M9" s="84">
+        <v>-0.4747363</v>
+      </c>
+      <c r="N9" s="85">
+        <v>-4.4783919999999998E-2</v>
+      </c>
+      <c r="O9" s="84">
+        <v>-0.62190219999999996</v>
+      </c>
+      <c r="P9" s="85">
+        <v>-0.42332718000000003</v>
+      </c>
+      <c r="Q9" s="84">
+        <v>-0.40303080000000002</v>
+      </c>
+      <c r="R9" s="87">
+        <v>-0.46045439999999999</v>
+      </c>
+      <c r="S9" s="84">
+        <v>-0.16104794</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="85">
+        <v>-0.28985929999999999</v>
+      </c>
+      <c r="C10" s="88">
+        <v>0.20662730000000001</v>
+      </c>
+      <c r="D10" s="85">
+        <v>0.30794284</v>
+      </c>
+      <c r="E10" s="84">
+        <v>0.12016300000000001</v>
+      </c>
+      <c r="F10" s="85">
+        <v>0.23530229999999999</v>
+      </c>
+      <c r="G10" s="84">
+        <v>-1.0221539999999999E-2</v>
+      </c>
+      <c r="H10" s="85">
+        <v>0.25316129999999998</v>
+      </c>
+      <c r="I10" s="84">
+        <v>0.1749954</v>
+      </c>
+      <c r="J10" s="87">
+        <v>0.58910766999999997</v>
+      </c>
+      <c r="K10" s="88">
+        <v>0.2154491</v>
+      </c>
+      <c r="L10" s="85">
+        <v>-0.29717359999999998</v>
+      </c>
+      <c r="M10" s="84">
+        <v>0.1908832</v>
+      </c>
+      <c r="N10" s="85">
+        <v>0.24824876000000001</v>
+      </c>
+      <c r="O10" s="84">
+        <v>-5.2182939999999997E-2</v>
+      </c>
+      <c r="P10" s="85">
+        <v>0.32434724999999998</v>
+      </c>
+      <c r="Q10" s="84">
+        <v>-0.10258879999999999</v>
+      </c>
+      <c r="R10" s="87">
+        <v>-0.2913829</v>
+      </c>
+      <c r="S10" s="84">
+        <v>0.41231702999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="85">
+        <v>-0.54593910000000001</v>
+      </c>
+      <c r="C11" s="88">
+        <v>0.17560439999999999</v>
+      </c>
+      <c r="D11" s="85">
+        <v>0.61478294</v>
+      </c>
+      <c r="E11" s="84">
+        <v>1.53419E-2</v>
+      </c>
+      <c r="F11" s="85">
+        <v>0.60333349999999997</v>
+      </c>
+      <c r="G11" s="84">
+        <v>-4.7589350000000002E-2</v>
+      </c>
+      <c r="H11" s="85">
+        <v>0.45203739999999998</v>
+      </c>
+      <c r="I11" s="84">
+        <v>-0.39139659999999998</v>
+      </c>
+      <c r="J11" s="87">
+        <v>0.39466455</v>
+      </c>
+      <c r="K11" s="88">
+        <v>-0.21697830000000001</v>
+      </c>
+      <c r="L11" s="85">
+        <v>-0.53065620000000002</v>
+      </c>
+      <c r="M11" s="84">
+        <v>0.2067368</v>
+      </c>
+      <c r="N11" s="85">
+        <v>0.56942391999999997</v>
+      </c>
+      <c r="O11" s="84">
+        <v>-0.15140091999999999</v>
+      </c>
+      <c r="P11" s="85">
+        <v>0.21493936</v>
+      </c>
+      <c r="Q11" s="84">
+        <v>-0.58716360000000001</v>
+      </c>
+      <c r="R11" s="87">
+        <v>-0.53203250000000002</v>
+      </c>
+      <c r="S11" s="84">
+        <v>4.6699730000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="91">
+        <v>-0.60961569999999998</v>
+      </c>
+      <c r="C12" s="93">
+        <v>-0.14702970000000001</v>
+      </c>
+      <c r="D12" s="91">
+        <v>0.54859247</v>
+      </c>
+      <c r="E12" s="90">
+        <v>-0.25033539999999999</v>
+      </c>
+      <c r="F12" s="91">
+        <v>0.53677359999999996</v>
+      </c>
+      <c r="G12" s="90">
+        <v>-0.39950281999999998</v>
+      </c>
+      <c r="H12" s="91">
+        <v>0.51404380000000005</v>
+      </c>
+      <c r="I12" s="90">
+        <v>-0.44501210000000002</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0.36321457000000001</v>
+      </c>
+      <c r="K12" s="93">
+        <v>-0.40917369999999997</v>
+      </c>
+      <c r="L12" s="91">
+        <v>-0.60607599999999995</v>
+      </c>
+      <c r="M12" s="90">
+        <v>-0.12963930000000001</v>
+      </c>
+      <c r="N12" s="91">
+        <v>0.44943198000000001</v>
+      </c>
+      <c r="O12" s="90">
+        <v>-0.46588932</v>
+      </c>
+      <c r="P12" s="91">
+        <v>4.292663E-2</v>
+      </c>
+      <c r="Q12" s="90">
+        <v>-0.66673890000000002</v>
+      </c>
+      <c r="R12" s="92">
+        <v>-0.54553370000000001</v>
+      </c>
+      <c r="S12" s="90">
+        <v>-0.17378797000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:U50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="62"/>
+      <c r="D3" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="66"/>
+    </row>
+    <row r="4" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="62"/>
+      <c r="D4" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="66"/>
+      <c r="F4" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="61"/>
+      <c r="H4" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="59">
+        <v>0.15</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="O4" s="61"/>
+      <c r="P4" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="59">
+        <v>0.15</v>
+      </c>
+      <c r="S4" s="61"/>
+      <c r="T4" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="U4" s="61"/>
+    </row>
+    <row r="5" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="62"/>
+      <c r="D5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="50">
+        <v>1991</v>
+      </c>
+      <c r="D6" s="78">
+        <v>-3.5794029300000001</v>
+      </c>
+      <c r="E6" s="79">
+        <v>0.22001860000000001</v>
+      </c>
+      <c r="F6" s="80">
+        <v>-3.3856093</v>
+      </c>
+      <c r="G6" s="79">
+        <v>0.96223820000000004</v>
+      </c>
+      <c r="H6" s="80">
+        <v>-2.6674976699999999</v>
+      </c>
+      <c r="I6" s="79">
+        <v>2.0407576409999999</v>
+      </c>
+      <c r="J6" s="80">
+        <v>-1.65576441</v>
+      </c>
+      <c r="K6" s="79">
+        <v>2.6994056999999998</v>
+      </c>
+      <c r="L6" s="81">
+        <v>-4.0501223829999997</v>
+      </c>
+      <c r="M6" s="82">
+        <v>1.088501575</v>
+      </c>
+      <c r="N6" s="80">
+        <v>3.6266831000000002</v>
+      </c>
+      <c r="O6" s="79">
+        <v>0.26329121</v>
+      </c>
+      <c r="P6" s="80">
+        <v>-2.4894966699999999</v>
+      </c>
+      <c r="Q6" s="79">
+        <v>2.4493983899999998</v>
+      </c>
+      <c r="R6" s="80">
+        <v>0.90514380000000005</v>
+      </c>
+      <c r="S6" s="79">
+        <v>3.02394322</v>
+      </c>
+      <c r="T6" s="81">
+        <v>3.9093355999999999</v>
+      </c>
+      <c r="U6" s="79">
+        <v>9.5973810000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="51">
+        <v>1992</v>
+      </c>
+      <c r="D7" s="83">
+        <v>-2.9841662000000002</v>
+      </c>
+      <c r="E7" s="84">
+        <v>1.1042398</v>
+      </c>
+      <c r="F7" s="85">
+        <v>-3.1706444</v>
+      </c>
+      <c r="G7" s="84">
+        <v>1.6390586700000001</v>
+      </c>
+      <c r="H7" s="85">
+        <v>-2.41899438</v>
+      </c>
+      <c r="I7" s="84">
+        <v>1.8565298299999999</v>
+      </c>
+      <c r="J7" s="85">
+        <v>-2.3260837699999999</v>
+      </c>
+      <c r="K7" s="86">
+        <v>1.5794055</v>
+      </c>
+      <c r="L7" s="87">
+        <v>-2.5280118659999999</v>
+      </c>
+      <c r="M7" s="88">
+        <v>1.9728107969999999</v>
+      </c>
+      <c r="N7" s="85">
+        <v>3.0325923000000001</v>
+      </c>
+      <c r="O7" s="84">
+        <v>1.16097534</v>
+      </c>
+      <c r="P7" s="85">
+        <v>-1.927845</v>
+      </c>
+      <c r="Q7" s="84">
+        <v>2.1203169100000001</v>
+      </c>
+      <c r="R7" s="85">
+        <v>-0.66331929999999995</v>
+      </c>
+      <c r="S7" s="86">
+        <v>2.76730747</v>
+      </c>
+      <c r="T7" s="87">
+        <v>3.3435451</v>
+      </c>
+      <c r="U7" s="84">
+        <v>0.94975279999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="51">
+        <v>1993</v>
+      </c>
+      <c r="D8" s="83">
+        <v>1.1801110699999999</v>
+      </c>
+      <c r="E8" s="84">
+        <v>-1.16174E-2</v>
+      </c>
+      <c r="F8" s="85">
+        <v>1.1035482999999999</v>
+      </c>
+      <c r="G8" s="84">
+        <v>-0.23716872</v>
+      </c>
+      <c r="H8" s="85">
+        <v>0.99863522999999998</v>
+      </c>
+      <c r="I8" s="84">
+        <v>-2.0488859000000002E-2</v>
+      </c>
+      <c r="J8" s="85">
+        <v>1.4924016600000001</v>
+      </c>
+      <c r="K8" s="84">
+        <v>-0.9340058</v>
+      </c>
+      <c r="L8" s="87">
+        <v>3.4669060140000001</v>
+      </c>
+      <c r="M8" s="88">
+        <v>0.34315525400000002</v>
+      </c>
+      <c r="N8" s="85">
+        <v>-1.1321398</v>
+      </c>
+      <c r="O8" s="84">
+        <v>8.6053110000000002E-2</v>
+      </c>
+      <c r="P8" s="85">
+        <v>0.81079540000000005</v>
+      </c>
+      <c r="Q8" s="84">
+        <v>-0.21014627999999999</v>
+      </c>
+      <c r="R8" s="85">
+        <v>0.7246262</v>
+      </c>
+      <c r="S8" s="84">
+        <v>-1.6003652399999999</v>
+      </c>
+      <c r="T8" s="87">
+        <v>-2.4349615</v>
+      </c>
+      <c r="U8" s="84">
+        <v>0.45042902000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="51">
+        <v>1994</v>
+      </c>
+      <c r="D9" s="83">
+        <v>1.5534063</v>
+      </c>
+      <c r="E9" s="84">
+        <v>-0.75936250000000005</v>
+      </c>
+      <c r="F9" s="85">
+        <v>1.3998495</v>
+      </c>
+      <c r="G9" s="84">
+        <v>-0.98069118</v>
+      </c>
+      <c r="H9" s="85">
+        <v>1.4221110800000001</v>
+      </c>
+      <c r="I9" s="84">
+        <v>-1.118063169</v>
+      </c>
+      <c r="J9" s="85">
+        <v>0.91680488999999998</v>
+      </c>
+      <c r="K9" s="84">
+        <v>-3.0838516999999999</v>
+      </c>
+      <c r="L9" s="87">
+        <v>0.48462270600000001</v>
+      </c>
+      <c r="M9" s="88">
+        <v>-2.0381526889999999</v>
+      </c>
+      <c r="N9" s="85">
+        <v>-1.512373</v>
+      </c>
+      <c r="O9" s="84">
+        <v>-0.62541853999999997</v>
+      </c>
+      <c r="P9" s="85">
+        <v>1.1173581400000001</v>
+      </c>
+      <c r="Q9" s="84">
+        <v>-1.2963180599999999</v>
+      </c>
+      <c r="R9" s="85">
+        <v>-1.1638777</v>
+      </c>
+      <c r="S9" s="84">
+        <v>-2.5024028199999999</v>
+      </c>
+      <c r="T9" s="87">
+        <v>-1.8557009</v>
+      </c>
+      <c r="U9" s="84">
+        <v>-1.51540702</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="51">
+        <v>1995</v>
+      </c>
+      <c r="D10" s="83">
+        <v>1.7594190999999999</v>
+      </c>
+      <c r="E10" s="84">
+        <v>-0.38265349999999998</v>
+      </c>
+      <c r="F10" s="85">
+        <v>1.7231145999999999</v>
+      </c>
+      <c r="G10" s="84">
+        <v>-0.69924069</v>
+      </c>
+      <c r="H10" s="85">
+        <v>1.58126141</v>
+      </c>
+      <c r="I10" s="86">
+        <v>-0.99349328100000001</v>
+      </c>
+      <c r="J10" s="85">
+        <v>0.58189515000000003</v>
+      </c>
+      <c r="K10" s="84">
+        <v>-1.7072343999999999</v>
+      </c>
+      <c r="L10" s="87">
+        <v>0.85546992200000005</v>
+      </c>
+      <c r="M10" s="88">
+        <v>-1.6717409809999999</v>
+      </c>
+      <c r="N10" s="85">
+        <v>-1.7453806000000001</v>
+      </c>
+      <c r="O10" s="84">
+        <v>-0.28219769</v>
+      </c>
+      <c r="P10" s="85">
+        <v>1.3811249299999999</v>
+      </c>
+      <c r="Q10" s="86">
+        <v>-1.17455916</v>
+      </c>
+      <c r="R10" s="85">
+        <v>-0.21569830000000001</v>
+      </c>
+      <c r="S10" s="84">
+        <v>-1.9218385899999999</v>
+      </c>
+      <c r="T10" s="87">
+        <v>-1.9907893999999999</v>
+      </c>
+      <c r="U10" s="84">
+        <v>-0.92902952999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="51">
+        <v>1996</v>
+      </c>
+      <c r="D11" s="83">
+        <v>1.9519251500000001</v>
+      </c>
+      <c r="E11" s="84">
+        <v>-2.1096857</v>
+      </c>
+      <c r="F11" s="85">
+        <v>1.3495992999999999</v>
+      </c>
+      <c r="G11" s="84">
+        <v>-2.4721197199999998</v>
+      </c>
+      <c r="H11" s="85">
+        <v>0.64129594999999995</v>
+      </c>
+      <c r="I11" s="84">
+        <v>-2.698094282</v>
+      </c>
+      <c r="J11" s="85">
+        <v>-1.1947678900000001</v>
+      </c>
+      <c r="K11" s="84">
+        <v>-1.9242809000000001</v>
+      </c>
+      <c r="L11" s="87">
+        <v>1.151529204</v>
+      </c>
+      <c r="M11" s="88">
+        <v>-1.7529772699999999</v>
+      </c>
+      <c r="N11" s="85">
+        <v>-1.9971771</v>
+      </c>
+      <c r="O11" s="84">
+        <v>-2.1321159700000001</v>
+      </c>
+      <c r="P11" s="85">
+        <v>0.23534163</v>
+      </c>
+      <c r="Q11" s="84">
+        <v>-2.9773617799999998</v>
+      </c>
+      <c r="R11" s="85">
+        <v>-1.7238434</v>
+      </c>
+      <c r="S11" s="84">
+        <v>-1.8695477599999999</v>
+      </c>
+      <c r="T11" s="87">
+        <v>-1.9863351</v>
+      </c>
+      <c r="U11" s="84">
+        <v>-1.0577998900000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="51">
+        <v>1997</v>
+      </c>
+      <c r="D12" s="83">
+        <v>-0.24144157999999999</v>
+      </c>
+      <c r="E12" s="84">
+        <v>-3.3571268999999999</v>
+      </c>
+      <c r="F12" s="85">
+        <v>-1.2028555999999999</v>
+      </c>
+      <c r="G12" s="84">
+        <v>-3.2540331600000001</v>
+      </c>
+      <c r="H12" s="85">
+        <v>-1.27442619</v>
+      </c>
+      <c r="I12" s="84">
+        <v>-2.8872983190000001</v>
+      </c>
+      <c r="J12" s="85">
+        <v>-3.4598649899999998</v>
+      </c>
+      <c r="K12" s="84">
+        <v>-1.5759405</v>
+      </c>
+      <c r="L12" s="87">
+        <v>-1.854949991</v>
+      </c>
+      <c r="M12" s="88">
+        <v>-2.0481124679999998</v>
+      </c>
+      <c r="N12" s="85">
+        <v>-0.24087839999999999</v>
+      </c>
+      <c r="O12" s="84">
+        <v>-3.3644541100000001</v>
+      </c>
+      <c r="P12" s="85">
+        <v>-1.9103526900000001</v>
+      </c>
+      <c r="Q12" s="84">
+        <v>-2.9429625599999998</v>
+      </c>
+      <c r="R12" s="85">
+        <v>-3.5166658000000002</v>
+      </c>
+      <c r="S12" s="84">
+        <v>-0.47627732</v>
+      </c>
+      <c r="T12" s="87">
+        <v>0.66691029999999996</v>
+      </c>
+      <c r="U12" s="84">
+        <v>-2.4925311699999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="51">
+        <v>1998</v>
+      </c>
+      <c r="D13" s="83">
+        <v>-1.98337243</v>
+      </c>
+      <c r="E13" s="84">
+        <v>-0.71624080000000001</v>
+      </c>
+      <c r="F13" s="85">
+        <v>-2.0625233999999999</v>
+      </c>
+      <c r="G13" s="84">
+        <v>-0.24303077000000001</v>
+      </c>
+      <c r="H13" s="85">
+        <v>-1.92015559</v>
+      </c>
+      <c r="I13" s="84">
+        <v>0.41733798</v>
+      </c>
+      <c r="J13" s="85">
+        <v>-1.7981444099999999</v>
+      </c>
+      <c r="K13" s="84">
+        <v>0.35035889999999997</v>
+      </c>
+      <c r="L13" s="87">
+        <v>-2.111214258</v>
+      </c>
+      <c r="M13" s="88">
+        <v>-0.19723101500000001</v>
+      </c>
+      <c r="N13" s="85">
+        <v>1.9808661000000001</v>
+      </c>
+      <c r="O13" s="84">
+        <v>-0.70042101999999995</v>
+      </c>
+      <c r="P13" s="85">
+        <v>-1.9406592300000001</v>
+      </c>
+      <c r="Q13" s="84">
+        <v>0.73846045000000005</v>
+      </c>
+      <c r="R13" s="85">
+        <v>-1.4071042</v>
+      </c>
+      <c r="S13" s="84">
+        <v>1.39746937</v>
+      </c>
+      <c r="T13" s="87">
+        <v>2.1113615999999999</v>
+      </c>
+      <c r="U13" s="84">
+        <v>-1.0157152899999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="51">
+        <v>1999</v>
+      </c>
+      <c r="D14" s="83">
+        <v>-0.73442430000000003</v>
+      </c>
+      <c r="E14" s="84">
+        <v>-0.78287039999999997</v>
+      </c>
+      <c r="F14" s="85">
+        <v>-0.92232309999999995</v>
+      </c>
+      <c r="G14" s="84">
+        <v>-0.52497890000000003</v>
+      </c>
+      <c r="H14" s="85">
+        <v>-0.93076760999999997</v>
+      </c>
+      <c r="I14" s="84">
+        <v>-0.96685322200000001</v>
+      </c>
+      <c r="J14" s="85">
+        <v>-1.60895521</v>
+      </c>
+      <c r="K14" s="84">
+        <v>0.87904400000000005</v>
+      </c>
+      <c r="L14" s="87">
+        <v>-0.67934244300000002</v>
+      </c>
+      <c r="M14" s="88">
+        <v>-0.95321412699999997</v>
+      </c>
+      <c r="N14" s="85">
+        <v>0.71871240000000003</v>
+      </c>
+      <c r="O14" s="84">
+        <v>-0.76867934000000004</v>
+      </c>
+      <c r="P14" s="85">
+        <v>-1.1047020599999999</v>
+      </c>
+      <c r="Q14" s="84">
+        <v>-0.65166464000000002</v>
+      </c>
+      <c r="R14" s="85">
+        <v>-1.0551827</v>
+      </c>
+      <c r="S14" s="84">
+        <v>1.6776669799999999</v>
+      </c>
+      <c r="T14" s="87">
+        <v>-0.19621839999999999</v>
+      </c>
+      <c r="U14" s="84">
+        <v>-1.05703897</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="51">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="83">
+        <v>-0.53228045999999996</v>
+      </c>
+      <c r="E15" s="84">
+        <v>-0.6705084</v>
+      </c>
+      <c r="F15" s="85">
+        <v>-0.70789340000000001</v>
+      </c>
+      <c r="G15" s="84">
+        <v>-0.47073644999999997</v>
+      </c>
+      <c r="H15" s="85">
+        <v>-0.67743931999999996</v>
+      </c>
+      <c r="I15" s="84">
+        <v>-0.27090311299999997</v>
+      </c>
+      <c r="J15" s="85">
+        <v>-9.3657279999999996E-2</v>
+      </c>
+      <c r="K15" s="84">
+        <v>-0.60951290000000002</v>
+      </c>
+      <c r="L15" s="87">
+        <v>-0.85859757400000003</v>
+      </c>
+      <c r="M15" s="88">
+        <v>-0.96249544200000003</v>
+      </c>
+      <c r="N15" s="85">
+        <v>0.50817469999999998</v>
+      </c>
+      <c r="O15" s="84">
+        <v>-0.66709331999999999</v>
+      </c>
+      <c r="P15" s="85">
+        <v>-0.68696548999999996</v>
+      </c>
+      <c r="Q15" s="84">
+        <v>-0.11466972</v>
+      </c>
+      <c r="R15" s="85">
+        <v>-0.52489300000000005</v>
+      </c>
+      <c r="S15" s="84">
+        <v>-0.28941097999999998</v>
+      </c>
+      <c r="T15" s="87">
+        <v>0.74181710000000001</v>
+      </c>
+      <c r="U15" s="84">
+        <v>-1.35411623</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="51">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="83">
+        <v>0.37260533000000001</v>
+      </c>
+      <c r="E16" s="84">
+        <v>-0.57129850000000004</v>
+      </c>
+      <c r="F16" s="85">
+        <v>0.4496194</v>
+      </c>
+      <c r="G16" s="84">
+        <v>-0.76668031000000003</v>
+      </c>
+      <c r="H16" s="85">
+        <v>-6.5340980000000007E-2</v>
+      </c>
+      <c r="I16" s="84">
+        <v>-1.1317642210000001</v>
+      </c>
+      <c r="J16" s="85">
+        <v>-0.32314219999999999</v>
+      </c>
+      <c r="K16" s="84">
+        <v>-0.34160760000000001</v>
+      </c>
+      <c r="L16" s="87">
+        <v>0.82211365400000003</v>
+      </c>
+      <c r="M16" s="88">
+        <v>9.6857051E-2</v>
+      </c>
+      <c r="N16" s="85">
+        <v>-0.76505409999999996</v>
+      </c>
+      <c r="O16" s="84">
+        <v>-0.67077485999999997</v>
+      </c>
+      <c r="P16" s="85">
+        <v>-8.2201270000000007E-2</v>
+      </c>
+      <c r="Q16" s="84">
+        <v>-1.0470510799999999</v>
+      </c>
+      <c r="R16" s="85">
+        <v>-0.50768369999999996</v>
+      </c>
+      <c r="S16" s="84">
+        <v>-0.15326349</v>
+      </c>
+      <c r="T16" s="87">
+        <v>-0.42244939999999997</v>
+      </c>
+      <c r="U16" s="84">
+        <v>0.47829757000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="51">
+        <v>2002</v>
+      </c>
+      <c r="D17" s="83">
+        <v>-0.34063968999999999</v>
+      </c>
+      <c r="E17" s="84">
+        <v>-0.22368440000000001</v>
+      </c>
+      <c r="F17" s="85">
+        <v>-0.31263819999999998</v>
+      </c>
+      <c r="G17" s="84">
+        <v>-0.1660287</v>
+      </c>
+      <c r="H17" s="85">
+        <v>-0.45790344999999999</v>
+      </c>
+      <c r="I17" s="84">
+        <v>-5.6037930000000001E-3</v>
+      </c>
+      <c r="J17" s="85">
+        <v>-0.14853759</v>
+      </c>
+      <c r="K17" s="84">
+        <v>0.75605880000000003</v>
+      </c>
+      <c r="L17" s="87">
+        <v>-7.9277610000000002E-3</v>
+      </c>
+      <c r="M17" s="88">
+        <v>-0.77645280400000005</v>
+      </c>
+      <c r="N17" s="85">
+        <v>0.29975980000000002</v>
+      </c>
+      <c r="O17" s="84">
+        <v>-0.2329561</v>
+      </c>
+      <c r="P17" s="85">
+        <v>-0.35021632000000003</v>
+      </c>
+      <c r="Q17" s="84">
+        <v>0.11421984</v>
+      </c>
+      <c r="R17" s="85">
+        <v>0.4360697</v>
+      </c>
+      <c r="S17" s="84">
+        <v>0.73150444999999997</v>
+      </c>
+      <c r="T17" s="87">
+        <v>-0.29184939999999998</v>
+      </c>
+      <c r="U17" s="84">
+        <v>-0.57917041000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="51">
+        <v>2003</v>
+      </c>
+      <c r="D18" s="83">
+        <v>0.25306113000000002</v>
+      </c>
+      <c r="E18" s="84">
+        <v>0.1018299</v>
+      </c>
+      <c r="F18" s="85">
+        <v>0.25756760000000001</v>
+      </c>
+      <c r="G18" s="84">
+        <v>6.6659070000000001E-2</v>
+      </c>
+      <c r="H18" s="85">
+        <v>0.23652105000000001</v>
+      </c>
+      <c r="I18" s="84">
+        <v>-2.4011688999999999E-2</v>
+      </c>
+      <c r="J18" s="85">
+        <v>0.14900431</v>
+      </c>
+      <c r="K18" s="84">
+        <v>0.192972</v>
+      </c>
+      <c r="L18" s="87">
+        <v>0.73315876300000005</v>
+      </c>
+      <c r="M18" s="88">
+        <v>5.8779180000000002E-3</v>
+      </c>
+      <c r="N18" s="85">
+        <v>-0.25466139999999998</v>
+      </c>
+      <c r="O18" s="84">
+        <v>0.12227459</v>
+      </c>
+      <c r="P18" s="85">
+        <v>0.22369845999999999</v>
+      </c>
+      <c r="Q18" s="84">
+        <v>-3.8841069999999998E-2</v>
+      </c>
+      <c r="R18" s="85">
+        <v>0.22349949999999999</v>
+      </c>
+      <c r="S18" s="84">
+        <v>-2.958361E-2</v>
+      </c>
+      <c r="T18" s="87">
+        <v>-0.33093299999999998</v>
+      </c>
+      <c r="U18" s="84">
+        <v>0.27292494</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="51">
+        <v>2004</v>
+      </c>
+      <c r="D19" s="83">
+        <v>-1.13138487</v>
+      </c>
+      <c r="E19" s="84">
+        <v>0.14574860000000001</v>
+      </c>
+      <c r="F19" s="85">
+        <v>-1.3924312000000001</v>
+      </c>
+      <c r="G19" s="84">
+        <v>3.5557400000000003E-2</v>
+      </c>
+      <c r="H19" s="85">
+        <v>-0.92081948999999996</v>
+      </c>
+      <c r="I19" s="84">
+        <v>0.590505536</v>
+      </c>
+      <c r="J19" s="85">
+        <v>-0.89693491999999997</v>
+      </c>
+      <c r="K19" s="84">
+        <v>0.867726</v>
+      </c>
+      <c r="L19" s="87">
+        <v>-0.55006066300000001</v>
+      </c>
+      <c r="M19" s="88">
+        <v>0.28600303500000002</v>
+      </c>
+      <c r="N19" s="85">
+        <v>1.2949784</v>
+      </c>
+      <c r="O19" s="84">
+        <v>-0.17744816999999999</v>
+      </c>
+      <c r="P19" s="85">
+        <v>-0.78073736000000005</v>
+      </c>
+      <c r="Q19" s="84">
+        <v>0.60915185000000005</v>
+      </c>
+      <c r="R19" s="85">
+        <v>-0.2808349</v>
+      </c>
+      <c r="S19" s="84">
+        <v>1.2118489100000001</v>
+      </c>
+      <c r="T19" s="87">
+        <v>0.99257669999999998</v>
+      </c>
+      <c r="U19" s="84">
+        <v>3.746704E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="51">
+        <v>2005</v>
+      </c>
+      <c r="D20" s="83">
+        <v>-0.26399863000000001</v>
+      </c>
+      <c r="E20" s="84">
+        <v>-1.2144045999999999</v>
+      </c>
+      <c r="F20" s="85">
+        <v>-0.55150759999999999</v>
+      </c>
+      <c r="G20" s="84">
+        <v>-1.1371026</v>
+      </c>
+      <c r="H20" s="85">
+        <v>-0.67308221999999995</v>
+      </c>
+      <c r="I20" s="84">
+        <v>-0.80693722199999995</v>
+      </c>
+      <c r="J20" s="85">
+        <v>-0.99591074999999996</v>
+      </c>
+      <c r="K20" s="84">
+        <v>-1.1204455</v>
+      </c>
+      <c r="L20" s="87">
+        <v>-0.27316062899999999</v>
+      </c>
+      <c r="M20" s="88">
+        <v>-1.5793928349999999</v>
+      </c>
+      <c r="N20" s="85">
+        <v>0.30605179999999998</v>
+      </c>
+      <c r="O20" s="84">
+        <v>-1.0305826199999999</v>
+      </c>
+      <c r="P20" s="85">
+        <v>-0.87856162999999998</v>
+      </c>
+      <c r="Q20" s="84">
+        <v>-0.74156023000000004</v>
+      </c>
+      <c r="R20" s="85">
+        <v>-1.5690012</v>
+      </c>
+      <c r="S20" s="84">
+        <v>-0.10552267999999999</v>
+      </c>
+      <c r="T20" s="87">
+        <v>-0.24734200000000001</v>
+      </c>
+      <c r="U20" s="84">
+        <v>-1.42196345</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="51">
+        <v>2006</v>
+      </c>
+      <c r="D21" s="83">
+        <v>1.3042111700000001</v>
+      </c>
+      <c r="E21" s="84">
+        <v>2.4709379999999999</v>
+      </c>
+      <c r="F21" s="85">
+        <v>1.6838306000000001</v>
+      </c>
+      <c r="G21" s="84">
+        <v>2.1906839499999999</v>
+      </c>
+      <c r="H21" s="85">
+        <v>2.4390447800000001</v>
+      </c>
+      <c r="I21" s="84">
+        <v>1.644619764</v>
+      </c>
+      <c r="J21" s="85">
+        <v>2.8017931200000001</v>
+      </c>
+      <c r="K21" s="84">
+        <v>0.92928889999999997</v>
+      </c>
+      <c r="L21" s="87">
+        <v>1.5050172070000001</v>
+      </c>
+      <c r="M21" s="88">
+        <v>1.802115208</v>
+      </c>
+      <c r="N21" s="85">
+        <v>-1.2384094000000001</v>
+      </c>
+      <c r="O21" s="84">
+        <v>2.5634633199999999</v>
+      </c>
+      <c r="P21" s="85">
+        <v>2.8004441600000001</v>
+      </c>
+      <c r="Q21" s="84">
+        <v>1.37590302</v>
+      </c>
+      <c r="R21" s="85">
+        <v>2.9276464</v>
+      </c>
+      <c r="S21" s="84">
+        <v>-0.75692316999999998</v>
+      </c>
+      <c r="T21" s="87">
+        <v>-0.77964069999999996</v>
+      </c>
+      <c r="U21" s="84">
+        <v>2.5378464200000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="51">
+        <v>2007</v>
+      </c>
+      <c r="D22" s="83">
+        <v>1.21980212</v>
+      </c>
+      <c r="E22" s="84">
+        <v>1.6156676000000001</v>
+      </c>
+      <c r="F22" s="85">
+        <v>1.4145163000000001</v>
+      </c>
+      <c r="G22" s="84">
+        <v>1.33700898</v>
+      </c>
+      <c r="H22" s="85">
+        <v>1.93461861</v>
+      </c>
+      <c r="I22" s="84">
+        <v>0.96625941400000004</v>
+      </c>
+      <c r="J22" s="85">
+        <v>2.01777921</v>
+      </c>
+      <c r="K22" s="84">
+        <v>0.37995289999999998</v>
+      </c>
+      <c r="L22" s="87">
+        <v>1.783047869</v>
+      </c>
+      <c r="M22" s="88">
+        <v>0.61257446100000001</v>
+      </c>
+      <c r="N22" s="85">
+        <v>-1.1560701</v>
+      </c>
+      <c r="O22" s="84">
+        <v>1.6948943999999999</v>
+      </c>
+      <c r="P22" s="85">
+        <v>2.1162936499999998</v>
+      </c>
+      <c r="Q22" s="84">
+        <v>0.66041497999999998</v>
+      </c>
+      <c r="R22" s="85">
+        <v>1.9874917999999999</v>
+      </c>
+      <c r="S22" s="84">
+        <v>-0.83251662000000004</v>
+      </c>
+      <c r="T22" s="87">
+        <v>-1.2569764000000001</v>
+      </c>
+      <c r="U22" s="84">
+        <v>1.36491487</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="51">
+        <v>2008</v>
+      </c>
+      <c r="D23" s="83">
+        <v>7.6905089999999995E-2</v>
+      </c>
+      <c r="E23" s="84">
+        <v>1.805112</v>
+      </c>
+      <c r="F23" s="85">
+        <v>0.44844689999999998</v>
+      </c>
+      <c r="G23" s="84">
+        <v>1.27030329</v>
+      </c>
+      <c r="H23" s="85">
+        <v>0.12543072</v>
+      </c>
+      <c r="I23" s="84">
+        <v>1.2657814350000001</v>
+      </c>
+      <c r="J23" s="85">
+        <v>0.51803025000000003</v>
+      </c>
+      <c r="K23" s="84">
+        <v>1.8513747</v>
+      </c>
+      <c r="L23" s="87">
+        <v>1.0222462059999999</v>
+      </c>
+      <c r="M23" s="88">
+        <v>1.6997534379999999</v>
+      </c>
+      <c r="N23" s="85">
+        <v>-0.2165831</v>
+      </c>
+      <c r="O23" s="84">
+        <v>1.2308094999999999</v>
+      </c>
+      <c r="P23" s="85">
+        <v>0.40484966999999999</v>
+      </c>
+      <c r="Q23" s="84">
+        <v>1.1154991000000001</v>
+      </c>
+      <c r="R23" s="85">
+        <v>1.798624</v>
+      </c>
+      <c r="S23" s="84">
+        <v>0.93995892000000003</v>
+      </c>
+      <c r="T23" s="87">
+        <v>-0.24688599999999999</v>
+      </c>
+      <c r="U23" s="84">
+        <v>2.0237929299999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="51">
+        <v>2009</v>
+      </c>
+      <c r="D24" s="83">
+        <v>0.35915931000000001</v>
+      </c>
+      <c r="E24" s="84">
+        <v>1.2125307999999999</v>
+      </c>
+      <c r="F24" s="85">
+        <v>0.58818040000000005</v>
+      </c>
+      <c r="G24" s="84">
+        <v>1.1456259499999999</v>
+      </c>
+      <c r="H24" s="85">
+        <v>0.87570482000000005</v>
+      </c>
+      <c r="I24" s="84">
+        <v>1.0299331730000001</v>
+      </c>
+      <c r="J24" s="85">
+        <v>1.23473338</v>
+      </c>
+      <c r="K24" s="84">
+        <v>0.10497629999999999</v>
+      </c>
+      <c r="L24" s="87">
+        <v>-0.457385502</v>
+      </c>
+      <c r="M24" s="88">
+        <v>1.2066223220000001</v>
+      </c>
+      <c r="N24" s="85">
+        <v>-0.2907536</v>
+      </c>
+      <c r="O24" s="84">
+        <v>1.3243387799999999</v>
+      </c>
+      <c r="P24" s="85">
+        <v>1.02416028</v>
+      </c>
+      <c r="Q24" s="84">
+        <v>0.86384022000000005</v>
+      </c>
+      <c r="R24" s="85">
+        <v>1.0430128000000001</v>
+      </c>
+      <c r="S24" s="84">
+        <v>-0.46278286000000002</v>
+      </c>
+      <c r="T24" s="87">
+        <v>0.94722980000000001</v>
+      </c>
+      <c r="U24" s="84">
+        <v>0.91104459999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="52">
+        <v>2010</v>
+      </c>
+      <c r="D25" s="89">
+        <v>1.2776221699999999</v>
+      </c>
+      <c r="E25" s="90">
+        <v>2.1233680000000001</v>
+      </c>
+      <c r="F25" s="91">
+        <v>1.6074288000000001</v>
+      </c>
+      <c r="G25" s="90">
+        <v>1.8407297899999999</v>
+      </c>
+      <c r="H25" s="91">
+        <v>1.84050928</v>
+      </c>
+      <c r="I25" s="90">
+        <v>1.345947877</v>
+      </c>
+      <c r="J25" s="91">
+        <v>2.4252652800000001</v>
+      </c>
+      <c r="K25" s="90">
+        <v>0.80439939999999999</v>
+      </c>
+      <c r="L25" s="92">
+        <v>1.6470526050000001</v>
+      </c>
+      <c r="M25" s="93">
+        <v>1.6675876620000001</v>
+      </c>
+      <c r="N25" s="91">
+        <v>-1.2183379999999999</v>
+      </c>
+      <c r="O25" s="90">
+        <v>2.20604149</v>
+      </c>
+      <c r="P25" s="91">
+        <v>2.0376714100000002</v>
+      </c>
+      <c r="Q25" s="90">
+        <v>1.1479298200000001</v>
+      </c>
+      <c r="R25" s="91">
+        <v>2.5819898999999999</v>
+      </c>
+      <c r="S25" s="90">
+        <v>-0.74926417000000001</v>
+      </c>
+      <c r="T25" s="92">
+        <v>-0.67269400000000001</v>
+      </c>
+      <c r="U25" s="90">
+        <v>2.3003279600000002</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="55"/>
+    </row>
+    <row r="39" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="55"/>
+    </row>
+    <row r="40" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="55"/>
+    </row>
+    <row r="41" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="55"/>
+    </row>
+    <row r="42" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G50" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="62"/>
+      <c r="D4" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="66"/>
+    </row>
+    <row r="5" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="62"/>
+      <c r="D5" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="69">
+        <v>0.96620010000000001</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.90488420000000003</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.62051199999999995</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.85196640000000001</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0.99742589999999998</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.82120910000000003</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.16364219999999999</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.93618440000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:AH14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="66"/>
+    </row>
+    <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AF7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AG7" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="AH7" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y8" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z8" s="98">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="69">
+        <v>0.68666839999999996</v>
+      </c>
+      <c r="AB8" s="18">
+        <v>-1.395858</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>-0.81937349999999998</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>1.147813</v>
+      </c>
+      <c r="AE8" s="99">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="100">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="100">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="62"/>
+      <c r="C10" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="66"/>
+    </row>
+    <row r="11" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="62"/>
+      <c r="C11" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="59">
+        <v>0.15</v>
+      </c>
+      <c r="J11" s="61"/>
+      <c r="K11" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="61"/>
+      <c r="M11" s="95">
+        <v>0.05</v>
+      </c>
+      <c r="N11" s="96"/>
+      <c r="O11" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="95">
+        <v>0.15</v>
+      </c>
+      <c r="R11" s="96"/>
+      <c r="S11" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="T11" s="96"/>
+    </row>
+    <row r="12" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="62"/>
+      <c r="C12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="102">
+        <v>1</v>
+      </c>
+      <c r="D13" s="103">
+        <v>1</v>
+      </c>
+      <c r="E13" s="102">
+        <v>1</v>
+      </c>
+      <c r="F13" s="103">
+        <v>1</v>
+      </c>
+      <c r="G13" s="102">
+        <v>1</v>
+      </c>
+      <c r="H13" s="103">
+        <v>1</v>
+      </c>
+      <c r="I13" s="102">
+        <v>1</v>
+      </c>
+      <c r="J13" s="103">
+        <v>1</v>
+      </c>
+      <c r="K13" s="102">
+        <v>1</v>
+      </c>
+      <c r="L13" s="104">
+        <v>1</v>
+      </c>
+      <c r="M13" s="102">
+        <v>1</v>
+      </c>
+      <c r="N13" s="104">
+        <v>1</v>
+      </c>
+      <c r="O13" s="102">
+        <v>1</v>
+      </c>
+      <c r="P13" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="102">
+        <v>1</v>
+      </c>
+      <c r="R13" s="104">
+        <v>1</v>
+      </c>
+      <c r="S13" s="105">
+        <v>1</v>
+      </c>
+      <c r="T13" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="106">
+        <v>0</v>
+      </c>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108">
+        <v>-4.4170710000000002E-2</v>
+      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="108">
+        <v>2.6357200000000001E-2</v>
+      </c>
+      <c r="H14" s="109"/>
+      <c r="I14" s="108">
+        <v>3.9478970000000002E-2</v>
+      </c>
+      <c r="J14" s="109"/>
+      <c r="K14" s="108">
+        <v>-4.6575600000000002E-2</v>
+      </c>
+      <c r="L14" s="109"/>
+      <c r="M14" s="94">
+        <v>0</v>
+      </c>
+      <c r="N14" s="71"/>
+      <c r="O14" s="94">
+        <v>0</v>
+      </c>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="94">
+        <v>0</v>
+      </c>
+      <c r="R14" s="71"/>
+      <c r="S14" s="70">
+        <v>0</v>
+      </c>
+      <c r="T14" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AE6:AH6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C5" sqref="C5:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,118 +5521,118 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="28">
         <v>0.05</v>
       </c>
-      <c r="C5" s="6">
-        <v>2.3547663000000001</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1.8468149</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.89810449999999997</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.54963839999999997</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.27950829999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.12091780000000001</v>
+      <c r="C5" s="30">
+        <v>2.4795910999999999</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1.957416</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.94189250000000002</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.58870120000000004</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.29261969999999998</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.12618180000000001</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>0.1</v>
       </c>
-      <c r="C6" s="6">
-        <v>2.0492213000000001</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.8400072000000001</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1.0695745000000001</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.4218713</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.26856679999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.1102202</v>
+      <c r="C6" s="31">
+        <v>2.1561789999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.949568</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.1627291</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.47434100000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.27128659999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.107534</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>0.15</v>
       </c>
-      <c r="C7" s="6">
-        <v>2.6192856999999998</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.8931495</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.84602140000000003</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.33524090000000001</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.1818002</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.117256</v>
+      <c r="C7" s="31">
+        <v>2.7541533</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.0189161000000002</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.87455229999999995</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.36122680000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.17256099999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.14523630000000001</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.2</v>
       </c>
-      <c r="C8" s="9">
-        <v>2.8817975100000002</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.75038088</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.70137550000000004</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.44824257000000001</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.22830790000000001</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3.9058639999999999E-2</v>
+      <c r="C8" s="32">
+        <v>3.0107993500000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.8538081799999999</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.75890539999999995</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.47648666000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.23435476999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4.5665619999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2957,314 +5642,333 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M11"/>
+  <dimension ref="B5:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C7" sqref="C7:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="59">
         <v>0.05</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13">
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13">
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="59">
         <v>0.15</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13">
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="59">
         <v>0.2</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="61"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="N6" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>0.42985157000000002</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.48203832000000002</v>
-      </c>
-      <c r="D6" s="20">
-        <v>7.4783480000000001E-3</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.48446175000000002</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.33262427</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.22873473999999999</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.54164210000000002</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0.21208080000000001</v>
-      </c>
-      <c r="J6" s="20">
-        <v>-3.8678079999999999E-3</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.45701721000000001</v>
-      </c>
-      <c r="L6" s="19">
-        <v>0.45399</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0.274918</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
-        <v>7.2541140000000004E-2</v>
-      </c>
-      <c r="C7" s="23">
-        <v>-0.62732547000000005</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.17459092400000001</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-0.21535700999999999</v>
-      </c>
-      <c r="F7" s="23">
-        <v>-0.61879166200000002</v>
-      </c>
-      <c r="G7" s="24">
-        <v>7.1500930000000004E-2</v>
-      </c>
-      <c r="H7" s="22">
-        <v>-0.37744949999999999</v>
-      </c>
-      <c r="I7" s="23">
-        <v>-0.4453394</v>
-      </c>
-      <c r="J7" s="25">
-        <v>-0.16045061799999999</v>
-      </c>
-      <c r="K7" s="23">
-        <v>2.620575E-2</v>
-      </c>
-      <c r="L7" s="23">
-        <v>-0.68021779999999998</v>
-      </c>
-      <c r="M7" s="26">
-        <v>-0.3329182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
-        <v>0.19099405</v>
-      </c>
-      <c r="C8" s="23">
-        <v>-0.55079502000000002</v>
-      </c>
-      <c r="D8" s="24">
-        <v>6.3925269000000007E-2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>5.9907820000000001E-2</v>
-      </c>
-      <c r="F8" s="23">
-        <v>-0.57846883500000001</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0.21230416999999999</v>
-      </c>
-      <c r="H8" s="22">
-        <v>-0.1762966</v>
-      </c>
-      <c r="I8" s="23">
-        <v>-0.58610989999999996</v>
-      </c>
-      <c r="J8" s="24">
-        <v>-0.307340799</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0.39645993000000002</v>
-      </c>
-      <c r="L8" s="23">
-        <v>-0.27501209999999998</v>
-      </c>
-      <c r="M8" s="26">
-        <v>9.0972499999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
-        <v>0.30939021999999999</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.13511756</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.90019876300000001</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.23069413999999999</v>
-      </c>
-      <c r="F9" s="23">
-        <v>-8.8944980000000007E-3</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0.86503291999999998</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.25356699999999999</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.1585174</v>
-      </c>
-      <c r="J9" s="24">
-        <v>-0.90966833800000002</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.59439542000000001</v>
-      </c>
-      <c r="L9" s="23">
-        <v>0.23621619999999999</v>
-      </c>
-      <c r="M9" s="26">
-        <v>-0.69630210000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
-        <v>0.61449551999999996</v>
-      </c>
-      <c r="C10" s="23">
-        <v>4.0960709999999997E-2</v>
-      </c>
-      <c r="D10" s="24">
-        <v>-0.36299537700000001</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0.60741867999999999</v>
-      </c>
-      <c r="F10" s="23">
-        <v>-5.854463E-2</v>
-      </c>
-      <c r="G10" s="25">
-        <v>-0.33477213</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0.45467150000000001</v>
-      </c>
-      <c r="I10" s="23">
-        <v>-0.4097056</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0.22680308699999999</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.38960815999999998</v>
-      </c>
-      <c r="L10" s="23">
-        <v>-0.20005149999999999</v>
-      </c>
-      <c r="M10" s="26">
-        <v>0.55124839999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="27">
-        <v>0.54786826</v>
-      </c>
-      <c r="C11" s="28">
-        <v>-0.22537109999999999</v>
-      </c>
-      <c r="D11" s="29">
-        <v>-0.15248667699999999</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0.54143511</v>
-      </c>
-      <c r="F11" s="28">
-        <v>-0.41027453699999999</v>
-      </c>
-      <c r="G11" s="29">
-        <v>-0.19271906</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0.511911</v>
-      </c>
-      <c r="I11" s="28">
-        <v>-0.46923690000000001</v>
-      </c>
-      <c r="J11" s="29">
-        <v>2.9088592E-2</v>
-      </c>
-      <c r="K11" s="28">
-        <v>0.35800504999999999</v>
-      </c>
-      <c r="L11" s="28">
-        <v>-0.39968300000000001</v>
-      </c>
-      <c r="M11" s="30">
-        <v>0.12883349999999999</v>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.42971407</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.46277439999999997</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.09397E-2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.48997160000000001</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.33762173000000001</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.23923615000000001</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0.5411724</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.2265876</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1.085676E-2</v>
+      </c>
+      <c r="L7" s="36">
+        <v>0.45318444000000002</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.4373667</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.27179540000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37">
+        <v>7.2809910000000005E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-0.63066449999999996</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.17208039999999999</v>
+      </c>
+      <c r="F8" s="24">
+        <v>-0.22206490000000001</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-0.62466712000000002</v>
+      </c>
+      <c r="H8" s="16">
+        <v>8.7050020000000006E-2</v>
+      </c>
+      <c r="I8" s="24">
+        <v>-0.37692730000000002</v>
+      </c>
+      <c r="J8" s="15">
+        <v>-0.4499708</v>
+      </c>
+      <c r="K8" s="17">
+        <v>-0.22487492000000001</v>
+      </c>
+      <c r="L8" s="24">
+        <v>3.1259809999999999E-2</v>
+      </c>
+      <c r="M8" s="15">
+        <v>-0.68032910000000002</v>
+      </c>
+      <c r="N8" s="16">
+        <v>-0.3010774</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0.19053603</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-0.55745840000000002</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6.16477E-2</v>
+      </c>
+      <c r="F9" s="24">
+        <v>5.57729E-2</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-0.57778094999999996</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.18990064000000001</v>
+      </c>
+      <c r="I9" s="24">
+        <v>-0.17996870000000001</v>
+      </c>
+      <c r="J9" s="15">
+        <v>-0.60360069999999999</v>
+      </c>
+      <c r="K9" s="16">
+        <v>-0.27510973</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0.39864007000000001</v>
+      </c>
+      <c r="M9" s="15">
+        <v>-0.29144740000000002</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0.1573744</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.30794284</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.12016300000000001</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.90271939999999995</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.23530229999999999</v>
+      </c>
+      <c r="G10" s="15">
+        <v>-1.0221539999999999E-2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.88520308999999997</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.25316129999999998</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.1749954</v>
+      </c>
+      <c r="K10" s="16">
+        <v>-0.91997408000000003</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0.58910766999999997</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.2154491</v>
+      </c>
+      <c r="N10" s="16">
+        <v>-0.67758660000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.61478294</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.53419E-2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-0.35998429999999998</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.60333349999999997</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-4.7589350000000002E-2</v>
+      </c>
+      <c r="H11" s="17">
+        <v>-0.29911975000000002</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.45203739999999998</v>
+      </c>
+      <c r="J11" s="15">
+        <v>-0.39139659999999998</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.16483424999999999</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.39466455</v>
+      </c>
+      <c r="M11" s="15">
+        <v>-0.21697830000000001</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.58164490000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.54859247</v>
+      </c>
+      <c r="D12" s="18">
+        <v>-0.25033539999999999</v>
+      </c>
+      <c r="E12" s="19">
+        <v>-0.14824709999999999</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0.53677359999999996</v>
+      </c>
+      <c r="G12" s="18">
+        <v>-0.39950281999999998</v>
+      </c>
+      <c r="H12" s="19">
+        <v>-0.16145889999999999</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0.51404380000000005</v>
+      </c>
+      <c r="J12" s="18">
+        <v>-0.44501210000000002</v>
+      </c>
+      <c r="K12" s="19">
+        <v>-1.026649E-2</v>
+      </c>
+      <c r="L12" s="39">
+        <v>0.36321457000000001</v>
+      </c>
+      <c r="M12" s="18">
+        <v>-0.40917369999999997</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.1152328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3272,843 +5976,906 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M25"/>
+  <dimension ref="C8:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+    <row r="8" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="59">
         <v>0.05</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="59">
         <v>0.1</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13">
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="59">
         <v>0.15</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13">
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="59">
         <v>0.2</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
+    </row>
+    <row r="9" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="F9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="G9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="H9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="I9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="J9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="K9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="L9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="M9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="N9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="O9" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="33">
-        <v>-3.3833825000000002</v>
-      </c>
-      <c r="C6" s="19">
-        <v>1.0058282700000001</v>
-      </c>
-      <c r="D6" s="34">
-        <v>-0.50312358000000001</v>
-      </c>
-      <c r="E6" s="18">
-        <v>-2.68799242</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1.9219011189999999</v>
-      </c>
-      <c r="G6" s="20">
-        <v>-0.95531758</v>
-      </c>
-      <c r="H6" s="18">
-        <v>-1.6608094</v>
-      </c>
-      <c r="I6" s="19">
-        <v>2.6507439000000002</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0.70245385999999999</v>
-      </c>
-      <c r="K6" s="19">
-        <v>-4.0577607699999998</v>
-      </c>
-      <c r="L6" s="19">
-        <v>1.2254999499999999</v>
-      </c>
-      <c r="M6" s="34">
-        <v>0.47231220000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
-        <v>-3.1707724000000002</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1.6826893199999999</v>
-      </c>
-      <c r="D7" s="24">
-        <v>-0.25359609999999999</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-2.4254762400000001</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1.7278944270000001</v>
-      </c>
-      <c r="G7" s="24">
-        <v>-0.12203849</v>
-      </c>
-      <c r="H7" s="22">
-        <v>-2.3321730000000001</v>
-      </c>
-      <c r="I7" s="35">
-        <v>1.5401676</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0.92777715999999999</v>
-      </c>
-      <c r="K7" s="23">
-        <v>-2.5087603600000001</v>
-      </c>
-      <c r="L7" s="23">
-        <v>2.0550534699999998</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0.20789307000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
-        <v>1.1005026</v>
-      </c>
-      <c r="C8" s="23">
-        <v>-0.25744419000000002</v>
-      </c>
-      <c r="D8" s="24">
-        <v>-1.7125575900000001</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1.0099418</v>
-      </c>
-      <c r="F8" s="23">
-        <v>4.3363009999999999E-3</v>
-      </c>
-      <c r="G8" s="24">
-        <v>-1.91656962</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1.5009361999999999</v>
-      </c>
-      <c r="I8" s="23">
-        <v>-0.89478230000000003</v>
-      </c>
-      <c r="J8" s="24">
-        <v>-0.81845131999999998</v>
-      </c>
-      <c r="K8" s="23">
-        <v>3.5044548899999999</v>
-      </c>
-      <c r="L8" s="23">
-        <v>0.27789030999999997</v>
-      </c>
-      <c r="M8" s="24">
-        <v>-0.15269137999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
-        <v>1.3979168</v>
-      </c>
-      <c r="C9" s="23">
-        <v>-1.0035204799999999</v>
-      </c>
-      <c r="D9" s="24">
-        <v>-2.1652476699999998</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1.4492709800000001</v>
-      </c>
-      <c r="F9" s="23">
-        <v>-1.0690595119999999</v>
-      </c>
-      <c r="G9" s="24">
-        <v>-2.3858664599999999</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.91546360000000004</v>
-      </c>
-      <c r="I9" s="23">
-        <v>-2.9880669000000002</v>
-      </c>
-      <c r="J9" s="24">
-        <v>1.9254277</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.45079086000000002</v>
-      </c>
-      <c r="L9" s="23">
-        <v>-2.0492826000000002</v>
-      </c>
-      <c r="M9" s="24">
-        <v>2.3161994899999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
-        <v>1.7197081999999999</v>
-      </c>
-      <c r="C10" s="23">
-        <v>-0.72298178000000002</v>
-      </c>
-      <c r="D10" s="24">
-        <v>-0.83730413999999997</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1.61091243</v>
-      </c>
-      <c r="F10" s="35">
-        <v>-0.93409666300000005</v>
-      </c>
-      <c r="G10" s="24">
-        <v>-1.0663390500000001</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0.58833139999999995</v>
-      </c>
-      <c r="I10" s="23">
-        <v>-1.7678887999999999</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0.80082111</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.82510194999999997</v>
-      </c>
-      <c r="L10" s="23">
-        <v>-1.6683987899999999</v>
-      </c>
-      <c r="M10" s="24">
-        <v>1.19567377</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
-        <v>1.3502472000000001</v>
-      </c>
-      <c r="C11" s="23">
-        <v>-2.4913945499999999</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1.16482836</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.66211249000000005</v>
-      </c>
-      <c r="F11" s="23">
-        <v>-2.6591409530000001</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1.1522102599999999</v>
-      </c>
-      <c r="H11" s="22">
-        <v>-1.1785190000000001</v>
-      </c>
-      <c r="I11" s="23">
-        <v>-1.9866401</v>
-      </c>
-      <c r="J11" s="24">
-        <v>-1.5990089999999999</v>
-      </c>
-      <c r="K11" s="23">
-        <v>1.1293486399999999</v>
-      </c>
-      <c r="L11" s="23">
-        <v>-1.75229148</v>
-      </c>
-      <c r="M11" s="24">
-        <v>-0.75125593999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="22">
-        <v>-1.1994984</v>
-      </c>
-      <c r="C12" s="23">
-        <v>-3.2033109799999999</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.29284633999999998</v>
-      </c>
-      <c r="E12" s="22">
-        <v>-1.25114305</v>
-      </c>
-      <c r="F12" s="23">
-        <v>-2.9390847240000002</v>
-      </c>
-      <c r="G12" s="24">
-        <v>-1.371474E-2</v>
-      </c>
-      <c r="H12" s="22">
-        <v>-3.4478468000000002</v>
-      </c>
-      <c r="I12" s="23">
-        <v>-1.6364615</v>
-      </c>
-      <c r="J12" s="24">
-        <v>-0.55130721000000005</v>
-      </c>
-      <c r="K12" s="23">
-        <v>-1.8955990899999999</v>
-      </c>
-      <c r="L12" s="23">
-        <v>-2.0018907100000001</v>
-      </c>
-      <c r="M12" s="24">
-        <v>-0.23465622</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
-        <v>-2.0642307</v>
-      </c>
-      <c r="C13" s="23">
-        <v>-0.21394050000000001</v>
-      </c>
-      <c r="D13" s="24">
-        <v>-0.21768868999999999</v>
-      </c>
-      <c r="E13" s="22">
-        <v>-1.9205836999999999</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.33013974699999998</v>
-      </c>
-      <c r="G13" s="24">
-        <v>-0.41428938999999998</v>
-      </c>
-      <c r="H13" s="22">
-        <v>-1.8015175000000001</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.32346360000000002</v>
-      </c>
-      <c r="J13" s="24">
-        <v>-0.24320359</v>
-      </c>
-      <c r="K13" s="23">
-        <v>-2.1106402000000002</v>
-      </c>
-      <c r="L13" s="23">
-        <v>-0.13530618</v>
-      </c>
-      <c r="M13" s="24">
-        <v>-0.46358287999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="22">
-        <v>-0.9239387</v>
-      </c>
-      <c r="C14" s="23">
-        <v>-0.50915246999999997</v>
-      </c>
-      <c r="D14" s="24">
-        <v>-9.6536830000000004E-2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>-0.91839501000000001</v>
-      </c>
-      <c r="F14" s="23">
-        <v>-1.006762771</v>
-      </c>
-      <c r="G14" s="24">
-        <v>-0.26282441000000001</v>
-      </c>
-      <c r="H14" s="22">
-        <v>-1.6176006999999999</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.87834679999999998</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0.39772963</v>
-      </c>
-      <c r="K14" s="23">
-        <v>-0.69332689999999997</v>
-      </c>
-      <c r="L14" s="23">
-        <v>-0.91720517999999995</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0.39156580000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
-        <v>-0.71029589999999998</v>
-      </c>
-      <c r="C15" s="23">
-        <v>-0.45846991999999998</v>
-      </c>
-      <c r="D15" s="24">
-        <v>2.4441979999999999E-2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>-0.67510658999999995</v>
-      </c>
-      <c r="F15" s="23">
-        <v>-0.30128699199999998</v>
-      </c>
-      <c r="G15" s="24">
-        <v>-9.7015019999999993E-2</v>
-      </c>
-      <c r="H15" s="22">
-        <v>-0.1017762</v>
-      </c>
-      <c r="I15" s="23">
-        <v>-0.63208370000000003</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0.81534932999999998</v>
-      </c>
-      <c r="K15" s="23">
-        <v>-0.86803792999999996</v>
-      </c>
-      <c r="L15" s="23">
-        <v>-0.96399464999999995</v>
-      </c>
-      <c r="M15" s="24">
-        <v>-0.57083598999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
-        <v>0.45134360000000001</v>
-      </c>
-      <c r="C16" s="23">
-        <v>-0.75917467000000005</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1.26178327</v>
-      </c>
-      <c r="E16" s="22">
-        <v>-6.7885509999999996E-2</v>
-      </c>
-      <c r="F16" s="23">
-        <v>-1.12710329</v>
-      </c>
-      <c r="G16" s="24">
-        <v>1.4288051799999999</v>
-      </c>
-      <c r="H16" s="22">
-        <v>-0.3254629</v>
-      </c>
-      <c r="I16" s="23">
-        <v>-0.3680793</v>
-      </c>
-      <c r="J16" s="24">
-        <v>-1.0886311900000001</v>
-      </c>
-      <c r="K16" s="23">
-        <v>0.82708804999999996</v>
-      </c>
-      <c r="L16" s="23">
-        <v>6.5064380000000005E-2</v>
-      </c>
-      <c r="M16" s="24">
-        <v>-0.69884159000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
-        <v>-0.31104569999999998</v>
-      </c>
-      <c r="C17" s="23">
-        <v>-0.16087431999999999</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.56041580000000002</v>
-      </c>
-      <c r="E17" s="22">
-        <v>-0.46142044999999998</v>
-      </c>
-      <c r="F17" s="23">
-        <v>-1.9736981000000001E-2</v>
-      </c>
-      <c r="G17" s="24">
-        <v>0.51444193999999999</v>
-      </c>
-      <c r="H17" s="22">
-        <v>-0.14998410000000001</v>
-      </c>
-      <c r="I17" s="23">
-        <v>0.74235050000000002</v>
-      </c>
-      <c r="J17" s="24">
-        <v>3.1755419999999999E-2</v>
-      </c>
-      <c r="K17" s="23">
-        <v>-1.203249E-2</v>
-      </c>
-      <c r="L17" s="23">
-        <v>-0.76308281</v>
-      </c>
-      <c r="M17" s="24">
-        <v>-0.51039466</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="22">
-        <v>0.2604805</v>
-      </c>
-      <c r="C18" s="23">
-        <v>6.6707329999999995E-2</v>
-      </c>
-      <c r="D18" s="24">
-        <v>1.5682298800000001</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.23177053</v>
-      </c>
-      <c r="F18" s="23">
-        <v>-6.9198879999999999E-3</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1.4716155099999999</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0.1461681</v>
-      </c>
-      <c r="I18" s="23">
-        <v>0.1701423</v>
-      </c>
-      <c r="J18" s="24">
-        <v>-1.40213499</v>
-      </c>
-      <c r="K18" s="23">
-        <v>0.73646853000000001</v>
-      </c>
-      <c r="L18" s="23">
-        <v>-1.8194809999999999E-2</v>
-      </c>
-      <c r="M18" s="24">
-        <v>-1.2759028800000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="22">
-        <v>-1.3907308</v>
-      </c>
-      <c r="C19" s="23">
-        <v>6.0331549999999998E-2</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.70994312000000004</v>
-      </c>
-      <c r="E19" s="22">
-        <v>-0.93349472</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0.55837096399999997</v>
-      </c>
-      <c r="G19" s="24">
-        <v>0.85676865000000002</v>
-      </c>
-      <c r="H19" s="22">
-        <v>-0.89934009999999998</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0.8394201</v>
-      </c>
-      <c r="J19" s="24">
-        <v>-0.31557584999999999</v>
-      </c>
-      <c r="K19" s="23">
-        <v>-0.54086705999999996</v>
-      </c>
-      <c r="L19" s="23">
-        <v>0.29412660000000002</v>
-      </c>
-      <c r="M19" s="24">
-        <v>-0.73910721999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="22">
-        <v>-0.55129620000000001</v>
-      </c>
-      <c r="C20" s="23">
-        <v>-1.12343656</v>
-      </c>
-      <c r="D20" s="24">
-        <v>-0.14925174999999999</v>
-      </c>
-      <c r="E20" s="22">
-        <v>-0.66233827000000001</v>
-      </c>
-      <c r="F20" s="23">
-        <v>-0.83740185700000003</v>
-      </c>
-      <c r="G20" s="24">
-        <v>-0.33304871000000003</v>
-      </c>
-      <c r="H20" s="22">
-        <v>-1.0024898</v>
-      </c>
-      <c r="I20" s="23">
-        <v>-1.1087768</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0.22098028</v>
-      </c>
-      <c r="K20" s="23">
-        <v>-0.28551738999999998</v>
-      </c>
-      <c r="L20" s="23">
-        <v>-1.5653332499999999</v>
-      </c>
-      <c r="M20" s="24">
-        <v>-8.7737369999999995E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="22">
-        <v>1.6838199</v>
-      </c>
-      <c r="C21" s="23">
-        <v>2.17108897</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.29368325000000001</v>
-      </c>
-      <c r="E21" s="22">
-        <v>2.4120821800000001</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1.7475886359999999</v>
-      </c>
-      <c r="G21" s="24">
-        <v>0.72668999999999995</v>
-      </c>
-      <c r="H21" s="22">
-        <v>2.8031321999999999</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0.96945380000000003</v>
-      </c>
-      <c r="J21" s="24">
-        <v>-0.13844102999999999</v>
-      </c>
-      <c r="K21" s="23">
-        <v>1.5193692000000001</v>
-      </c>
-      <c r="L21" s="23">
-        <v>1.7601084300000001</v>
-      </c>
-      <c r="M21" s="24">
-        <v>0.70338889000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="22">
-        <v>1.4161314</v>
-      </c>
-      <c r="C22" s="23">
-        <v>1.31794056</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.46547164000000002</v>
-      </c>
-      <c r="E22" s="22">
-        <v>1.9181664300000001</v>
-      </c>
-      <c r="F22" s="23">
-        <v>1.053951418</v>
-      </c>
-      <c r="G22" s="24">
-        <v>0.88182057999999997</v>
-      </c>
-      <c r="H22" s="22">
-        <v>2.0204385</v>
-      </c>
-      <c r="I22" s="23">
-        <v>0.41348430000000003</v>
-      </c>
-      <c r="J22" s="24">
-        <v>-0.4659547</v>
-      </c>
-      <c r="K22" s="23">
-        <v>1.78824235</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0.55283494</v>
-      </c>
-      <c r="M22" s="24">
-        <v>0.34031577000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="22">
-        <v>0.4522119</v>
-      </c>
-      <c r="C23" s="23">
-        <v>1.2573419699999999</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.45508676999999997</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.10265802</v>
-      </c>
-      <c r="F23" s="23">
-        <v>1.263747473</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.72176174000000004</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0.52045390000000002</v>
-      </c>
-      <c r="I23" s="23">
-        <v>1.8004610000000001</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0.25775027</v>
-      </c>
-      <c r="K23" s="23">
-        <v>1.04300338</v>
-      </c>
-      <c r="L23" s="23">
-        <v>1.6779251100000001</v>
-      </c>
-      <c r="M23" s="24">
-        <v>0.66448578000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="22">
-        <v>0.58567939999999996</v>
-      </c>
-      <c r="C24" s="23">
-        <v>1.1350966300000001</v>
-      </c>
-      <c r="D24" s="24">
-        <v>-1.2188112200000001</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0.87413092999999997</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1.056392379</v>
-      </c>
-      <c r="G24" s="24">
-        <v>-1.0943097399999999</v>
-      </c>
-      <c r="H24" s="22">
-        <v>1.2413619</v>
-      </c>
-      <c r="I24" s="23">
-        <v>0.1430553</v>
-      </c>
-      <c r="J24" s="24">
-        <v>1.56112826</v>
-      </c>
-      <c r="K24" s="23">
-        <v>-0.44690105000000002</v>
-      </c>
-      <c r="L24" s="23">
-        <v>1.1985177199999999</v>
-      </c>
-      <c r="M24" s="24">
-        <v>1.2334598699999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="27">
-        <v>1.611154</v>
-      </c>
-      <c r="C25" s="28">
-        <v>1.8224453199999999</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0.96706073999999997</v>
-      </c>
-      <c r="E25" s="27">
-        <v>1.8209014699999999</v>
-      </c>
-      <c r="F25" s="28">
-        <v>1.421643309</v>
-      </c>
-      <c r="G25" s="29">
-        <v>0.20612385999999999</v>
-      </c>
-      <c r="H25" s="27">
-        <v>2.4263572</v>
-      </c>
-      <c r="I25" s="28">
-        <v>0.82883169999999995</v>
-      </c>
-      <c r="J25" s="29">
-        <v>-0.87435790000000002</v>
-      </c>
-      <c r="K25" s="28">
-        <v>1.6610805099999999</v>
-      </c>
-      <c r="L25" s="28">
-        <v>1.60502693</v>
-      </c>
-      <c r="M25" s="29">
-        <v>-0.35443267000000001</v>
+    <row r="10" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="50">
+        <v>1991</v>
+      </c>
+      <c r="D10" s="42">
+        <v>-3.3856093</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0.96223820000000004</v>
+      </c>
+      <c r="F10" s="43">
+        <v>-0.52251583999999995</v>
+      </c>
+      <c r="G10" s="42">
+        <v>-2.6674976699999999</v>
+      </c>
+      <c r="H10" s="40">
+        <v>2.0407576409999999</v>
+      </c>
+      <c r="I10" s="41">
+        <v>-1.3964286400000001</v>
+      </c>
+      <c r="J10" s="42">
+        <v>-1.65576441</v>
+      </c>
+      <c r="K10" s="40">
+        <v>2.6994056999999998</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0.92977025000000002</v>
+      </c>
+      <c r="M10" s="42">
+        <v>-4.0501223829999997</v>
+      </c>
+      <c r="N10" s="40">
+        <v>1.088501575</v>
+      </c>
+      <c r="O10" s="43">
+        <v>0.73527465999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="51">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="46">
+        <v>-3.1706444</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1.6390586700000001</v>
+      </c>
+      <c r="F11" s="45">
+        <v>-0.25507866000000001</v>
+      </c>
+      <c r="G11" s="46">
+        <v>-2.41899438</v>
+      </c>
+      <c r="H11" s="44">
+        <v>1.8565298299999999</v>
+      </c>
+      <c r="I11" s="45">
+        <v>-0.35675426999999998</v>
+      </c>
+      <c r="J11" s="46">
+        <v>-2.3260837699999999</v>
+      </c>
+      <c r="K11" s="46">
+        <v>1.5794055</v>
+      </c>
+      <c r="L11" s="45">
+        <v>1.11584697</v>
+      </c>
+      <c r="M11" s="46">
+        <v>-2.5280118659999999</v>
+      </c>
+      <c r="N11" s="44">
+        <v>1.9728107969999999</v>
+      </c>
+      <c r="O11" s="45">
+        <v>0.42392541</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="51">
+        <v>1993</v>
+      </c>
+      <c r="D12" s="46">
+        <v>1.1035482999999999</v>
+      </c>
+      <c r="E12" s="44">
+        <v>-0.23716872</v>
+      </c>
+      <c r="F12" s="45">
+        <v>-1.7074140799999999</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.99863522999999998</v>
+      </c>
+      <c r="H12" s="44">
+        <v>-2.0488859000000002E-2</v>
+      </c>
+      <c r="I12" s="45">
+        <v>-1.85359721</v>
+      </c>
+      <c r="J12" s="46">
+        <v>1.4924016600000001</v>
+      </c>
+      <c r="K12" s="44">
+        <v>-0.9340058</v>
+      </c>
+      <c r="L12" s="45">
+        <v>-0.64793182999999999</v>
+      </c>
+      <c r="M12" s="46">
+        <v>3.4669060140000001</v>
+      </c>
+      <c r="N12" s="44">
+        <v>0.34315525400000002</v>
+      </c>
+      <c r="O12" s="45">
+        <v>-7.6061130000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="51">
+        <v>1994</v>
+      </c>
+      <c r="D13" s="46">
+        <v>1.3998495</v>
+      </c>
+      <c r="E13" s="44">
+        <v>-0.98069118</v>
+      </c>
+      <c r="F13" s="45">
+        <v>-2.15300651</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1.4221110800000001</v>
+      </c>
+      <c r="H13" s="44">
+        <v>-1.118063169</v>
+      </c>
+      <c r="I13" s="45">
+        <v>-2.24315219</v>
+      </c>
+      <c r="J13" s="46">
+        <v>0.91680488999999998</v>
+      </c>
+      <c r="K13" s="44">
+        <v>-3.0838516999999999</v>
+      </c>
+      <c r="L13" s="45">
+        <v>1.69148871</v>
+      </c>
+      <c r="M13" s="46">
+        <v>0.48462270600000001</v>
+      </c>
+      <c r="N13" s="44">
+        <v>-2.0381526889999999</v>
+      </c>
+      <c r="O13" s="45">
+        <v>2.1946080800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="51">
+        <v>1995</v>
+      </c>
+      <c r="D14" s="46">
+        <v>1.7231145999999999</v>
+      </c>
+      <c r="E14" s="44">
+        <v>-0.69924069</v>
+      </c>
+      <c r="F14" s="45">
+        <v>-0.82565991999999999</v>
+      </c>
+      <c r="G14" s="46">
+        <v>1.58126141</v>
+      </c>
+      <c r="H14" s="46">
+        <v>-0.99349328100000001</v>
+      </c>
+      <c r="I14" s="45">
+        <v>-0.87997272000000004</v>
+      </c>
+      <c r="J14" s="46">
+        <v>0.58189515000000003</v>
+      </c>
+      <c r="K14" s="44">
+        <v>-1.7072343999999999</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0.54383373000000002</v>
+      </c>
+      <c r="M14" s="46">
+        <v>0.85546992200000005</v>
+      </c>
+      <c r="N14" s="44">
+        <v>-1.6717409809999999</v>
+      </c>
+      <c r="O14" s="45">
+        <v>1.0932748400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="51">
+        <v>1996</v>
+      </c>
+      <c r="D15" s="46">
+        <v>1.3495992999999999</v>
+      </c>
+      <c r="E15" s="44">
+        <v>-2.4721197199999998</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1.1738225200000001</v>
+      </c>
+      <c r="G15" s="46">
+        <v>0.64129594999999995</v>
+      </c>
+      <c r="H15" s="44">
+        <v>-2.698094282</v>
+      </c>
+      <c r="I15" s="45">
+        <v>1.278025</v>
+      </c>
+      <c r="J15" s="46">
+        <v>-1.1947678900000001</v>
+      </c>
+      <c r="K15" s="44">
+        <v>-1.9242809000000001</v>
+      </c>
+      <c r="L15" s="45">
+        <v>-1.6732713800000001</v>
+      </c>
+      <c r="M15" s="46">
+        <v>1.151529204</v>
+      </c>
+      <c r="N15" s="44">
+        <v>-1.7529772699999999</v>
+      </c>
+      <c r="O15" s="45">
+        <v>-0.85474788999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="51">
+        <v>1997</v>
+      </c>
+      <c r="D16" s="46">
+        <v>-1.2028555999999999</v>
+      </c>
+      <c r="E16" s="44">
+        <v>-3.2540331600000001</v>
+      </c>
+      <c r="F16" s="45">
+        <v>0.28138919000000001</v>
+      </c>
+      <c r="G16" s="46">
+        <v>-1.27442619</v>
+      </c>
+      <c r="H16" s="44">
+        <v>-2.8872983190000001</v>
+      </c>
+      <c r="I16" s="45">
+        <v>-2.912621E-2</v>
+      </c>
+      <c r="J16" s="46">
+        <v>-3.4598649899999998</v>
+      </c>
+      <c r="K16" s="44">
+        <v>-1.5759405</v>
+      </c>
+      <c r="L16" s="45">
+        <v>-0.48361743000000001</v>
+      </c>
+      <c r="M16" s="46">
+        <v>-1.854949991</v>
+      </c>
+      <c r="N16" s="44">
+        <v>-2.0481124679999998</v>
+      </c>
+      <c r="O16" s="45">
+        <v>-0.36827516999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="51">
+        <v>1998</v>
+      </c>
+      <c r="D17" s="46">
+        <v>-2.0625233999999999</v>
+      </c>
+      <c r="E17" s="44">
+        <v>-0.24303077000000001</v>
+      </c>
+      <c r="F17" s="45">
+        <v>-0.22459098</v>
+      </c>
+      <c r="G17" s="46">
+        <v>-1.92015559</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0.41733798</v>
+      </c>
+      <c r="I17" s="45">
+        <v>-0.54820378999999997</v>
+      </c>
+      <c r="J17" s="46">
+        <v>-1.7981444099999999</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0.35035889999999997</v>
+      </c>
+      <c r="L17" s="45">
+        <v>7.0333069999999998E-2</v>
+      </c>
+      <c r="M17" s="46">
+        <v>-2.111214258</v>
+      </c>
+      <c r="N17" s="44">
+        <v>-0.19723101500000001</v>
+      </c>
+      <c r="O17" s="45">
+        <v>-0.39884529000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="51">
+        <v>1999</v>
+      </c>
+      <c r="D18" s="46">
+        <v>-0.92232309999999995</v>
+      </c>
+      <c r="E18" s="44">
+        <v>-0.52497890000000003</v>
+      </c>
+      <c r="F18" s="45">
+        <v>-9.8074900000000007E-2</v>
+      </c>
+      <c r="G18" s="46">
+        <v>-0.93076760999999997</v>
+      </c>
+      <c r="H18" s="44">
+        <v>-0.96685322200000001</v>
+      </c>
+      <c r="I18" s="45">
+        <v>-0.30734154000000002</v>
+      </c>
+      <c r="J18" s="46">
+        <v>-1.60895521</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0.87904400000000005</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0.49460391999999997</v>
+      </c>
+      <c r="M18" s="46">
+        <v>-0.67934244300000002</v>
+      </c>
+      <c r="N18" s="44">
+        <v>-0.95321412699999997</v>
+      </c>
+      <c r="O18" s="45">
+        <v>0.41530888999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="51">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="46">
+        <v>-0.70789340000000001</v>
+      </c>
+      <c r="E19" s="44">
+        <v>-0.47073644999999997</v>
+      </c>
+      <c r="F19" s="45">
+        <v>2.2778039999999999E-2</v>
+      </c>
+      <c r="G19" s="46">
+        <v>-0.67743931999999996</v>
+      </c>
+      <c r="H19" s="44">
+        <v>-0.27090311299999997</v>
+      </c>
+      <c r="I19" s="45">
+        <v>-0.12182075000000001</v>
+      </c>
+      <c r="J19" s="46">
+        <v>-9.3657279999999996E-2</v>
+      </c>
+      <c r="K19" s="44">
+        <v>-0.60951290000000002</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0.69881769000000005</v>
+      </c>
+      <c r="M19" s="46">
+        <v>-0.85859757400000003</v>
+      </c>
+      <c r="N19" s="44">
+        <v>-0.96249544200000003</v>
+      </c>
+      <c r="O19" s="45">
+        <v>-0.60834644000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="51">
+        <v>2001</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0.4496194</v>
+      </c>
+      <c r="E20" s="44">
+        <v>-0.76668031000000003</v>
+      </c>
+      <c r="F20" s="45">
+        <v>1.2615516</v>
+      </c>
+      <c r="G20" s="46">
+        <v>-6.5340980000000007E-2</v>
+      </c>
+      <c r="H20" s="44">
+        <v>-1.1317642210000001</v>
+      </c>
+      <c r="I20" s="45">
+        <v>1.4746336499999999</v>
+      </c>
+      <c r="J20" s="46">
+        <v>-0.32314219999999999</v>
+      </c>
+      <c r="K20" s="44">
+        <v>-0.34160760000000001</v>
+      </c>
+      <c r="L20" s="45">
+        <v>-1.1923298499999999</v>
+      </c>
+      <c r="M20" s="46">
+        <v>0.82211365400000003</v>
+      </c>
+      <c r="N20" s="44">
+        <v>9.6857051E-2</v>
+      </c>
+      <c r="O20" s="45">
+        <v>-0.69267208000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="51">
+        <v>2002</v>
+      </c>
+      <c r="D21" s="46">
+        <v>-0.31263819999999998</v>
+      </c>
+      <c r="E21" s="44">
+        <v>-0.1660287</v>
+      </c>
+      <c r="F21" s="45">
+        <v>0.55745297999999999</v>
+      </c>
+      <c r="G21" s="46">
+        <v>-0.45790344999999999</v>
+      </c>
+      <c r="H21" s="44">
+        <v>-5.6037930000000001E-3</v>
+      </c>
+      <c r="I21" s="45">
+        <v>0.52066975000000004</v>
+      </c>
+      <c r="J21" s="46">
+        <v>-0.14853759</v>
+      </c>
+      <c r="K21" s="44">
+        <v>0.75605880000000003</v>
+      </c>
+      <c r="L21" s="45">
+        <v>7.2562539999999995E-2</v>
+      </c>
+      <c r="M21" s="46">
+        <v>-7.9277610000000002E-3</v>
+      </c>
+      <c r="N21" s="44">
+        <v>-0.77645280400000005</v>
+      </c>
+      <c r="O21" s="45">
+        <v>-0.58155299000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="51">
+        <v>2003</v>
+      </c>
+      <c r="D22" s="46">
+        <v>0.25756760000000001</v>
+      </c>
+      <c r="E22" s="44">
+        <v>6.6659070000000001E-2</v>
+      </c>
+      <c r="F22" s="45">
+        <v>1.56848118</v>
+      </c>
+      <c r="G22" s="46">
+        <v>0.23652105000000001</v>
+      </c>
+      <c r="H22" s="44">
+        <v>-2.4011688999999999E-2</v>
+      </c>
+      <c r="I22" s="45">
+        <v>1.5157836499999999</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0.14900431</v>
+      </c>
+      <c r="K22" s="44">
+        <v>0.192972</v>
+      </c>
+      <c r="L22" s="45">
+        <v>-1.4621708200000001</v>
+      </c>
+      <c r="M22" s="46">
+        <v>0.73315876300000005</v>
+      </c>
+      <c r="N22" s="44">
+        <v>5.8779180000000002E-3</v>
+      </c>
+      <c r="O22" s="45">
+        <v>-1.2915807399999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="51">
+        <v>2004</v>
+      </c>
+      <c r="D23" s="46">
+        <v>-1.3924312000000001</v>
+      </c>
+      <c r="E23" s="44">
+        <v>3.5557400000000003E-2</v>
+      </c>
+      <c r="F23" s="45">
+        <v>0.70258558999999998</v>
+      </c>
+      <c r="G23" s="46">
+        <v>-0.92081948999999996</v>
+      </c>
+      <c r="H23" s="44">
+        <v>0.590505536</v>
+      </c>
+      <c r="I23" s="45">
+        <v>0.76825772999999997</v>
+      </c>
+      <c r="J23" s="46">
+        <v>-0.89693491999999997</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0.867726</v>
+      </c>
+      <c r="L23" s="45">
+        <v>-0.22229310999999999</v>
+      </c>
+      <c r="M23" s="46">
+        <v>-0.55006066300000001</v>
+      </c>
+      <c r="N23" s="44">
+        <v>0.28600303500000002</v>
+      </c>
+      <c r="O23" s="45">
+        <v>-0.72060192000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="51">
+        <v>2005</v>
+      </c>
+      <c r="D24" s="46">
+        <v>-0.55150759999999999</v>
+      </c>
+      <c r="E24" s="44">
+        <v>-1.1371026</v>
+      </c>
+      <c r="F24" s="45">
+        <v>-0.14716591000000001</v>
+      </c>
+      <c r="G24" s="46">
+        <v>-0.67308221999999995</v>
+      </c>
+      <c r="H24" s="44">
+        <v>-0.80693722199999995</v>
+      </c>
+      <c r="I24" s="45">
+        <v>-0.34000574</v>
+      </c>
+      <c r="J24" s="46">
+        <v>-0.99591074999999996</v>
+      </c>
+      <c r="K24" s="44">
+        <v>-1.1204455</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0.18172578</v>
+      </c>
+      <c r="M24" s="46">
+        <v>-0.27316062899999999</v>
+      </c>
+      <c r="N24" s="44">
+        <v>-1.5793928349999999</v>
+      </c>
+      <c r="O24" s="45">
+        <v>-8.4011349999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="51">
+        <v>2006</v>
+      </c>
+      <c r="D25" s="46">
+        <v>1.6838306000000001</v>
+      </c>
+      <c r="E25" s="44">
+        <v>2.1906839499999999</v>
+      </c>
+      <c r="F25" s="45">
+        <v>0.2999521</v>
+      </c>
+      <c r="G25" s="46">
+        <v>2.4390447800000001</v>
+      </c>
+      <c r="H25" s="44">
+        <v>1.644619764</v>
+      </c>
+      <c r="I25" s="45">
+        <v>0.81415039</v>
+      </c>
+      <c r="J25" s="46">
+        <v>2.8017931200000001</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0.92928889999999997</v>
+      </c>
+      <c r="L25" s="45">
+        <v>-0.13159440999999999</v>
+      </c>
+      <c r="M25" s="46">
+        <v>1.5050172070000001</v>
+      </c>
+      <c r="N25" s="44">
+        <v>1.802115208</v>
+      </c>
+      <c r="O25" s="45">
+        <v>0.65460651000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="51">
+        <v>2007</v>
+      </c>
+      <c r="D26" s="46">
+        <v>1.4145163000000001</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1.33700898</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0.46841349999999998</v>
+      </c>
+      <c r="G26" s="46">
+        <v>1.93461861</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0.96625941400000004</v>
+      </c>
+      <c r="I26" s="45">
+        <v>0.94906175000000004</v>
+      </c>
+      <c r="J26" s="46">
+        <v>2.01777921</v>
+      </c>
+      <c r="K26" s="44">
+        <v>0.37995289999999998</v>
+      </c>
+      <c r="L26" s="45">
+        <v>-0.44039571999999999</v>
+      </c>
+      <c r="M26" s="46">
+        <v>1.783047869</v>
+      </c>
+      <c r="N26" s="44">
+        <v>0.61257446100000001</v>
+      </c>
+      <c r="O26" s="45">
+        <v>0.31577273</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="51">
+        <v>2008</v>
+      </c>
+      <c r="D27" s="46">
+        <v>0.44844689999999998</v>
+      </c>
+      <c r="E27" s="44">
+        <v>1.27030329</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0.44833600000000001</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.12543072</v>
+      </c>
+      <c r="H27" s="44">
+        <v>1.2657814350000001</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0.65729722999999995</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0.51803025000000003</v>
+      </c>
+      <c r="K27" s="44">
+        <v>1.8513747</v>
+      </c>
+      <c r="L27" s="45">
+        <v>0.37722561999999998</v>
+      </c>
+      <c r="M27" s="46">
+        <v>1.0222462059999999</v>
+      </c>
+      <c r="N27" s="44">
+        <v>1.6997534379999999</v>
+      </c>
+      <c r="O27" s="45">
+        <v>0.76010195999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="51">
+        <v>2009</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0.58818040000000005</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1.1456259499999999</v>
+      </c>
+      <c r="F28" s="45">
+        <v>-1.2180461600000001</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.87570482000000005</v>
+      </c>
+      <c r="H28" s="44">
+        <v>1.0299331730000001</v>
+      </c>
+      <c r="I28" s="45">
+        <v>-1.0841730999999999</v>
+      </c>
+      <c r="J28" s="46">
+        <v>1.23473338</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0.10497629999999999</v>
+      </c>
+      <c r="L28" s="45">
+        <v>1.5341289600000001</v>
+      </c>
+      <c r="M28" s="46">
+        <v>-0.457385502</v>
+      </c>
+      <c r="N28" s="44">
+        <v>1.2066223220000001</v>
+      </c>
+      <c r="O28" s="45">
+        <v>1.33149015</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="52">
+        <v>2010</v>
+      </c>
+      <c r="D29" s="49">
+        <v>1.6074288000000001</v>
+      </c>
+      <c r="E29" s="47">
+        <v>1.8407297899999999</v>
+      </c>
+      <c r="F29" s="48">
+        <v>0.96753838000000003</v>
+      </c>
+      <c r="G29" s="49">
+        <v>1.84050928</v>
+      </c>
+      <c r="H29" s="47">
+        <v>1.345947877</v>
+      </c>
+      <c r="I29" s="48">
+        <v>0.32945722999999999</v>
+      </c>
+      <c r="J29" s="49">
+        <v>2.4252652800000001</v>
+      </c>
+      <c r="K29" s="47">
+        <v>0.80439939999999999</v>
+      </c>
+      <c r="L29" s="48">
+        <v>-0.89673833999999997</v>
+      </c>
+      <c r="M29" s="49">
+        <v>1.6470526050000001</v>
+      </c>
+      <c r="N29" s="47">
+        <v>1.6675876620000001</v>
+      </c>
+      <c r="O29" s="48">
+        <v>-0.47149627</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4119,7 +6886,7 @@
   <dimension ref="B4:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B4" sqref="B4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,435 +6898,452 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="28">
         <v>0.05</v>
       </c>
-      <c r="C5" s="6">
-        <v>2.3547663000000001</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1.8468149</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.89810449999999997</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.54963839999999997</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.27950829999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.12091780000000001</v>
+      <c r="C5" s="36">
+        <v>2.2353386999999998</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1.9239729000000001</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.90478959999999997</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.48162860000000002</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.28857359999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.1656966</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>0.1</v>
       </c>
-      <c r="C6" s="6">
-        <v>2.0492213000000001</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.8400072000000001</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1.0695745000000001</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.4218713</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.26856679999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.1102202</v>
+      <c r="C6" s="24">
+        <v>2.1068907000000001</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1.9888873</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1.0441218999999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.4294133</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.29542059999999998</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.1352662</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>0.15</v>
       </c>
-      <c r="C7" s="6">
-        <v>2.6192856999999998</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.8931495</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.84602140000000003</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.33524090000000001</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.1818002</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.117256</v>
+      <c r="C7" s="24">
+        <v>2.4221127199999999</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2.1428225400000001</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.85067022000000003</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.36021391000000003</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.14943358000000001</v>
+      </c>
+      <c r="H7" s="15">
+        <v>7.4747019999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.2</v>
       </c>
-      <c r="C8" s="9">
-        <v>2.8817975100000002</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.75038088</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.70137550000000004</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.44824257000000001</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.22830790000000001</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3.9058639999999999E-2</v>
+      <c r="C8" s="39">
+        <v>2.7126564499999999</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1.8385479300000001</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.66901758</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.46089134999999998</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.22688678000000001</v>
+      </c>
+      <c r="H8" s="18">
+        <v>9.1999910000000004E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M11"/>
+  <dimension ref="B5:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C5" sqref="C5:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="59">
         <v>0.05</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13">
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13">
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="59">
         <v>0.15</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13">
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="59">
         <v>0.2</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="61"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="N6" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>0.42985157000000002</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.48203832000000002</v>
-      </c>
-      <c r="D6" s="20">
-        <v>7.4783480000000001E-3</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.48446175000000002</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.33262427</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.22873473999999999</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.54164210000000002</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0.21208080000000001</v>
-      </c>
-      <c r="J6" s="20">
-        <v>-3.8678079999999999E-3</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.45701721000000001</v>
-      </c>
-      <c r="L6" s="19">
-        <v>0.45399</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0.274918</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
-        <v>7.2541140000000004E-2</v>
-      </c>
-      <c r="C7" s="23">
-        <v>-0.62732547000000005</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.17459092400000001</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-0.21535700999999999</v>
-      </c>
-      <c r="F7" s="23">
-        <v>-0.61879166200000002</v>
-      </c>
-      <c r="G7" s="24">
-        <v>7.1500930000000004E-2</v>
-      </c>
-      <c r="H7" s="22">
-        <v>-0.37744949999999999</v>
-      </c>
-      <c r="I7" s="23">
-        <v>-0.4453394</v>
-      </c>
-      <c r="J7" s="25">
-        <v>-0.16045061799999999</v>
-      </c>
-      <c r="K7" s="23">
-        <v>2.620575E-2</v>
-      </c>
-      <c r="L7" s="23">
-        <v>-0.68021779999999998</v>
-      </c>
-      <c r="M7" s="26">
-        <v>-0.3329182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
-        <v>0.19099405</v>
-      </c>
-      <c r="C8" s="23">
-        <v>-0.55079502000000002</v>
-      </c>
-      <c r="D8" s="24">
-        <v>6.3925269000000007E-2</v>
-      </c>
-      <c r="E8" s="22">
-        <v>5.9907820000000001E-2</v>
-      </c>
-      <c r="F8" s="23">
-        <v>-0.57846883500000001</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0.21230416999999999</v>
-      </c>
-      <c r="H8" s="22">
-        <v>-0.1762966</v>
-      </c>
-      <c r="I8" s="23">
-        <v>-0.58610989999999996</v>
-      </c>
-      <c r="J8" s="24">
-        <v>-0.307340799</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0.39645993000000002</v>
-      </c>
-      <c r="L8" s="23">
-        <v>-0.27501209999999998</v>
-      </c>
-      <c r="M8" s="26">
-        <v>9.0972499999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
-        <v>0.30939021999999999</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0.13511756</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.90019876300000001</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.23069413999999999</v>
-      </c>
-      <c r="F9" s="23">
-        <v>-8.8944980000000007E-3</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0.86503291999999998</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.25356699999999999</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.1585174</v>
-      </c>
-      <c r="J9" s="24">
-        <v>-0.90966833800000002</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.59439542000000001</v>
-      </c>
-      <c r="L9" s="23">
-        <v>0.23621619999999999</v>
-      </c>
-      <c r="M9" s="26">
-        <v>-0.69630210000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
-        <v>0.61449551999999996</v>
-      </c>
-      <c r="C10" s="23">
-        <v>4.0960709999999997E-2</v>
-      </c>
-      <c r="D10" s="24">
-        <v>-0.36299537700000001</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0.60741867999999999</v>
-      </c>
-      <c r="F10" s="23">
-        <v>-5.854463E-2</v>
-      </c>
-      <c r="G10" s="25">
-        <v>-0.33477213</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0.45467150000000001</v>
-      </c>
-      <c r="I10" s="23">
-        <v>-0.4097056</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0.22680308699999999</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.38960815999999998</v>
-      </c>
-      <c r="L10" s="23">
-        <v>-0.20005149999999999</v>
-      </c>
-      <c r="M10" s="26">
-        <v>0.55124839999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="27">
-        <v>0.54786826</v>
-      </c>
-      <c r="C11" s="28">
-        <v>-0.22537109999999999</v>
-      </c>
-      <c r="D11" s="29">
-        <v>-0.15248667699999999</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0.54143511</v>
-      </c>
-      <c r="F11" s="28">
-        <v>-0.41027453699999999</v>
-      </c>
-      <c r="G11" s="29">
-        <v>-0.19271906</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0.511911</v>
-      </c>
-      <c r="I11" s="28">
-        <v>-0.46923690000000001</v>
-      </c>
-      <c r="J11" s="29">
-        <v>2.9088592E-2</v>
-      </c>
-      <c r="K11" s="28">
-        <v>0.35800504999999999</v>
-      </c>
-      <c r="L11" s="28">
-        <v>-0.39968300000000001</v>
-      </c>
-      <c r="M11" s="30">
-        <v>0.12883349999999999</v>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
+        <v>-0.33408460000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.56224989999999997</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.6243700999999999E-2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.59085041999999999</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.24144035999999999</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.14137163999999999</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0.60154492000000004</v>
+      </c>
+      <c r="J7" s="13">
+        <v>-0.1149054</v>
+      </c>
+      <c r="K7" s="14">
+        <v>-8.2280500000000006E-2</v>
+      </c>
+      <c r="L7" s="36">
+        <v>-0.26828289999999999</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.61469328999999995</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.18930607999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37">
+        <v>-0.19081890000000001</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-0.60209440000000003</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.192583008</v>
+      </c>
+      <c r="F8" s="24">
+        <v>-0.24704255</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-0.55878981000000005</v>
+      </c>
+      <c r="H8" s="16">
+        <v>6.2836219999999998E-2</v>
+      </c>
+      <c r="I8" s="24">
+        <v>-0.55289695999999999</v>
+      </c>
+      <c r="J8" s="15">
+        <v>-0.15664159999999999</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.20720791999999999</v>
+      </c>
+      <c r="L8" s="24">
+        <v>-0.2245808</v>
+      </c>
+      <c r="M8" s="15">
+        <v>-0.62755658999999997</v>
+      </c>
+      <c r="N8" s="16">
+        <v>-0.37818766999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37">
+        <v>-0.33873199999999998</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-0.4747363</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1.8966829999999999E-3</v>
+      </c>
+      <c r="F9" s="24">
+        <v>-4.4783919999999998E-2</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-0.62190219999999996</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.16256172999999999</v>
+      </c>
+      <c r="I9" s="24">
+        <v>-0.42332718000000003</v>
+      </c>
+      <c r="J9" s="15">
+        <v>-0.40303080000000002</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.16766654</v>
+      </c>
+      <c r="L9" s="24">
+        <v>-0.46045439999999999</v>
+      </c>
+      <c r="M9" s="15">
+        <v>-0.16104794</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0.35530622000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37">
+        <v>-0.29717359999999998</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.1908832</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.88413825300000004</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.24824876000000001</v>
+      </c>
+      <c r="G10" s="15">
+        <v>-5.2182939999999997E-2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.89265629000000002</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.32434724999999998</v>
+      </c>
+      <c r="J10" s="15">
+        <v>-0.10258879999999999</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.91676493000000003</v>
+      </c>
+      <c r="L10" s="24">
+        <v>-0.2913829</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.41231702999999997</v>
+      </c>
+      <c r="N10" s="16">
+        <v>-0.78426430000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="37">
+        <v>-0.53065620000000002</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.2067368</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-0.39471724899999999</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.56942391999999997</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-0.15140091999999999</v>
+      </c>
+      <c r="H11" s="17">
+        <v>-0.32812786999999999</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.21493936</v>
+      </c>
+      <c r="J11" s="15">
+        <v>-0.58716360000000001</v>
+      </c>
+      <c r="K11" s="16">
+        <v>-0.2846709</v>
+      </c>
+      <c r="L11" s="24">
+        <v>-0.53203250000000002</v>
+      </c>
+      <c r="M11" s="15">
+        <v>4.6699730000000002E-2</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.27035038</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="38">
+        <v>-0.60607599999999995</v>
+      </c>
+      <c r="D12" s="18">
+        <v>-0.12963930000000001</v>
+      </c>
+      <c r="E12" s="19">
+        <v>-0.15856283600000001</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0.44943198000000001</v>
+      </c>
+      <c r="G12" s="18">
+        <v>-0.46588932</v>
+      </c>
+      <c r="H12" s="19">
+        <v>-0.2124528</v>
+      </c>
+      <c r="I12" s="39">
+        <v>4.292663E-2</v>
+      </c>
+      <c r="J12" s="18">
+        <v>-0.66673890000000002</v>
+      </c>
+      <c r="K12" s="19">
+        <v>-2.6215840000000001E-2</v>
+      </c>
+      <c r="L12" s="39">
+        <v>-0.54553370000000001</v>
+      </c>
+      <c r="M12" s="18">
+        <v>-0.17378797000000001</v>
+      </c>
+      <c r="N12" s="19">
+        <v>-8.2066829999999993E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4567,843 +7351,1276 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M25"/>
+  <dimension ref="B6:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="59">
         <v>0.05</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13">
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59">
         <v>0.1</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13">
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="59">
         <v>0.15</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13">
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="59">
         <v>0.2</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E7" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F7" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="H7" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="I7" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="K7" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="L7" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="N7" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="33">
-        <v>-3.3833825000000002</v>
-      </c>
-      <c r="C6" s="19">
-        <v>1.0058282700000001</v>
-      </c>
-      <c r="D6" s="34">
-        <v>-0.50312358000000001</v>
-      </c>
-      <c r="E6" s="18">
-        <v>-2.68799242</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1.9219011189999999</v>
-      </c>
-      <c r="G6" s="20">
-        <v>-0.95531758</v>
-      </c>
-      <c r="H6" s="18">
-        <v>-1.6608094</v>
-      </c>
-      <c r="I6" s="19">
-        <v>2.6507439000000002</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0.70245385999999999</v>
-      </c>
-      <c r="K6" s="19">
-        <v>-4.0577607699999998</v>
-      </c>
-      <c r="L6" s="19">
-        <v>1.2254999499999999</v>
-      </c>
-      <c r="M6" s="34">
-        <v>0.47231220000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
-        <v>-3.1707724000000002</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1.6826893199999999</v>
-      </c>
-      <c r="D7" s="24">
-        <v>-0.25359609999999999</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-2.4254762400000001</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1.7278944270000001</v>
-      </c>
-      <c r="G7" s="24">
-        <v>-0.12203849</v>
-      </c>
-      <c r="H7" s="22">
-        <v>-2.3321730000000001</v>
-      </c>
-      <c r="I7" s="35">
-        <v>1.5401676</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0.92777715999999999</v>
-      </c>
-      <c r="K7" s="23">
-        <v>-2.5087603600000001</v>
-      </c>
-      <c r="L7" s="23">
-        <v>2.0550534699999998</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0.20789307000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
-        <v>1.1005026</v>
-      </c>
-      <c r="C8" s="23">
-        <v>-0.25744419000000002</v>
-      </c>
-      <c r="D8" s="24">
-        <v>-1.7125575900000001</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1.0099418</v>
-      </c>
-      <c r="F8" s="23">
-        <v>4.3363009999999999E-3</v>
-      </c>
-      <c r="G8" s="24">
-        <v>-1.91656962</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1.5009361999999999</v>
-      </c>
-      <c r="I8" s="23">
-        <v>-0.89478230000000003</v>
-      </c>
-      <c r="J8" s="24">
-        <v>-0.81845131999999998</v>
-      </c>
-      <c r="K8" s="23">
-        <v>3.5044548899999999</v>
-      </c>
-      <c r="L8" s="23">
-        <v>0.27789030999999997</v>
-      </c>
-      <c r="M8" s="24">
-        <v>-0.15269137999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
-        <v>1.3979168</v>
-      </c>
-      <c r="C9" s="23">
-        <v>-1.0035204799999999</v>
-      </c>
-      <c r="D9" s="24">
-        <v>-2.1652476699999998</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1.4492709800000001</v>
-      </c>
-      <c r="F9" s="23">
-        <v>-1.0690595119999999</v>
-      </c>
-      <c r="G9" s="24">
-        <v>-2.3858664599999999</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.91546360000000004</v>
-      </c>
-      <c r="I9" s="23">
-        <v>-2.9880669000000002</v>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="50">
+        <v>1991</v>
+      </c>
+      <c r="C8" s="53">
+        <v>3.6266831000000002</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.26329121</v>
+      </c>
+      <c r="E8" s="23">
+        <v>-0.40714394999999998</v>
+      </c>
+      <c r="F8" s="54">
+        <v>-2.4894966699999999</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2.4493983899999998</v>
+      </c>
+      <c r="H8" s="14">
+        <v>-7.2292980000000007E-2</v>
+      </c>
+      <c r="I8" s="54">
+        <v>0.90514380000000005</v>
+      </c>
+      <c r="J8" s="13">
+        <v>3.02394322</v>
+      </c>
+      <c r="K8" s="14">
+        <v>-1.6483485999999999E-2</v>
+      </c>
+      <c r="L8" s="54">
+        <v>3.9093355999999999</v>
+      </c>
+      <c r="M8" s="13">
+        <v>9.5973810000000007E-2</v>
+      </c>
+      <c r="N8" s="23">
+        <v>-2.0289330000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="51">
+        <v>1992</v>
+      </c>
+      <c r="C9" s="55">
+        <v>3.0325923000000001</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1.16097534</v>
+      </c>
+      <c r="E9" s="16">
+        <v>-0.44222762999999998</v>
+      </c>
+      <c r="F9" s="56">
+        <v>-1.927845</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2.1203169100000001</v>
+      </c>
+      <c r="H9" s="16">
+        <v>-0.34876358000000002</v>
+      </c>
+      <c r="I9" s="56">
+        <v>-0.66331929999999995</v>
       </c>
       <c r="J9" s="24">
-        <v>1.9254277</v>
-      </c>
-      <c r="K9" s="23">
-        <v>0.45079086000000002</v>
-      </c>
-      <c r="L9" s="23">
-        <v>-2.0492826000000002</v>
-      </c>
-      <c r="M9" s="24">
-        <v>2.3161994899999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
-        <v>1.7197081999999999</v>
-      </c>
-      <c r="C10" s="23">
-        <v>-0.72298178000000002</v>
-      </c>
-      <c r="D10" s="24">
-        <v>-0.83730413999999997</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1.61091243</v>
-      </c>
-      <c r="F10" s="35">
-        <v>-0.93409666300000005</v>
-      </c>
-      <c r="G10" s="24">
-        <v>-1.0663390500000001</v>
-      </c>
-      <c r="H10" s="22">
-        <v>0.58833139999999995</v>
-      </c>
-      <c r="I10" s="23">
-        <v>-1.7678887999999999</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0.80082111</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.82510194999999997</v>
-      </c>
-      <c r="L10" s="23">
-        <v>-1.6683987899999999</v>
-      </c>
-      <c r="M10" s="24">
-        <v>1.19567377</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
-        <v>1.3502472000000001</v>
-      </c>
-      <c r="C11" s="23">
-        <v>-2.4913945499999999</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1.16482836</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.66211249000000005</v>
-      </c>
-      <c r="F11" s="23">
-        <v>-2.6591409530000001</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1.1522102599999999</v>
-      </c>
-      <c r="H11" s="22">
-        <v>-1.1785190000000001</v>
-      </c>
-      <c r="I11" s="23">
-        <v>-1.9866401</v>
-      </c>
-      <c r="J11" s="24">
-        <v>-1.5990089999999999</v>
-      </c>
-      <c r="K11" s="23">
-        <v>1.1293486399999999</v>
-      </c>
-      <c r="L11" s="23">
-        <v>-1.75229148</v>
-      </c>
-      <c r="M11" s="24">
-        <v>-0.75125593999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="22">
-        <v>-1.1994984</v>
-      </c>
-      <c r="C12" s="23">
-        <v>-3.2033109799999999</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.29284633999999998</v>
-      </c>
-      <c r="E12" s="22">
-        <v>-1.25114305</v>
-      </c>
-      <c r="F12" s="23">
-        <v>-2.9390847240000002</v>
+        <v>2.76730747</v>
+      </c>
+      <c r="K9" s="16">
+        <v>-0.97759222400000001</v>
+      </c>
+      <c r="L9" s="56">
+        <v>3.3435451</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.94975279999999995</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0.92014843999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="51">
+        <v>1993</v>
+      </c>
+      <c r="C10" s="55">
+        <v>-1.1321398</v>
+      </c>
+      <c r="D10" s="15">
+        <v>8.6053110000000002E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>-1.79538767</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0.81079540000000005</v>
+      </c>
+      <c r="G10" s="15">
+        <v>-0.21014627999999999</v>
+      </c>
+      <c r="H10" s="16">
+        <v>-1.81889715</v>
+      </c>
+      <c r="I10" s="56">
+        <v>0.7246262</v>
+      </c>
+      <c r="J10" s="15">
+        <v>-1.6003652399999999</v>
+      </c>
+      <c r="K10" s="16">
+        <v>-8.7069169999999998E-3</v>
+      </c>
+      <c r="L10" s="56">
+        <v>-2.4349615</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.45042902000000001</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0.73607761999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="51">
+        <v>1994</v>
+      </c>
+      <c r="C11" s="55">
+        <v>-1.512373</v>
+      </c>
+      <c r="D11" s="15">
+        <v>-0.62541853999999997</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-2.2205515400000002</v>
+      </c>
+      <c r="F11" s="56">
+        <v>1.1173581400000001</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-1.2963180599999999</v>
+      </c>
+      <c r="H11" s="16">
+        <v>-2.36961486</v>
+      </c>
+      <c r="I11" s="56">
+        <v>-1.1638777</v>
+      </c>
+      <c r="J11" s="15">
+        <v>-2.5024028199999999</v>
+      </c>
+      <c r="K11" s="16">
+        <v>-2.0244930000000001</v>
+      </c>
+      <c r="L11" s="56">
+        <v>-1.8557009</v>
+      </c>
+      <c r="M11" s="15">
+        <v>-1.51540702</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1.8511597099999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="51">
+        <v>1995</v>
+      </c>
+      <c r="C12" s="55">
+        <v>-1.7453806000000001</v>
+      </c>
+      <c r="D12" s="15">
+        <v>-0.28219769</v>
+      </c>
+      <c r="E12" s="16">
+        <v>-0.88565386999999995</v>
+      </c>
+      <c r="F12" s="56">
+        <v>1.3811249299999999</v>
       </c>
       <c r="G12" s="24">
-        <v>-1.371474E-2</v>
-      </c>
-      <c r="H12" s="22">
-        <v>-3.4478468000000002</v>
-      </c>
-      <c r="I12" s="23">
-        <v>-1.6364615</v>
-      </c>
-      <c r="J12" s="24">
-        <v>-0.55130721000000005</v>
-      </c>
-      <c r="K12" s="23">
-        <v>-1.8955990899999999</v>
-      </c>
-      <c r="L12" s="23">
-        <v>-2.0018907100000001</v>
-      </c>
-      <c r="M12" s="24">
-        <v>-0.23465622</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
-        <v>-2.0642307</v>
-      </c>
-      <c r="C13" s="23">
-        <v>-0.21394050000000001</v>
-      </c>
-      <c r="D13" s="24">
-        <v>-0.21768868999999999</v>
-      </c>
-      <c r="E13" s="22">
-        <v>-1.9205836999999999</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.33013974699999998</v>
-      </c>
-      <c r="G13" s="24">
-        <v>-0.41428938999999998</v>
-      </c>
-      <c r="H13" s="22">
-        <v>-1.8015175000000001</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.32346360000000002</v>
-      </c>
-      <c r="J13" s="24">
-        <v>-0.24320359</v>
-      </c>
-      <c r="K13" s="23">
-        <v>-2.1106402000000002</v>
-      </c>
-      <c r="L13" s="23">
-        <v>-0.13530618</v>
-      </c>
-      <c r="M13" s="24">
-        <v>-0.46358287999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="22">
-        <v>-0.9239387</v>
-      </c>
-      <c r="C14" s="23">
-        <v>-0.50915246999999997</v>
-      </c>
-      <c r="D14" s="24">
-        <v>-9.6536830000000004E-2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>-0.91839501000000001</v>
-      </c>
-      <c r="F14" s="23">
-        <v>-1.006762771</v>
-      </c>
-      <c r="G14" s="24">
-        <v>-0.26282441000000001</v>
-      </c>
-      <c r="H14" s="22">
-        <v>-1.6176006999999999</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.87834679999999998</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0.39772963</v>
-      </c>
-      <c r="K14" s="23">
-        <v>-0.69332689999999997</v>
-      </c>
-      <c r="L14" s="23">
-        <v>-0.91720517999999995</v>
-      </c>
-      <c r="M14" s="24">
-        <v>0.39156580000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
-        <v>-0.71029589999999998</v>
-      </c>
-      <c r="C15" s="23">
-        <v>-0.45846991999999998</v>
-      </c>
-      <c r="D15" s="24">
-        <v>2.4441979999999999E-2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>-0.67510658999999995</v>
-      </c>
-      <c r="F15" s="23">
-        <v>-0.30128699199999998</v>
-      </c>
-      <c r="G15" s="24">
-        <v>-9.7015019999999993E-2</v>
-      </c>
-      <c r="H15" s="22">
-        <v>-0.1017762</v>
-      </c>
-      <c r="I15" s="23">
-        <v>-0.63208370000000003</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0.81534932999999998</v>
-      </c>
-      <c r="K15" s="23">
-        <v>-0.86803792999999996</v>
-      </c>
-      <c r="L15" s="23">
-        <v>-0.96399464999999995</v>
-      </c>
-      <c r="M15" s="24">
-        <v>-0.57083598999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
-        <v>0.45134360000000001</v>
-      </c>
-      <c r="C16" s="23">
-        <v>-0.75917467000000005</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1.26178327</v>
-      </c>
-      <c r="E16" s="22">
-        <v>-6.7885509999999996E-2</v>
-      </c>
-      <c r="F16" s="23">
-        <v>-1.12710329</v>
-      </c>
-      <c r="G16" s="24">
-        <v>1.4288051799999999</v>
-      </c>
-      <c r="H16" s="22">
-        <v>-0.3254629</v>
-      </c>
-      <c r="I16" s="23">
-        <v>-0.3680793</v>
-      </c>
-      <c r="J16" s="24">
-        <v>-1.0886311900000001</v>
-      </c>
-      <c r="K16" s="23">
-        <v>0.82708804999999996</v>
-      </c>
-      <c r="L16" s="23">
-        <v>6.5064380000000005E-2</v>
-      </c>
-      <c r="M16" s="24">
-        <v>-0.69884159000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
-        <v>-0.31104569999999998</v>
-      </c>
-      <c r="C17" s="23">
-        <v>-0.16087431999999999</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.56041580000000002</v>
-      </c>
-      <c r="E17" s="22">
-        <v>-0.46142044999999998</v>
-      </c>
-      <c r="F17" s="23">
-        <v>-1.9736981000000001E-2</v>
-      </c>
-      <c r="G17" s="24">
-        <v>0.51444193999999999</v>
-      </c>
-      <c r="H17" s="22">
-        <v>-0.14998410000000001</v>
-      </c>
-      <c r="I17" s="23">
-        <v>0.74235050000000002</v>
-      </c>
-      <c r="J17" s="24">
-        <v>3.1755419999999999E-2</v>
-      </c>
-      <c r="K17" s="23">
-        <v>-1.203249E-2</v>
-      </c>
-      <c r="L17" s="23">
-        <v>-0.76308281</v>
-      </c>
-      <c r="M17" s="24">
-        <v>-0.51039466</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="22">
-        <v>0.2604805</v>
-      </c>
-      <c r="C18" s="23">
-        <v>6.6707329999999995E-2</v>
-      </c>
-      <c r="D18" s="24">
-        <v>1.5682298800000001</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.23177053</v>
-      </c>
-      <c r="F18" s="23">
-        <v>-6.9198879999999999E-3</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1.4716155099999999</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0.1461681</v>
-      </c>
-      <c r="I18" s="23">
-        <v>0.1701423</v>
-      </c>
-      <c r="J18" s="24">
-        <v>-1.40213499</v>
-      </c>
-      <c r="K18" s="23">
-        <v>0.73646853000000001</v>
-      </c>
-      <c r="L18" s="23">
-        <v>-1.8194809999999999E-2</v>
-      </c>
-      <c r="M18" s="24">
-        <v>-1.2759028800000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="22">
-        <v>-1.3907308</v>
-      </c>
-      <c r="C19" s="23">
-        <v>6.0331549999999998E-2</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.70994312000000004</v>
-      </c>
-      <c r="E19" s="22">
-        <v>-0.93349472</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0.55837096399999997</v>
-      </c>
-      <c r="G19" s="24">
-        <v>0.85676865000000002</v>
-      </c>
-      <c r="H19" s="22">
-        <v>-0.89934009999999998</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0.8394201</v>
-      </c>
-      <c r="J19" s="24">
-        <v>-0.31557584999999999</v>
-      </c>
-      <c r="K19" s="23">
-        <v>-0.54086705999999996</v>
-      </c>
-      <c r="L19" s="23">
-        <v>0.29412660000000002</v>
-      </c>
-      <c r="M19" s="24">
-        <v>-0.73910721999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="22">
-        <v>-0.55129620000000001</v>
-      </c>
-      <c r="C20" s="23">
-        <v>-1.12343656</v>
-      </c>
-      <c r="D20" s="24">
-        <v>-0.14925174999999999</v>
-      </c>
-      <c r="E20" s="22">
-        <v>-0.66233827000000001</v>
-      </c>
-      <c r="F20" s="23">
-        <v>-0.83740185700000003</v>
-      </c>
-      <c r="G20" s="24">
-        <v>-0.33304871000000003</v>
-      </c>
-      <c r="H20" s="22">
-        <v>-1.0024898</v>
-      </c>
-      <c r="I20" s="23">
-        <v>-1.1087768</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0.22098028</v>
-      </c>
-      <c r="K20" s="23">
-        <v>-0.28551738999999998</v>
-      </c>
-      <c r="L20" s="23">
-        <v>-1.5653332499999999</v>
-      </c>
-      <c r="M20" s="24">
-        <v>-8.7737369999999995E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="22">
-        <v>1.6838199</v>
-      </c>
-      <c r="C21" s="23">
-        <v>2.17108897</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.29368325000000001</v>
-      </c>
-      <c r="E21" s="22">
-        <v>2.4120821800000001</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1.7475886359999999</v>
-      </c>
-      <c r="G21" s="24">
-        <v>0.72668999999999995</v>
-      </c>
-      <c r="H21" s="22">
-        <v>2.8031321999999999</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0.96945380000000003</v>
-      </c>
-      <c r="J21" s="24">
-        <v>-0.13844102999999999</v>
-      </c>
-      <c r="K21" s="23">
-        <v>1.5193692000000001</v>
-      </c>
-      <c r="L21" s="23">
-        <v>1.7601084300000001</v>
-      </c>
-      <c r="M21" s="24">
-        <v>0.70338889000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="22">
-        <v>1.4161314</v>
-      </c>
-      <c r="C22" s="23">
-        <v>1.31794056</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.46547164000000002</v>
-      </c>
-      <c r="E22" s="22">
-        <v>1.9181664300000001</v>
-      </c>
-      <c r="F22" s="23">
-        <v>1.053951418</v>
-      </c>
-      <c r="G22" s="24">
-        <v>0.88182057999999997</v>
-      </c>
-      <c r="H22" s="22">
-        <v>2.0204385</v>
-      </c>
-      <c r="I22" s="23">
-        <v>0.41348430000000003</v>
-      </c>
-      <c r="J22" s="24">
-        <v>-0.4659547</v>
-      </c>
-      <c r="K22" s="23">
-        <v>1.78824235</v>
-      </c>
-      <c r="L22" s="23">
-        <v>0.55283494</v>
-      </c>
-      <c r="M22" s="24">
-        <v>0.34031577000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="22">
-        <v>0.4522119</v>
-      </c>
-      <c r="C23" s="23">
-        <v>1.2573419699999999</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.45508676999999997</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.10265802</v>
-      </c>
-      <c r="F23" s="23">
-        <v>1.263747473</v>
-      </c>
-      <c r="G23" s="24">
-        <v>0.72176174000000004</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0.52045390000000002</v>
-      </c>
-      <c r="I23" s="23">
-        <v>1.8004610000000001</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0.25775027</v>
-      </c>
-      <c r="K23" s="23">
-        <v>1.04300338</v>
-      </c>
-      <c r="L23" s="23">
-        <v>1.6779251100000001</v>
-      </c>
-      <c r="M23" s="24">
-        <v>0.66448578000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="22">
-        <v>0.58567939999999996</v>
-      </c>
-      <c r="C24" s="23">
-        <v>1.1350966300000001</v>
-      </c>
-      <c r="D24" s="24">
-        <v>-1.2188112200000001</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0.87413092999999997</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1.056392379</v>
-      </c>
-      <c r="G24" s="24">
-        <v>-1.0943097399999999</v>
-      </c>
-      <c r="H24" s="22">
-        <v>1.2413619</v>
-      </c>
-      <c r="I24" s="23">
-        <v>0.1430553</v>
-      </c>
-      <c r="J24" s="24">
-        <v>1.56112826</v>
-      </c>
-      <c r="K24" s="23">
-        <v>-0.44690105000000002</v>
-      </c>
-      <c r="L24" s="23">
-        <v>1.1985177199999999</v>
-      </c>
-      <c r="M24" s="24">
-        <v>1.2334598699999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="27">
-        <v>1.611154</v>
-      </c>
-      <c r="C25" s="28">
-        <v>1.8224453199999999</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0.96706073999999997</v>
-      </c>
-      <c r="E25" s="27">
-        <v>1.8209014699999999</v>
-      </c>
-      <c r="F25" s="28">
-        <v>1.421643309</v>
-      </c>
-      <c r="G25" s="29">
-        <v>0.20612385999999999</v>
-      </c>
-      <c r="H25" s="27">
-        <v>2.4263572</v>
-      </c>
-      <c r="I25" s="28">
-        <v>0.82883169999999995</v>
-      </c>
-      <c r="J25" s="29">
-        <v>-0.87435790000000002</v>
-      </c>
-      <c r="K25" s="28">
-        <v>1.6610805099999999</v>
-      </c>
-      <c r="L25" s="28">
-        <v>1.60502693</v>
-      </c>
-      <c r="M25" s="29">
-        <v>-0.35443267000000001</v>
+        <v>-1.17455916</v>
+      </c>
+      <c r="H12" s="16">
+        <v>-0.91921567000000004</v>
+      </c>
+      <c r="I12" s="56">
+        <v>-0.21569830000000001</v>
+      </c>
+      <c r="J12" s="15">
+        <v>-1.9218385899999999</v>
+      </c>
+      <c r="K12" s="16">
+        <v>-0.72977976099999997</v>
+      </c>
+      <c r="L12" s="56">
+        <v>-1.9907893999999999</v>
+      </c>
+      <c r="M12" s="15">
+        <v>-0.92902952999999999</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.37148958999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="51">
+        <v>1996</v>
+      </c>
+      <c r="C13" s="55">
+        <v>-1.9971771</v>
+      </c>
+      <c r="D13" s="15">
+        <v>-2.1321159700000001</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1.0123042</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0.23534163</v>
+      </c>
+      <c r="G13" s="15">
+        <v>-2.9773617799999998</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1.3062790900000001</v>
+      </c>
+      <c r="I13" s="56">
+        <v>-1.7238434</v>
+      </c>
+      <c r="J13" s="15">
+        <v>-1.8695477599999999</v>
+      </c>
+      <c r="K13" s="16">
+        <v>1.611286988</v>
+      </c>
+      <c r="L13" s="56">
+        <v>-1.9863351</v>
+      </c>
+      <c r="M13" s="15">
+        <v>-1.0577998900000001</v>
+      </c>
+      <c r="N13" s="16">
+        <v>-0.98152693999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="51">
+        <v>1997</v>
+      </c>
+      <c r="C14" s="55">
+        <v>-0.24087839999999999</v>
+      </c>
+      <c r="D14" s="15">
+        <v>-3.3644541100000001</v>
+      </c>
+      <c r="E14" s="16">
+        <v>8.9670979999999997E-2</v>
+      </c>
+      <c r="F14" s="56">
+        <v>-1.9103526900000001</v>
+      </c>
+      <c r="G14" s="15">
+        <v>-2.9429625599999998</v>
+      </c>
+      <c r="H14" s="16">
+        <v>3.1557960000000003E-2</v>
+      </c>
+      <c r="I14" s="56">
+        <v>-3.5166658000000002</v>
+      </c>
+      <c r="J14" s="15">
+        <v>-0.47627732</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.50884015999999999</v>
+      </c>
+      <c r="L14" s="56">
+        <v>0.66691029999999996</v>
+      </c>
+      <c r="M14" s="15">
+        <v>-2.4925311699999999</v>
+      </c>
+      <c r="N14" s="16">
+        <v>-0.33807758999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="51">
+        <v>1998</v>
+      </c>
+      <c r="C15" s="55">
+        <v>1.9808661000000001</v>
+      </c>
+      <c r="D15" s="15">
+        <v>-0.70042101999999995</v>
+      </c>
+      <c r="E15" s="16">
+        <v>-0.13415207000000001</v>
+      </c>
+      <c r="F15" s="56">
+        <v>-1.9406592300000001</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.73846045000000005</v>
+      </c>
+      <c r="H15" s="16">
+        <v>-0.52846022999999998</v>
+      </c>
+      <c r="I15" s="56">
+        <v>-1.4071042</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1.39746937</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.112845206</v>
+      </c>
+      <c r="L15" s="56">
+        <v>2.1113615999999999</v>
+      </c>
+      <c r="M15" s="15">
+        <v>-1.0157152899999999</v>
+      </c>
+      <c r="N15" s="16">
+        <v>-0.10587186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="51">
+        <v>1999</v>
+      </c>
+      <c r="C16" s="55">
+        <v>0.71871240000000003</v>
+      </c>
+      <c r="D16" s="15">
+        <v>-0.76867934000000004</v>
+      </c>
+      <c r="E16" s="16">
+        <v>-3.3159069999999999E-2</v>
+      </c>
+      <c r="F16" s="56">
+        <v>-1.1047020599999999</v>
+      </c>
+      <c r="G16" s="15">
+        <v>-0.65166464000000002</v>
+      </c>
+      <c r="H16" s="16">
+        <v>-0.26876884000000001</v>
+      </c>
+      <c r="I16" s="56">
+        <v>-1.0551827</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1.6776669799999999</v>
+      </c>
+      <c r="K16" s="16">
+        <v>-0.34422266099999999</v>
+      </c>
+      <c r="L16" s="56">
+        <v>-0.19621839999999999</v>
+      </c>
+      <c r="M16" s="15">
+        <v>-1.05703897</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0.31974803000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="51">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="55">
+        <v>0.50817469999999998</v>
+      </c>
+      <c r="D17" s="15">
+        <v>-0.66709331999999999</v>
+      </c>
+      <c r="E17" s="16">
+        <v>8.6340100000000003E-2</v>
+      </c>
+      <c r="F17" s="56">
+        <v>-0.68696548999999996</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-0.11466972</v>
+      </c>
+      <c r="H17" s="16">
+        <v>-0.18451596000000001</v>
+      </c>
+      <c r="I17" s="56">
+        <v>-0.52489300000000005</v>
+      </c>
+      <c r="J17" s="15">
+        <v>-0.28941097999999998</v>
+      </c>
+      <c r="K17" s="16">
+        <v>-0.65834305699999995</v>
+      </c>
+      <c r="L17" s="56">
+        <v>0.74181710000000001</v>
+      </c>
+      <c r="M17" s="15">
+        <v>-1.35411623</v>
+      </c>
+      <c r="N17" s="16">
+        <v>-0.38551869</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="51">
+        <v>2001</v>
+      </c>
+      <c r="C18" s="55">
+        <v>-0.76505409999999996</v>
+      </c>
+      <c r="D18" s="15">
+        <v>-0.67077485999999997</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.24457179</v>
+      </c>
+      <c r="F18" s="56">
+        <v>-8.2201270000000007E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-1.0470510799999999</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1.4106793399999999</v>
+      </c>
+      <c r="I18" s="56">
+        <v>-0.50768369999999996</v>
+      </c>
+      <c r="J18" s="15">
+        <v>-0.15326349</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1.302951967</v>
+      </c>
+      <c r="L18" s="56">
+        <v>-0.42244939999999997</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.47829757000000001</v>
+      </c>
+      <c r="N18" s="16">
+        <v>-0.68853790000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="51">
+        <v>2002</v>
+      </c>
+      <c r="C19" s="55">
+        <v>0.29975980000000002</v>
+      </c>
+      <c r="D19" s="15">
+        <v>-0.2329561</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.61726181999999996</v>
+      </c>
+      <c r="F19" s="56">
+        <v>-0.35021632000000003</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.11421984</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.50699603000000004</v>
+      </c>
+      <c r="I19" s="56">
+        <v>0.4360697</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.73150444999999997</v>
+      </c>
+      <c r="K19" s="16">
+        <v>-1.4041299E-2</v>
+      </c>
+      <c r="L19" s="56">
+        <v>-0.29184939999999998</v>
+      </c>
+      <c r="M19" s="15">
+        <v>-0.57917041000000002</v>
+      </c>
+      <c r="N19" s="16">
+        <v>-0.79463826000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="51">
+        <v>2003</v>
+      </c>
+      <c r="C20" s="55">
+        <v>-0.25466139999999998</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.12227459</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1.54416854</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0.22369845999999999</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-3.8841069999999998E-2</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1.6543702600000001</v>
+      </c>
+      <c r="I20" s="56">
+        <v>0.22349949999999999</v>
+      </c>
+      <c r="J20" s="15">
+        <v>-2.958361E-2</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1.6443546449999999</v>
+      </c>
+      <c r="L20" s="56">
+        <v>-0.33093299999999998</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0.27292494</v>
+      </c>
+      <c r="N20" s="16">
+        <v>-1.57231381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="51">
+        <v>2004</v>
+      </c>
+      <c r="C21" s="55">
+        <v>1.2949784</v>
+      </c>
+      <c r="D21" s="15">
+        <v>-0.17744816999999999</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.77277598999999997</v>
+      </c>
+      <c r="F21" s="56">
+        <v>-0.78073736000000005</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.60915185000000005</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.78061539000000002</v>
+      </c>
+      <c r="I21" s="56">
+        <v>-0.2808349</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1.2118489100000001</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0.36518292899999999</v>
+      </c>
+      <c r="L21" s="56">
+        <v>0.99257669999999998</v>
+      </c>
+      <c r="M21" s="15">
+        <v>3.746704E-2</v>
+      </c>
+      <c r="N21" s="16">
+        <v>-0.69089729</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="51">
+        <v>2005</v>
+      </c>
+      <c r="C22" s="55">
+        <v>0.30605179999999998</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-1.0305826199999999</v>
+      </c>
+      <c r="E22" s="16">
+        <v>-0.21573424999999999</v>
+      </c>
+      <c r="F22" s="56">
+        <v>-0.87856162999999998</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-0.74156023000000004</v>
+      </c>
+      <c r="H22" s="16">
+        <v>-0.32589697000000001</v>
+      </c>
+      <c r="I22" s="56">
+        <v>-1.5690012</v>
+      </c>
+      <c r="J22" s="15">
+        <v>-0.10552267999999999</v>
+      </c>
+      <c r="K22" s="16">
+        <v>-0.205090728</v>
+      </c>
+      <c r="L22" s="56">
+        <v>-0.24734200000000001</v>
+      </c>
+      <c r="M22" s="15">
+        <v>-1.42196345</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0.37899274999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="51">
+        <v>2006</v>
+      </c>
+      <c r="C23" s="55">
+        <v>-1.2384094000000001</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2.5634633199999999</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.26470346</v>
+      </c>
+      <c r="F23" s="56">
+        <v>2.8004441600000001</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1.37590302</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.76193158000000005</v>
+      </c>
+      <c r="I23" s="56">
+        <v>2.9276464</v>
+      </c>
+      <c r="J23" s="15">
+        <v>-0.75692316999999998</v>
+      </c>
+      <c r="K23" s="16">
+        <v>2.9523391E-2</v>
+      </c>
+      <c r="L23" s="56">
+        <v>-0.77964069999999996</v>
+      </c>
+      <c r="M23" s="15">
+        <v>2.5378464200000002</v>
+      </c>
+      <c r="N23" s="16">
+        <v>-9.7946039999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="51">
+        <v>2007</v>
+      </c>
+      <c r="C24" s="55">
+        <v>-1.1560701</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1.6948943999999999</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.37271742000000002</v>
+      </c>
+      <c r="F24" s="56">
+        <v>2.1162936499999998</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.66041497999999998</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.95395083000000003</v>
+      </c>
+      <c r="I24" s="56">
+        <v>1.9874917999999999</v>
+      </c>
+      <c r="J24" s="15">
+        <v>-0.83251662000000004</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0.33930245199999998</v>
+      </c>
+      <c r="L24" s="56">
+        <v>-1.2569764000000001</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1.36491487</v>
+      </c>
+      <c r="N24" s="16">
+        <v>-0.11958486</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="51">
+        <v>2008</v>
+      </c>
+      <c r="C25" s="55">
+        <v>-0.2165831</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1.2308094999999999</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.46000011000000002</v>
+      </c>
+      <c r="F25" s="56">
+        <v>0.40484966999999999</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1.1154991000000001</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.64300020000000002</v>
+      </c>
+      <c r="I25" s="56">
+        <v>1.798624</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.93995892000000003</v>
+      </c>
+      <c r="K25" s="16">
+        <v>-0.23257572300000001</v>
+      </c>
+      <c r="L25" s="56">
+        <v>-0.24688599999999999</v>
+      </c>
+      <c r="M25" s="15">
+        <v>2.0237929299999999</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1.00821914</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="51">
+        <v>2009</v>
+      </c>
+      <c r="C26" s="55">
+        <v>-0.2907536</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1.3243387799999999</v>
+      </c>
+      <c r="E26" s="16">
+        <v>-1.23835626</v>
+      </c>
+      <c r="F26" s="56">
+        <v>1.02416028</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.86384022000000005</v>
+      </c>
+      <c r="H26" s="16">
+        <v>-1.1332747700000001</v>
+      </c>
+      <c r="I26" s="56">
+        <v>1.0430128000000001</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-0.46278286000000002</v>
+      </c>
+      <c r="K26" s="16">
+        <v>-1.578681188</v>
+      </c>
+      <c r="L26" s="56">
+        <v>0.94722980000000001</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0.91104459999999998</v>
+      </c>
+      <c r="N26" s="16">
+        <v>1.0601675500000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="52">
+        <v>2010</v>
+      </c>
+      <c r="C27" s="57">
+        <v>-1.2183379999999999</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2.20604149</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.90785190999999998</v>
+      </c>
+      <c r="F27" s="58">
+        <v>2.0376714100000002</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1.1479298200000001</v>
+      </c>
+      <c r="H27" s="19">
+        <v>-7.9679669999999994E-2</v>
+      </c>
+      <c r="I27" s="58">
+        <v>2.5819898999999999</v>
+      </c>
+      <c r="J27" s="18">
+        <v>-0.74926417000000001</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0.87572230500000003</v>
+      </c>
+      <c r="L27" s="58">
+        <v>-0.67269400000000001</v>
+      </c>
+      <c r="M27" s="18">
+        <v>2.3003279600000002</v>
+      </c>
+      <c r="N27" s="19">
+        <v>-0.85080025999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="62"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="66"/>
+    </row>
+    <row r="5" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="62"/>
+      <c r="D5" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="68">
+        <v>0.69159789999999999</v>
+      </c>
+      <c r="E6" s="69">
+        <v>0.69475849999999995</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.67069420000000002</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.75443919999999998</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.76247529999999997</v>
+      </c>
+      <c r="I6" s="69">
+        <v>0.69321860000000002</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.68262970000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.76082249999999996</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0.75853409999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:I14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="63"/>
+      <c r="C5" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="39">
+        <v>2.1934092000000001</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.9561781</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.90387890000000004</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.51194700000000004</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.28544069999999999</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.1491461</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2.4795910999999999</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.957416</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.94189250000000002</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.58870120000000004</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.29261969999999998</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.12618180000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="73"/>
+      <c r="C8" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2.1561789999999998</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.949568</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1.1627291</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.47434100000000001</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.27128659999999999</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.107534</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="73"/>
+      <c r="C9" s="76">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2.7541533</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2.0189161000000002</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.87455229999999995</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.36122680000000001</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.17256099999999999</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.14523630000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="74"/>
+      <c r="C10" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="39">
+        <v>3.0107993500000001</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1.8538081799999999</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.75890539999999995</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.47648666000000001</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.23435476999999999</v>
+      </c>
+      <c r="I10" s="19">
+        <v>4.5665619999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2.2353386999999998</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.9239729000000001</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.90478959999999997</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.48162860000000002</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.28857359999999999</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.1656966</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="73"/>
+      <c r="C12" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2.1068907000000001</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1.9888873</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1.0441218999999999</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.4294133</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.29542059999999998</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.1352662</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="73"/>
+      <c r="C13" s="76">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="24">
+        <v>2.4221127199999999</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2.1428225400000001</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.85067022000000003</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.36021391000000003</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.14943358000000001</v>
+      </c>
+      <c r="I13" s="16">
+        <v>7.4747019999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="74"/>
+      <c r="C14" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="39">
+        <v>2.7126564499999999</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1.8385479300000001</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.66901758</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.46089134999999998</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.22688678000000001</v>
+      </c>
+      <c r="I14" s="19">
+        <v>9.1999910000000004E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tablas y comparaciones.xlsx
+++ b/tablas y comparaciones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5025" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5025" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="matrices na" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="cor comp 1" sheetId="14" r:id="rId12"/>
     <sheet name="orto vectores" sheetId="15" r:id="rId13"/>
     <sheet name="Imputacion" sheetId="16" r:id="rId14"/>
+    <sheet name="RV de scouffer" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="127">
   <si>
     <t>Colombia</t>
   </si>
@@ -393,17 +394,45 @@
   </si>
   <si>
     <t>Norma</t>
+  </si>
+  <si>
+    <t>Coeficiente RV</t>
+  </si>
+  <si>
+    <t>0.8887252</t>
+  </si>
+  <si>
+    <t>0.8370876</t>
+  </si>
+  <si>
+    <t>0.6765642</t>
+  </si>
+  <si>
+    <t>0.6866648</t>
+  </si>
+  <si>
+    <t>0.9962964</t>
+  </si>
+  <si>
+    <t>0.9840701</t>
+  </si>
+  <si>
+    <t>0.9245709</t>
+  </si>
+  <si>
+    <t>0.8500526</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -623,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,6 +826,102 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,136 +931,46 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -944,10 +979,28 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3210,7 @@
   <dimension ref="B4:S12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:S12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,68 +3223,68 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="64" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="66"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="96"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="95">
+      <c r="C5" s="101"/>
+      <c r="D5" s="102">
         <v>0.05</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="95">
+      <c r="E5" s="103"/>
+      <c r="F5" s="102">
         <v>0.1</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="95">
+      <c r="G5" s="103"/>
+      <c r="H5" s="102">
         <v>0.15</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="95">
+      <c r="I5" s="103"/>
+      <c r="J5" s="102">
         <v>0.2</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="95">
+      <c r="K5" s="104"/>
+      <c r="L5" s="102">
         <v>0.05</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="95">
+      <c r="M5" s="103"/>
+      <c r="N5" s="102">
         <v>0.1</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95">
+      <c r="O5" s="103"/>
+      <c r="P5" s="102">
         <v>0.15</v>
       </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="95">
+      <c r="Q5" s="103"/>
+      <c r="R5" s="102">
         <v>0.2</v>
       </c>
-      <c r="S5" s="96"/>
+      <c r="S5" s="103"/>
     </row>
     <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -3290,338 +3343,338 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="85">
+      <c r="B7" s="74">
         <v>-0.32665719999999998</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="77">
         <v>0.57089840000000003</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="69">
         <v>0.42971407</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="68">
         <v>0.46277439999999997</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="69">
         <v>0.48997160000000001</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="68">
         <v>0.33762173000000001</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="69">
         <v>0.5411724</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="68">
         <v>0.2265876</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="70">
         <v>0.45318444000000002</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="71">
         <v>0.4373667</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="69">
         <v>-0.33408460000000001</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="68">
         <v>0.56224989999999997</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="69">
         <v>0.59085041999999999</v>
       </c>
-      <c r="O7" s="79">
+      <c r="O7" s="68">
         <v>0.24144035999999999</v>
       </c>
-      <c r="P7" s="80">
+      <c r="P7" s="69">
         <v>0.60154492000000004</v>
       </c>
-      <c r="Q7" s="79">
+      <c r="Q7" s="68">
         <v>-0.1149054</v>
       </c>
-      <c r="R7" s="81">
+      <c r="R7" s="70">
         <v>-0.26828289999999999</v>
       </c>
-      <c r="S7" s="79">
+      <c r="S7" s="68">
         <v>0.61469328999999995</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="85">
+      <c r="B8" s="74">
         <v>-0.15885869999999999</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="77">
         <v>-0.60332770000000002</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="74">
         <v>7.2809910000000005E-2</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="73">
         <v>-0.63066449999999996</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="74">
         <v>-0.22206490000000001</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="73">
         <v>-0.62466712000000002</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="74">
         <v>-0.37692730000000002</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="73">
         <v>-0.4499708</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="76">
         <v>3.1259809999999999E-2</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="77">
         <v>-0.68032910000000002</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="74">
         <v>-0.19081890000000001</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="73">
         <v>-0.60209440000000003</v>
       </c>
-      <c r="N8" s="85">
+      <c r="N8" s="74">
         <v>-0.24704255</v>
       </c>
-      <c r="O8" s="84">
+      <c r="O8" s="73">
         <v>-0.55878981000000005</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="74">
         <v>-0.55289695999999999</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="73">
         <v>-0.15664159999999999</v>
       </c>
-      <c r="R8" s="87">
+      <c r="R8" s="76">
         <v>-0.2245808</v>
       </c>
-      <c r="S8" s="84">
+      <c r="S8" s="73">
         <v>-0.62755658999999997</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="85">
+      <c r="B9" s="74">
         <v>-0.338171</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="77">
         <v>-0.46359600000000001</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="74">
         <v>0.19053603</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="73">
         <v>-0.55745840000000002</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="74">
         <v>5.57729E-2</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="73">
         <v>-0.57778094999999996</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="74">
         <v>-0.17996870000000001</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="73">
         <v>-0.60360069999999999</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="76">
         <v>0.39864007000000001</v>
       </c>
-      <c r="K9" s="88">
+      <c r="K9" s="77">
         <v>-0.29144740000000002</v>
       </c>
-      <c r="L9" s="85">
+      <c r="L9" s="74">
         <v>-0.33873199999999998</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="73">
         <v>-0.4747363</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="74">
         <v>-4.4783919999999998E-2</v>
       </c>
-      <c r="O9" s="84">
+      <c r="O9" s="73">
         <v>-0.62190219999999996</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="74">
         <v>-0.42332718000000003</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="73">
         <v>-0.40303080000000002</v>
       </c>
-      <c r="R9" s="87">
+      <c r="R9" s="76">
         <v>-0.46045439999999999</v>
       </c>
-      <c r="S9" s="84">
+      <c r="S9" s="73">
         <v>-0.16104794</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="85">
+      <c r="B10" s="74">
         <v>-0.28985929999999999</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="77">
         <v>0.20662730000000001</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="74">
         <v>0.30794284</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="73">
         <v>0.12016300000000001</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="74">
         <v>0.23530229999999999</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="73">
         <v>-1.0221539999999999E-2</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="74">
         <v>0.25316129999999998</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="73">
         <v>0.1749954</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="76">
         <v>0.58910766999999997</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="77">
         <v>0.2154491</v>
       </c>
-      <c r="L10" s="85">
+      <c r="L10" s="74">
         <v>-0.29717359999999998</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="73">
         <v>0.1908832</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="74">
         <v>0.24824876000000001</v>
       </c>
-      <c r="O10" s="84">
+      <c r="O10" s="73">
         <v>-5.2182939999999997E-2</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="74">
         <v>0.32434724999999998</v>
       </c>
-      <c r="Q10" s="84">
+      <c r="Q10" s="73">
         <v>-0.10258879999999999</v>
       </c>
-      <c r="R10" s="87">
+      <c r="R10" s="76">
         <v>-0.2913829</v>
       </c>
-      <c r="S10" s="84">
+      <c r="S10" s="73">
         <v>0.41231702999999997</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="85">
+      <c r="B11" s="74">
         <v>-0.54593910000000001</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="77">
         <v>0.17560439999999999</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="74">
         <v>0.61478294</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="73">
         <v>1.53419E-2</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="74">
         <v>0.60333349999999997</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="73">
         <v>-4.7589350000000002E-2</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="74">
         <v>0.45203739999999998</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="73">
         <v>-0.39139659999999998</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="76">
         <v>0.39466455</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="77">
         <v>-0.21697830000000001</v>
       </c>
-      <c r="L11" s="85">
+      <c r="L11" s="74">
         <v>-0.53065620000000002</v>
       </c>
-      <c r="M11" s="84">
+      <c r="M11" s="73">
         <v>0.2067368</v>
       </c>
-      <c r="N11" s="85">
+      <c r="N11" s="74">
         <v>0.56942391999999997</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="73">
         <v>-0.15140091999999999</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="74">
         <v>0.21493936</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="73">
         <v>-0.58716360000000001</v>
       </c>
-      <c r="R11" s="87">
+      <c r="R11" s="76">
         <v>-0.53203250000000002</v>
       </c>
-      <c r="S11" s="84">
+      <c r="S11" s="73">
         <v>4.6699730000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="91">
+      <c r="B12" s="80">
         <v>-0.60961569999999998</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="82">
         <v>-0.14702970000000001</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="80">
         <v>0.54859247</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="79">
         <v>-0.25033539999999999</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="80">
         <v>0.53677359999999996</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="79">
         <v>-0.39950281999999998</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="80">
         <v>0.51404380000000005</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="79">
         <v>-0.44501210000000002</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="81">
         <v>0.36321457000000001</v>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="82">
         <v>-0.40917369999999997</v>
       </c>
-      <c r="L12" s="91">
+      <c r="L12" s="80">
         <v>-0.60607599999999995</v>
       </c>
-      <c r="M12" s="90">
+      <c r="M12" s="79">
         <v>-0.12963930000000001</v>
       </c>
-      <c r="N12" s="91">
+      <c r="N12" s="80">
         <v>0.44943198000000001</v>
       </c>
-      <c r="O12" s="90">
+      <c r="O12" s="79">
         <v>-0.46588932</v>
       </c>
-      <c r="P12" s="91">
+      <c r="P12" s="80">
         <v>4.292663E-2</v>
       </c>
-      <c r="Q12" s="90">
+      <c r="Q12" s="79">
         <v>-0.66673890000000002</v>
       </c>
-      <c r="R12" s="92">
+      <c r="R12" s="81">
         <v>-0.54553370000000001</v>
       </c>
-      <c r="S12" s="90">
+      <c r="S12" s="79">
         <v>-0.17378797000000001</v>
       </c>
     </row>
@@ -3662,73 +3715,73 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="62"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65" t="s">
+      <c r="E3" s="96"/>
+      <c r="F3" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="65" t="s">
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="66"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="96"/>
     </row>
     <row r="4" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="59">
+      <c r="E4" s="96"/>
+      <c r="F4" s="91">
         <v>0.05</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="59">
+      <c r="G4" s="93"/>
+      <c r="H4" s="91">
         <v>0.1</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="59">
+      <c r="I4" s="93"/>
+      <c r="J4" s="91">
         <v>0.15</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="59">
+      <c r="K4" s="93"/>
+      <c r="L4" s="91">
         <v>0.2</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="59">
+      <c r="M4" s="93"/>
+      <c r="N4" s="91">
         <v>0.05</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="59">
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <v>0.1</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="59">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="91">
         <v>0.15</v>
       </c>
-      <c r="S4" s="61"/>
-      <c r="T4" s="59">
+      <c r="S4" s="93"/>
+      <c r="T4" s="91">
         <v>0.2</v>
       </c>
-      <c r="U4" s="61"/>
+      <c r="U4" s="93"/>
     </row>
     <row r="5" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="62"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="11" t="s">
         <v>101</v>
       </c>
@@ -3788,58 +3841,58 @@
       <c r="C6" s="50">
         <v>1991</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="67">
         <v>-3.5794029300000001</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="68">
         <v>0.22001860000000001</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="69">
         <v>-3.3856093</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="68">
         <v>0.96223820000000004</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="69">
         <v>-2.6674976699999999</v>
       </c>
-      <c r="I6" s="79">
+      <c r="I6" s="68">
         <v>2.0407576409999999</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="69">
         <v>-1.65576441</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="68">
         <v>2.6994056999999998</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="70">
         <v>-4.0501223829999997</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="71">
         <v>1.088501575</v>
       </c>
-      <c r="N6" s="80">
+      <c r="N6" s="69">
         <v>3.6266831000000002</v>
       </c>
-      <c r="O6" s="79">
+      <c r="O6" s="68">
         <v>0.26329121</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="69">
         <v>-2.4894966699999999</v>
       </c>
-      <c r="Q6" s="79">
+      <c r="Q6" s="68">
         <v>2.4493983899999998</v>
       </c>
-      <c r="R6" s="80">
+      <c r="R6" s="69">
         <v>0.90514380000000005</v>
       </c>
-      <c r="S6" s="79">
+      <c r="S6" s="68">
         <v>3.02394322</v>
       </c>
-      <c r="T6" s="81">
+      <c r="T6" s="70">
         <v>3.9093355999999999</v>
       </c>
-      <c r="U6" s="79">
+      <c r="U6" s="68">
         <v>9.5973810000000007E-2</v>
       </c>
     </row>
@@ -3847,58 +3900,58 @@
       <c r="C7" s="51">
         <v>1992</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="72">
         <v>-2.9841662000000002</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="73">
         <v>1.1042398</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="74">
         <v>-3.1706444</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="73">
         <v>1.6390586700000001</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="74">
         <v>-2.41899438</v>
       </c>
-      <c r="I7" s="84">
+      <c r="I7" s="73">
         <v>1.8565298299999999</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="74">
         <v>-2.3260837699999999</v>
       </c>
-      <c r="K7" s="86">
+      <c r="K7" s="75">
         <v>1.5794055</v>
       </c>
-      <c r="L7" s="87">
+      <c r="L7" s="76">
         <v>-2.5280118659999999</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="77">
         <v>1.9728107969999999</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="74">
         <v>3.0325923000000001</v>
       </c>
-      <c r="O7" s="84">
+      <c r="O7" s="73">
         <v>1.16097534</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="74">
         <v>-1.927845</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="Q7" s="73">
         <v>2.1203169100000001</v>
       </c>
-      <c r="R7" s="85">
+      <c r="R7" s="74">
         <v>-0.66331929999999995</v>
       </c>
-      <c r="S7" s="86">
+      <c r="S7" s="75">
         <v>2.76730747</v>
       </c>
-      <c r="T7" s="87">
+      <c r="T7" s="76">
         <v>3.3435451</v>
       </c>
-      <c r="U7" s="84">
+      <c r="U7" s="73">
         <v>0.94975279999999995</v>
       </c>
     </row>
@@ -3906,58 +3959,58 @@
       <c r="C8" s="51">
         <v>1993</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="72">
         <v>1.1801110699999999</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="73">
         <v>-1.16174E-2</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="74">
         <v>1.1035482999999999</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="73">
         <v>-0.23716872</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="74">
         <v>0.99863522999999998</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="73">
         <v>-2.0488859000000002E-2</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="74">
         <v>1.4924016600000001</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="73">
         <v>-0.9340058</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="76">
         <v>3.4669060140000001</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="77">
         <v>0.34315525400000002</v>
       </c>
-      <c r="N8" s="85">
+      <c r="N8" s="74">
         <v>-1.1321398</v>
       </c>
-      <c r="O8" s="84">
+      <c r="O8" s="73">
         <v>8.6053110000000002E-2</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="74">
         <v>0.81079540000000005</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="73">
         <v>-0.21014627999999999</v>
       </c>
-      <c r="R8" s="85">
+      <c r="R8" s="74">
         <v>0.7246262</v>
       </c>
-      <c r="S8" s="84">
+      <c r="S8" s="73">
         <v>-1.6003652399999999</v>
       </c>
-      <c r="T8" s="87">
+      <c r="T8" s="76">
         <v>-2.4349615</v>
       </c>
-      <c r="U8" s="84">
+      <c r="U8" s="73">
         <v>0.45042902000000001</v>
       </c>
     </row>
@@ -3965,58 +4018,58 @@
       <c r="C9" s="51">
         <v>1994</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="72">
         <v>1.5534063</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="73">
         <v>-0.75936250000000005</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="74">
         <v>1.3998495</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="73">
         <v>-0.98069118</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="74">
         <v>1.4221110800000001</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="73">
         <v>-1.118063169</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="74">
         <v>0.91680488999999998</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="73">
         <v>-3.0838516999999999</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="76">
         <v>0.48462270600000001</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="77">
         <v>-2.0381526889999999</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="74">
         <v>-1.512373</v>
       </c>
-      <c r="O9" s="84">
+      <c r="O9" s="73">
         <v>-0.62541853999999997</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="74">
         <v>1.1173581400000001</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="73">
         <v>-1.2963180599999999</v>
       </c>
-      <c r="R9" s="85">
+      <c r="R9" s="74">
         <v>-1.1638777</v>
       </c>
-      <c r="S9" s="84">
+      <c r="S9" s="73">
         <v>-2.5024028199999999</v>
       </c>
-      <c r="T9" s="87">
+      <c r="T9" s="76">
         <v>-1.8557009</v>
       </c>
-      <c r="U9" s="84">
+      <c r="U9" s="73">
         <v>-1.51540702</v>
       </c>
     </row>
@@ -4024,58 +4077,58 @@
       <c r="C10" s="51">
         <v>1995</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="72">
         <v>1.7594190999999999</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="73">
         <v>-0.38265349999999998</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="74">
         <v>1.7231145999999999</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="73">
         <v>-0.69924069</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="74">
         <v>1.58126141</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="75">
         <v>-0.99349328100000001</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="74">
         <v>0.58189515000000003</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="73">
         <v>-1.7072343999999999</v>
       </c>
-      <c r="L10" s="87">
+      <c r="L10" s="76">
         <v>0.85546992200000005</v>
       </c>
-      <c r="M10" s="88">
+      <c r="M10" s="77">
         <v>-1.6717409809999999</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="74">
         <v>-1.7453806000000001</v>
       </c>
-      <c r="O10" s="84">
+      <c r="O10" s="73">
         <v>-0.28219769</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="74">
         <v>1.3811249299999999</v>
       </c>
-      <c r="Q10" s="86">
+      <c r="Q10" s="75">
         <v>-1.17455916</v>
       </c>
-      <c r="R10" s="85">
+      <c r="R10" s="74">
         <v>-0.21569830000000001</v>
       </c>
-      <c r="S10" s="84">
+      <c r="S10" s="73">
         <v>-1.9218385899999999</v>
       </c>
-      <c r="T10" s="87">
+      <c r="T10" s="76">
         <v>-1.9907893999999999</v>
       </c>
-      <c r="U10" s="84">
+      <c r="U10" s="73">
         <v>-0.92902952999999999</v>
       </c>
     </row>
@@ -4083,58 +4136,58 @@
       <c r="C11" s="51">
         <v>1996</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="72">
         <v>1.9519251500000001</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="73">
         <v>-2.1096857</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="74">
         <v>1.3495992999999999</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="73">
         <v>-2.4721197199999998</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="74">
         <v>0.64129594999999995</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="73">
         <v>-2.698094282</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="74">
         <v>-1.1947678900000001</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="73">
         <v>-1.9242809000000001</v>
       </c>
-      <c r="L11" s="87">
+      <c r="L11" s="76">
         <v>1.151529204</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="77">
         <v>-1.7529772699999999</v>
       </c>
-      <c r="N11" s="85">
+      <c r="N11" s="74">
         <v>-1.9971771</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="73">
         <v>-2.1321159700000001</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="74">
         <v>0.23534163</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="73">
         <v>-2.9773617799999998</v>
       </c>
-      <c r="R11" s="85">
+      <c r="R11" s="74">
         <v>-1.7238434</v>
       </c>
-      <c r="S11" s="84">
+      <c r="S11" s="73">
         <v>-1.8695477599999999</v>
       </c>
-      <c r="T11" s="87">
+      <c r="T11" s="76">
         <v>-1.9863351</v>
       </c>
-      <c r="U11" s="84">
+      <c r="U11" s="73">
         <v>-1.0577998900000001</v>
       </c>
     </row>
@@ -4142,58 +4195,58 @@
       <c r="C12" s="51">
         <v>1997</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="72">
         <v>-0.24144157999999999</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="73">
         <v>-3.3571268999999999</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="74">
         <v>-1.2028555999999999</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="73">
         <v>-3.2540331600000001</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="74">
         <v>-1.27442619</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="73">
         <v>-2.8872983190000001</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="74">
         <v>-3.4598649899999998</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="73">
         <v>-1.5759405</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="76">
         <v>-1.854949991</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="77">
         <v>-2.0481124679999998</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="74">
         <v>-0.24087839999999999</v>
       </c>
-      <c r="O12" s="84">
+      <c r="O12" s="73">
         <v>-3.3644541100000001</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="74">
         <v>-1.9103526900000001</v>
       </c>
-      <c r="Q12" s="84">
+      <c r="Q12" s="73">
         <v>-2.9429625599999998</v>
       </c>
-      <c r="R12" s="85">
+      <c r="R12" s="74">
         <v>-3.5166658000000002</v>
       </c>
-      <c r="S12" s="84">
+      <c r="S12" s="73">
         <v>-0.47627732</v>
       </c>
-      <c r="T12" s="87">
+      <c r="T12" s="76">
         <v>0.66691029999999996</v>
       </c>
-      <c r="U12" s="84">
+      <c r="U12" s="73">
         <v>-2.4925311699999999</v>
       </c>
     </row>
@@ -4201,58 +4254,58 @@
       <c r="C13" s="51">
         <v>1998</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="72">
         <v>-1.98337243</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="73">
         <v>-0.71624080000000001</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="74">
         <v>-2.0625233999999999</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="73">
         <v>-0.24303077000000001</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="74">
         <v>-1.92015559</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="73">
         <v>0.41733798</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="74">
         <v>-1.7981444099999999</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="73">
         <v>0.35035889999999997</v>
       </c>
-      <c r="L13" s="87">
+      <c r="L13" s="76">
         <v>-2.111214258</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="77">
         <v>-0.19723101500000001</v>
       </c>
-      <c r="N13" s="85">
+      <c r="N13" s="74">
         <v>1.9808661000000001</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="73">
         <v>-0.70042101999999995</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="74">
         <v>-1.9406592300000001</v>
       </c>
-      <c r="Q13" s="84">
+      <c r="Q13" s="73">
         <v>0.73846045000000005</v>
       </c>
-      <c r="R13" s="85">
+      <c r="R13" s="74">
         <v>-1.4071042</v>
       </c>
-      <c r="S13" s="84">
+      <c r="S13" s="73">
         <v>1.39746937</v>
       </c>
-      <c r="T13" s="87">
+      <c r="T13" s="76">
         <v>2.1113615999999999</v>
       </c>
-      <c r="U13" s="84">
+      <c r="U13" s="73">
         <v>-1.0157152899999999</v>
       </c>
     </row>
@@ -4260,58 +4313,58 @@
       <c r="C14" s="51">
         <v>1999</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="72">
         <v>-0.73442430000000003</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="73">
         <v>-0.78287039999999997</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="74">
         <v>-0.92232309999999995</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="73">
         <v>-0.52497890000000003</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="74">
         <v>-0.93076760999999997</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="73">
         <v>-0.96685322200000001</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="74">
         <v>-1.60895521</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K14" s="73">
         <v>0.87904400000000005</v>
       </c>
-      <c r="L14" s="87">
+      <c r="L14" s="76">
         <v>-0.67934244300000002</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="77">
         <v>-0.95321412699999997</v>
       </c>
-      <c r="N14" s="85">
+      <c r="N14" s="74">
         <v>0.71871240000000003</v>
       </c>
-      <c r="O14" s="84">
+      <c r="O14" s="73">
         <v>-0.76867934000000004</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="74">
         <v>-1.1047020599999999</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="73">
         <v>-0.65166464000000002</v>
       </c>
-      <c r="R14" s="85">
+      <c r="R14" s="74">
         <v>-1.0551827</v>
       </c>
-      <c r="S14" s="84">
+      <c r="S14" s="73">
         <v>1.6776669799999999</v>
       </c>
-      <c r="T14" s="87">
+      <c r="T14" s="76">
         <v>-0.19621839999999999</v>
       </c>
-      <c r="U14" s="84">
+      <c r="U14" s="73">
         <v>-1.05703897</v>
       </c>
     </row>
@@ -4319,58 +4372,58 @@
       <c r="C15" s="51">
         <v>2000</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="72">
         <v>-0.53228045999999996</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="73">
         <v>-0.6705084</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="74">
         <v>-0.70789340000000001</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="73">
         <v>-0.47073644999999997</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="74">
         <v>-0.67743931999999996</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="73">
         <v>-0.27090311299999997</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="74">
         <v>-9.3657279999999996E-2</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="73">
         <v>-0.60951290000000002</v>
       </c>
-      <c r="L15" s="87">
+      <c r="L15" s="76">
         <v>-0.85859757400000003</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="77">
         <v>-0.96249544200000003</v>
       </c>
-      <c r="N15" s="85">
+      <c r="N15" s="74">
         <v>0.50817469999999998</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="73">
         <v>-0.66709331999999999</v>
       </c>
-      <c r="P15" s="85">
+      <c r="P15" s="74">
         <v>-0.68696548999999996</v>
       </c>
-      <c r="Q15" s="84">
+      <c r="Q15" s="73">
         <v>-0.11466972</v>
       </c>
-      <c r="R15" s="85">
+      <c r="R15" s="74">
         <v>-0.52489300000000005</v>
       </c>
-      <c r="S15" s="84">
+      <c r="S15" s="73">
         <v>-0.28941097999999998</v>
       </c>
-      <c r="T15" s="87">
+      <c r="T15" s="76">
         <v>0.74181710000000001</v>
       </c>
-      <c r="U15" s="84">
+      <c r="U15" s="73">
         <v>-1.35411623</v>
       </c>
     </row>
@@ -4378,58 +4431,58 @@
       <c r="C16" s="51">
         <v>2001</v>
       </c>
-      <c r="D16" s="83">
+      <c r="D16" s="72">
         <v>0.37260533000000001</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="73">
         <v>-0.57129850000000004</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="74">
         <v>0.4496194</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="73">
         <v>-0.76668031000000003</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="74">
         <v>-6.5340980000000007E-2</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="73">
         <v>-1.1317642210000001</v>
       </c>
-      <c r="J16" s="85">
+      <c r="J16" s="74">
         <v>-0.32314219999999999</v>
       </c>
-      <c r="K16" s="84">
+      <c r="K16" s="73">
         <v>-0.34160760000000001</v>
       </c>
-      <c r="L16" s="87">
+      <c r="L16" s="76">
         <v>0.82211365400000003</v>
       </c>
-      <c r="M16" s="88">
+      <c r="M16" s="77">
         <v>9.6857051E-2</v>
       </c>
-      <c r="N16" s="85">
+      <c r="N16" s="74">
         <v>-0.76505409999999996</v>
       </c>
-      <c r="O16" s="84">
+      <c r="O16" s="73">
         <v>-0.67077485999999997</v>
       </c>
-      <c r="P16" s="85">
+      <c r="P16" s="74">
         <v>-8.2201270000000007E-2</v>
       </c>
-      <c r="Q16" s="84">
+      <c r="Q16" s="73">
         <v>-1.0470510799999999</v>
       </c>
-      <c r="R16" s="85">
+      <c r="R16" s="74">
         <v>-0.50768369999999996</v>
       </c>
-      <c r="S16" s="84">
+      <c r="S16" s="73">
         <v>-0.15326349</v>
       </c>
-      <c r="T16" s="87">
+      <c r="T16" s="76">
         <v>-0.42244939999999997</v>
       </c>
-      <c r="U16" s="84">
+      <c r="U16" s="73">
         <v>0.47829757000000001</v>
       </c>
     </row>
@@ -4437,58 +4490,58 @@
       <c r="C17" s="51">
         <v>2002</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="72">
         <v>-0.34063968999999999</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="73">
         <v>-0.22368440000000001</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="74">
         <v>-0.31263819999999998</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="73">
         <v>-0.1660287</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="74">
         <v>-0.45790344999999999</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="73">
         <v>-5.6037930000000001E-3</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="74">
         <v>-0.14853759</v>
       </c>
-      <c r="K17" s="84">
+      <c r="K17" s="73">
         <v>0.75605880000000003</v>
       </c>
-      <c r="L17" s="87">
+      <c r="L17" s="76">
         <v>-7.9277610000000002E-3</v>
       </c>
-      <c r="M17" s="88">
+      <c r="M17" s="77">
         <v>-0.77645280400000005</v>
       </c>
-      <c r="N17" s="85">
+      <c r="N17" s="74">
         <v>0.29975980000000002</v>
       </c>
-      <c r="O17" s="84">
+      <c r="O17" s="73">
         <v>-0.2329561</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="74">
         <v>-0.35021632000000003</v>
       </c>
-      <c r="Q17" s="84">
+      <c r="Q17" s="73">
         <v>0.11421984</v>
       </c>
-      <c r="R17" s="85">
+      <c r="R17" s="74">
         <v>0.4360697</v>
       </c>
-      <c r="S17" s="84">
+      <c r="S17" s="73">
         <v>0.73150444999999997</v>
       </c>
-      <c r="T17" s="87">
+      <c r="T17" s="76">
         <v>-0.29184939999999998</v>
       </c>
-      <c r="U17" s="84">
+      <c r="U17" s="73">
         <v>-0.57917041000000002</v>
       </c>
     </row>
@@ -4496,58 +4549,58 @@
       <c r="C18" s="51">
         <v>2003</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="72">
         <v>0.25306113000000002</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="73">
         <v>0.1018299</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="74">
         <v>0.25756760000000001</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="73">
         <v>6.6659070000000001E-2</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="74">
         <v>0.23652105000000001</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="73">
         <v>-2.4011688999999999E-2</v>
       </c>
-      <c r="J18" s="85">
+      <c r="J18" s="74">
         <v>0.14900431</v>
       </c>
-      <c r="K18" s="84">
+      <c r="K18" s="73">
         <v>0.192972</v>
       </c>
-      <c r="L18" s="87">
+      <c r="L18" s="76">
         <v>0.73315876300000005</v>
       </c>
-      <c r="M18" s="88">
+      <c r="M18" s="77">
         <v>5.8779180000000002E-3</v>
       </c>
-      <c r="N18" s="85">
+      <c r="N18" s="74">
         <v>-0.25466139999999998</v>
       </c>
-      <c r="O18" s="84">
+      <c r="O18" s="73">
         <v>0.12227459</v>
       </c>
-      <c r="P18" s="85">
+      <c r="P18" s="74">
         <v>0.22369845999999999</v>
       </c>
-      <c r="Q18" s="84">
+      <c r="Q18" s="73">
         <v>-3.8841069999999998E-2</v>
       </c>
-      <c r="R18" s="85">
+      <c r="R18" s="74">
         <v>0.22349949999999999</v>
       </c>
-      <c r="S18" s="84">
+      <c r="S18" s="73">
         <v>-2.958361E-2</v>
       </c>
-      <c r="T18" s="87">
+      <c r="T18" s="76">
         <v>-0.33093299999999998</v>
       </c>
-      <c r="U18" s="84">
+      <c r="U18" s="73">
         <v>0.27292494</v>
       </c>
     </row>
@@ -4555,58 +4608,58 @@
       <c r="C19" s="51">
         <v>2004</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="72">
         <v>-1.13138487</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="73">
         <v>0.14574860000000001</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="74">
         <v>-1.3924312000000001</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="73">
         <v>3.5557400000000003E-2</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="74">
         <v>-0.92081948999999996</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="73">
         <v>0.590505536</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="74">
         <v>-0.89693491999999997</v>
       </c>
-      <c r="K19" s="84">
+      <c r="K19" s="73">
         <v>0.867726</v>
       </c>
-      <c r="L19" s="87">
+      <c r="L19" s="76">
         <v>-0.55006066300000001</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="77">
         <v>0.28600303500000002</v>
       </c>
-      <c r="N19" s="85">
+      <c r="N19" s="74">
         <v>1.2949784</v>
       </c>
-      <c r="O19" s="84">
+      <c r="O19" s="73">
         <v>-0.17744816999999999</v>
       </c>
-      <c r="P19" s="85">
+      <c r="P19" s="74">
         <v>-0.78073736000000005</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="73">
         <v>0.60915185000000005</v>
       </c>
-      <c r="R19" s="85">
+      <c r="R19" s="74">
         <v>-0.2808349</v>
       </c>
-      <c r="S19" s="84">
+      <c r="S19" s="73">
         <v>1.2118489100000001</v>
       </c>
-      <c r="T19" s="87">
+      <c r="T19" s="76">
         <v>0.99257669999999998</v>
       </c>
-      <c r="U19" s="84">
+      <c r="U19" s="73">
         <v>3.746704E-2</v>
       </c>
     </row>
@@ -4614,58 +4667,58 @@
       <c r="C20" s="51">
         <v>2005</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="72">
         <v>-0.26399863000000001</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="73">
         <v>-1.2144045999999999</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="74">
         <v>-0.55150759999999999</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="73">
         <v>-1.1371026</v>
       </c>
-      <c r="H20" s="85">
+      <c r="H20" s="74">
         <v>-0.67308221999999995</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="73">
         <v>-0.80693722199999995</v>
       </c>
-      <c r="J20" s="85">
+      <c r="J20" s="74">
         <v>-0.99591074999999996</v>
       </c>
-      <c r="K20" s="84">
+      <c r="K20" s="73">
         <v>-1.1204455</v>
       </c>
-      <c r="L20" s="87">
+      <c r="L20" s="76">
         <v>-0.27316062899999999</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="77">
         <v>-1.5793928349999999</v>
       </c>
-      <c r="N20" s="85">
+      <c r="N20" s="74">
         <v>0.30605179999999998</v>
       </c>
-      <c r="O20" s="84">
+      <c r="O20" s="73">
         <v>-1.0305826199999999</v>
       </c>
-      <c r="P20" s="85">
+      <c r="P20" s="74">
         <v>-0.87856162999999998</v>
       </c>
-      <c r="Q20" s="84">
+      <c r="Q20" s="73">
         <v>-0.74156023000000004</v>
       </c>
-      <c r="R20" s="85">
+      <c r="R20" s="74">
         <v>-1.5690012</v>
       </c>
-      <c r="S20" s="84">
+      <c r="S20" s="73">
         <v>-0.10552267999999999</v>
       </c>
-      <c r="T20" s="87">
+      <c r="T20" s="76">
         <v>-0.24734200000000001</v>
       </c>
-      <c r="U20" s="84">
+      <c r="U20" s="73">
         <v>-1.42196345</v>
       </c>
     </row>
@@ -4673,58 +4726,58 @@
       <c r="C21" s="51">
         <v>2006</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="72">
         <v>1.3042111700000001</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="73">
         <v>2.4709379999999999</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="74">
         <v>1.6838306000000001</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="73">
         <v>2.1906839499999999</v>
       </c>
-      <c r="H21" s="85">
+      <c r="H21" s="74">
         <v>2.4390447800000001</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="73">
         <v>1.644619764</v>
       </c>
-      <c r="J21" s="85">
+      <c r="J21" s="74">
         <v>2.8017931200000001</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="73">
         <v>0.92928889999999997</v>
       </c>
-      <c r="L21" s="87">
+      <c r="L21" s="76">
         <v>1.5050172070000001</v>
       </c>
-      <c r="M21" s="88">
+      <c r="M21" s="77">
         <v>1.802115208</v>
       </c>
-      <c r="N21" s="85">
+      <c r="N21" s="74">
         <v>-1.2384094000000001</v>
       </c>
-      <c r="O21" s="84">
+      <c r="O21" s="73">
         <v>2.5634633199999999</v>
       </c>
-      <c r="P21" s="85">
+      <c r="P21" s="74">
         <v>2.8004441600000001</v>
       </c>
-      <c r="Q21" s="84">
+      <c r="Q21" s="73">
         <v>1.37590302</v>
       </c>
-      <c r="R21" s="85">
+      <c r="R21" s="74">
         <v>2.9276464</v>
       </c>
-      <c r="S21" s="84">
+      <c r="S21" s="73">
         <v>-0.75692316999999998</v>
       </c>
-      <c r="T21" s="87">
+      <c r="T21" s="76">
         <v>-0.77964069999999996</v>
       </c>
-      <c r="U21" s="84">
+      <c r="U21" s="73">
         <v>2.5378464200000002</v>
       </c>
     </row>
@@ -4732,58 +4785,58 @@
       <c r="C22" s="51">
         <v>2007</v>
       </c>
-      <c r="D22" s="83">
+      <c r="D22" s="72">
         <v>1.21980212</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="73">
         <v>1.6156676000000001</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="74">
         <v>1.4145163000000001</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="73">
         <v>1.33700898</v>
       </c>
-      <c r="H22" s="85">
+      <c r="H22" s="74">
         <v>1.93461861</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="73">
         <v>0.96625941400000004</v>
       </c>
-      <c r="J22" s="85">
+      <c r="J22" s="74">
         <v>2.01777921</v>
       </c>
-      <c r="K22" s="84">
+      <c r="K22" s="73">
         <v>0.37995289999999998</v>
       </c>
-      <c r="L22" s="87">
+      <c r="L22" s="76">
         <v>1.783047869</v>
       </c>
-      <c r="M22" s="88">
+      <c r="M22" s="77">
         <v>0.61257446100000001</v>
       </c>
-      <c r="N22" s="85">
+      <c r="N22" s="74">
         <v>-1.1560701</v>
       </c>
-      <c r="O22" s="84">
+      <c r="O22" s="73">
         <v>1.6948943999999999</v>
       </c>
-      <c r="P22" s="85">
+      <c r="P22" s="74">
         <v>2.1162936499999998</v>
       </c>
-      <c r="Q22" s="84">
+      <c r="Q22" s="73">
         <v>0.66041497999999998</v>
       </c>
-      <c r="R22" s="85">
+      <c r="R22" s="74">
         <v>1.9874917999999999</v>
       </c>
-      <c r="S22" s="84">
+      <c r="S22" s="73">
         <v>-0.83251662000000004</v>
       </c>
-      <c r="T22" s="87">
+      <c r="T22" s="76">
         <v>-1.2569764000000001</v>
       </c>
-      <c r="U22" s="84">
+      <c r="U22" s="73">
         <v>1.36491487</v>
       </c>
     </row>
@@ -4791,58 +4844,58 @@
       <c r="C23" s="51">
         <v>2008</v>
       </c>
-      <c r="D23" s="83">
+      <c r="D23" s="72">
         <v>7.6905089999999995E-2</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="73">
         <v>1.805112</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="74">
         <v>0.44844689999999998</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="73">
         <v>1.27030329</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="74">
         <v>0.12543072</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="73">
         <v>1.2657814350000001</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="74">
         <v>0.51803025000000003</v>
       </c>
-      <c r="K23" s="84">
+      <c r="K23" s="73">
         <v>1.8513747</v>
       </c>
-      <c r="L23" s="87">
+      <c r="L23" s="76">
         <v>1.0222462059999999</v>
       </c>
-      <c r="M23" s="88">
+      <c r="M23" s="77">
         <v>1.6997534379999999</v>
       </c>
-      <c r="N23" s="85">
+      <c r="N23" s="74">
         <v>-0.2165831</v>
       </c>
-      <c r="O23" s="84">
+      <c r="O23" s="73">
         <v>1.2308094999999999</v>
       </c>
-      <c r="P23" s="85">
+      <c r="P23" s="74">
         <v>0.40484966999999999</v>
       </c>
-      <c r="Q23" s="84">
+      <c r="Q23" s="73">
         <v>1.1154991000000001</v>
       </c>
-      <c r="R23" s="85">
+      <c r="R23" s="74">
         <v>1.798624</v>
       </c>
-      <c r="S23" s="84">
+      <c r="S23" s="73">
         <v>0.93995892000000003</v>
       </c>
-      <c r="T23" s="87">
+      <c r="T23" s="76">
         <v>-0.24688599999999999</v>
       </c>
-      <c r="U23" s="84">
+      <c r="U23" s="73">
         <v>2.0237929299999999</v>
       </c>
     </row>
@@ -4850,58 +4903,58 @@
       <c r="C24" s="51">
         <v>2009</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="72">
         <v>0.35915931000000001</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="73">
         <v>1.2125307999999999</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="74">
         <v>0.58818040000000005</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="73">
         <v>1.1456259499999999</v>
       </c>
-      <c r="H24" s="85">
+      <c r="H24" s="74">
         <v>0.87570482000000005</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="73">
         <v>1.0299331730000001</v>
       </c>
-      <c r="J24" s="85">
+      <c r="J24" s="74">
         <v>1.23473338</v>
       </c>
-      <c r="K24" s="84">
+      <c r="K24" s="73">
         <v>0.10497629999999999</v>
       </c>
-      <c r="L24" s="87">
+      <c r="L24" s="76">
         <v>-0.457385502</v>
       </c>
-      <c r="M24" s="88">
+      <c r="M24" s="77">
         <v>1.2066223220000001</v>
       </c>
-      <c r="N24" s="85">
+      <c r="N24" s="74">
         <v>-0.2907536</v>
       </c>
-      <c r="O24" s="84">
+      <c r="O24" s="73">
         <v>1.3243387799999999</v>
       </c>
-      <c r="P24" s="85">
+      <c r="P24" s="74">
         <v>1.02416028</v>
       </c>
-      <c r="Q24" s="84">
+      <c r="Q24" s="73">
         <v>0.86384022000000005</v>
       </c>
-      <c r="R24" s="85">
+      <c r="R24" s="74">
         <v>1.0430128000000001</v>
       </c>
-      <c r="S24" s="84">
+      <c r="S24" s="73">
         <v>-0.46278286000000002</v>
       </c>
-      <c r="T24" s="87">
+      <c r="T24" s="76">
         <v>0.94722980000000001</v>
       </c>
-      <c r="U24" s="84">
+      <c r="U24" s="73">
         <v>0.91104459999999998</v>
       </c>
     </row>
@@ -4909,58 +4962,58 @@
       <c r="C25" s="52">
         <v>2010</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="78">
         <v>1.2776221699999999</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="79">
         <v>2.1233680000000001</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="80">
         <v>1.6074288000000001</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="79">
         <v>1.8407297899999999</v>
       </c>
-      <c r="H25" s="91">
+      <c r="H25" s="80">
         <v>1.84050928</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="79">
         <v>1.345947877</v>
       </c>
-      <c r="J25" s="91">
+      <c r="J25" s="80">
         <v>2.4252652800000001</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="79">
         <v>0.80439939999999999</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="81">
         <v>1.6470526050000001</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M25" s="82">
         <v>1.6675876620000001</v>
       </c>
-      <c r="N25" s="91">
+      <c r="N25" s="80">
         <v>-1.2183379999999999</v>
       </c>
-      <c r="O25" s="90">
+      <c r="O25" s="79">
         <v>2.20604149</v>
       </c>
-      <c r="P25" s="91">
+      <c r="P25" s="80">
         <v>2.0376714100000002</v>
       </c>
-      <c r="Q25" s="90">
+      <c r="Q25" s="79">
         <v>1.1479298200000001</v>
       </c>
-      <c r="R25" s="91">
+      <c r="R25" s="80">
         <v>2.5819898999999999</v>
       </c>
-      <c r="S25" s="90">
+      <c r="S25" s="79">
         <v>-0.74926417000000001</v>
       </c>
-      <c r="T25" s="92">
+      <c r="T25" s="81">
         <v>-0.67269400000000001</v>
       </c>
-      <c r="U25" s="90">
+      <c r="U25" s="79">
         <v>2.3003279600000002</v>
       </c>
     </row>
@@ -5041,7 +5094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K6"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -5052,22 +5105,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="66"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="62"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="25">
         <v>0.05</v>
       </c>
@@ -5094,10 +5147,10 @@
       </c>
     </row>
     <row r="6" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="63">
         <v>0.96620010000000001</v>
       </c>
       <c r="E6" s="18">
@@ -5109,7 +5162,7 @@
       <c r="G6" s="19">
         <v>0.85196640000000001</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="63">
         <v>0.99742589999999998</v>
       </c>
       <c r="I6" s="18">
@@ -5160,24 +5213,24 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="65" t="s">
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="65" t="s">
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="66"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="96"/>
     </row>
     <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="67" t="s">
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="61" t="s">
         <v>107</v>
       </c>
       <c r="AA7" s="25">
@@ -5206,13 +5259,13 @@
       </c>
     </row>
     <row r="8" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Y8" s="67" t="s">
+      <c r="Y8" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="Z8" s="98">
+      <c r="Z8" s="83">
         <v>0</v>
       </c>
-      <c r="AA8" s="69">
+      <c r="AA8" s="63">
         <v>0.68666839999999996</v>
       </c>
       <c r="AB8" s="18">
@@ -5224,87 +5277,87 @@
       <c r="AD8" s="19">
         <v>1.147813</v>
       </c>
-      <c r="AE8" s="99">
+      <c r="AE8" s="84">
         <v>0</v>
       </c>
-      <c r="AF8" s="100">
+      <c r="AF8" s="85">
         <v>0</v>
       </c>
-      <c r="AG8" s="100">
+      <c r="AG8" s="85">
         <v>0</v>
       </c>
-      <c r="AH8" s="101">
+      <c r="AH8" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="65" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="64" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="66"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="96"/>
     </row>
     <row r="11" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="59">
+      <c r="D11" s="96"/>
+      <c r="E11" s="91">
         <v>0.05</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="59">
+      <c r="F11" s="93"/>
+      <c r="G11" s="91">
         <v>0.1</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="59">
+      <c r="H11" s="93"/>
+      <c r="I11" s="91">
         <v>0.15</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="59">
+      <c r="J11" s="93"/>
+      <c r="K11" s="91">
         <v>0.2</v>
       </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="95">
+      <c r="L11" s="93"/>
+      <c r="M11" s="102">
         <v>0.05</v>
       </c>
-      <c r="N11" s="96"/>
-      <c r="O11" s="95">
+      <c r="N11" s="103"/>
+      <c r="O11" s="102">
         <v>0.1</v>
       </c>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="95">
+      <c r="P11" s="103"/>
+      <c r="Q11" s="102">
         <v>0.15</v>
       </c>
-      <c r="R11" s="96"/>
-      <c r="S11" s="95">
+      <c r="R11" s="103"/>
+      <c r="S11" s="102">
         <v>0.2</v>
       </c>
-      <c r="T11" s="96"/>
+      <c r="T11" s="103"/>
     </row>
     <row r="12" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="62"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="11" t="s">
         <v>94</v>
       </c>
@@ -5364,58 +5417,58 @@
       <c r="B13" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="87">
         <v>1</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="88">
         <v>1</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="87">
         <v>1</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="88">
         <v>1</v>
       </c>
-      <c r="G13" s="102">
+      <c r="G13" s="87">
         <v>1</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="88">
         <v>1</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="87">
         <v>1</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="88">
         <v>1</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="87">
         <v>1</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="89">
         <v>1</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="87">
         <v>1</v>
       </c>
-      <c r="N13" s="104">
+      <c r="N13" s="89">
         <v>1</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="87">
         <v>1</v>
       </c>
-      <c r="P13" s="104">
+      <c r="P13" s="89">
         <v>1</v>
       </c>
-      <c r="Q13" s="102">
+      <c r="Q13" s="87">
         <v>1</v>
       </c>
-      <c r="R13" s="104">
+      <c r="R13" s="89">
         <v>1</v>
       </c>
-      <c r="S13" s="105">
+      <c r="S13" s="90">
         <v>1</v>
       </c>
-      <c r="T13" s="104">
+      <c r="T13" s="89">
         <v>1</v>
       </c>
     </row>
@@ -5423,45 +5476,60 @@
       <c r="B14" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="108">
         <v>0</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108">
+      <c r="D14" s="109"/>
+      <c r="E14" s="106">
         <v>-4.4170710000000002E-2</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="108">
+      <c r="F14" s="107"/>
+      <c r="G14" s="106">
         <v>2.6357200000000001E-2</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="108">
+      <c r="H14" s="107"/>
+      <c r="I14" s="106">
         <v>3.9478970000000002E-2</v>
       </c>
-      <c r="J14" s="109"/>
-      <c r="K14" s="108">
+      <c r="J14" s="107"/>
+      <c r="K14" s="106">
         <v>-4.6575600000000002E-2</v>
       </c>
-      <c r="L14" s="109"/>
-      <c r="M14" s="94">
+      <c r="L14" s="107"/>
+      <c r="M14" s="100">
         <v>0</v>
       </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="94">
+      <c r="N14" s="101"/>
+      <c r="O14" s="100">
         <v>0</v>
       </c>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="94">
+      <c r="P14" s="101"/>
+      <c r="Q14" s="100">
         <v>0</v>
       </c>
-      <c r="R14" s="71"/>
-      <c r="S14" s="70">
+      <c r="R14" s="101"/>
+      <c r="S14" s="105">
         <v>0</v>
       </c>
-      <c r="T14" s="71"/>
+      <c r="T14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="E14:F14"/>
@@ -5470,21 +5538,6 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AE6:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5492,15 +5545,1051 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1991</v>
+      </c>
+      <c r="C4" s="110">
+        <v>38.230200000000004</v>
+      </c>
+      <c r="D4" s="111">
+        <v>20.103249999999999</v>
+      </c>
+      <c r="E4" s="111">
+        <v>40.139180000000003</v>
+      </c>
+      <c r="F4" s="111">
+        <v>22.613664</v>
+      </c>
+      <c r="G4" s="111">
+        <v>6.4709560000000002</v>
+      </c>
+      <c r="H4" s="111">
+        <v>69.091120000000004</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1991</v>
+      </c>
+      <c r="L4" s="110">
+        <v>44.4</v>
+      </c>
+      <c r="M4" s="111">
+        <v>27.2</v>
+      </c>
+      <c r="N4" s="111">
+        <v>45.6</v>
+      </c>
+      <c r="O4" s="111">
+        <v>25.673629999999999</v>
+      </c>
+      <c r="P4" s="111">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="111">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1992</v>
+      </c>
+      <c r="C5" s="110">
+        <v>49.321060000000003</v>
+      </c>
+      <c r="D5" s="111">
+        <v>18.138159999999999</v>
+      </c>
+      <c r="E5" s="111">
+        <v>52.860410000000002</v>
+      </c>
+      <c r="F5" s="111">
+        <v>29.18927</v>
+      </c>
+      <c r="G5" s="111">
+        <v>46.198535999999997</v>
+      </c>
+      <c r="H5" s="111">
+        <v>103.84865000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1992</v>
+      </c>
+      <c r="L5" s="110">
+        <v>75.5</v>
+      </c>
+      <c r="M5" s="111">
+        <v>11.8</v>
+      </c>
+      <c r="N5" s="111">
+        <v>58.9</v>
+      </c>
+      <c r="O5" s="111">
+        <v>22.6</v>
+      </c>
+      <c r="P5" s="111">
+        <v>17.8</v>
+      </c>
+      <c r="Q5" s="111">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1993</v>
+      </c>
+      <c r="C6" s="110">
+        <v>111.37894</v>
+      </c>
+      <c r="D6" s="111">
+        <v>87.218320000000006</v>
+      </c>
+      <c r="E6" s="111">
+        <v>154.84737000000001</v>
+      </c>
+      <c r="F6" s="111">
+        <v>41.673659999999998</v>
+      </c>
+      <c r="G6" s="111">
+        <v>177.840732</v>
+      </c>
+      <c r="H6" s="111">
+        <v>128.86598000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1993</v>
+      </c>
+      <c r="L6" s="110">
+        <v>106.78274</v>
+      </c>
+      <c r="M6" s="111">
+        <v>50.6</v>
+      </c>
+      <c r="N6" s="111">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="O6" s="111">
+        <v>47.519849999999998</v>
+      </c>
+      <c r="P6" s="111">
+        <v>119.4</v>
+      </c>
+      <c r="Q6" s="111">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1994</v>
+      </c>
+      <c r="C7" s="110">
+        <v>114.14284000000001</v>
+      </c>
+      <c r="D7" s="111">
+        <v>88.465950000000007</v>
+      </c>
+      <c r="E7" s="111">
+        <v>133.10921999999999</v>
+      </c>
+      <c r="F7" s="111">
+        <v>8.4342269999999999</v>
+      </c>
+      <c r="G7" s="111">
+        <v>58.528793</v>
+      </c>
+      <c r="H7" s="111">
+        <v>57.64902</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1994</v>
+      </c>
+      <c r="L7" s="110">
+        <v>80.3</v>
+      </c>
+      <c r="M7" s="111">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="N7" s="111">
+        <v>102.2</v>
+      </c>
+      <c r="O7" s="111">
+        <v>15.2</v>
+      </c>
+      <c r="P7" s="111">
+        <v>154.9</v>
+      </c>
+      <c r="Q7" s="111">
+        <v>146.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1995</v>
+      </c>
+      <c r="C8" s="110">
+        <v>119.90792</v>
+      </c>
+      <c r="D8" s="111">
+        <v>97.594189999999998</v>
+      </c>
+      <c r="E8" s="111">
+        <v>92.950569999999999</v>
+      </c>
+      <c r="F8" s="111">
+        <v>24.521820999999999</v>
+      </c>
+      <c r="G8" s="111">
+        <v>86.752083999999996</v>
+      </c>
+      <c r="H8" s="111">
+        <v>63.710850000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1995</v>
+      </c>
+      <c r="L8" s="110">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="M8" s="111">
+        <v>82.3</v>
+      </c>
+      <c r="N8" s="111">
+        <v>89</v>
+      </c>
+      <c r="O8" s="111">
+        <v>35.1</v>
+      </c>
+      <c r="P8" s="111">
+        <v>169.4</v>
+      </c>
+      <c r="Q8" s="111">
+        <v>129.76213999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C9" s="110">
+        <v>90.837999999999994</v>
+      </c>
+      <c r="D9" s="111">
+        <v>110.36602999999999</v>
+      </c>
+      <c r="E9" s="111">
+        <v>124.55509000000001</v>
+      </c>
+      <c r="F9" s="111">
+        <v>46.457484000000001</v>
+      </c>
+      <c r="G9" s="111">
+        <v>80.776031000000003</v>
+      </c>
+      <c r="H9" s="111">
+        <v>58.683010000000003</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1996</v>
+      </c>
+      <c r="L9" s="110">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="M9" s="111">
+        <v>97.4</v>
+      </c>
+      <c r="N9" s="111">
+        <v>99.913049999999998</v>
+      </c>
+      <c r="O9" s="111">
+        <v>51</v>
+      </c>
+      <c r="P9" s="111">
+        <v>109.72883</v>
+      </c>
+      <c r="Q9" s="111">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1997</v>
+      </c>
+      <c r="C10" s="110">
+        <v>59.862879999999997</v>
+      </c>
+      <c r="D10" s="111">
+        <v>82.424520000000001</v>
+      </c>
+      <c r="E10" s="111">
+        <v>89.284360000000007</v>
+      </c>
+      <c r="F10" s="111">
+        <v>33.255701000000002</v>
+      </c>
+      <c r="G10" s="111">
+        <v>15.803174</v>
+      </c>
+      <c r="H10" s="111">
+        <v>28.94415</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1997</v>
+      </c>
+      <c r="L10" s="110">
+        <v>32</v>
+      </c>
+      <c r="M10" s="111">
+        <v>89.5</v>
+      </c>
+      <c r="N10" s="111">
+        <v>83.961640000000003</v>
+      </c>
+      <c r="O10" s="111">
+        <v>25.365649999999999</v>
+      </c>
+      <c r="P10" s="111">
+        <v>33.4</v>
+      </c>
+      <c r="Q10" s="111">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="110">
+        <v>56.246830000000003</v>
+      </c>
+      <c r="D11" s="111">
+        <v>35.983930000000001</v>
+      </c>
+      <c r="E11" s="111">
+        <v>77.920990000000003</v>
+      </c>
+      <c r="F11" s="111">
+        <v>38.160378999999999</v>
+      </c>
+      <c r="G11" s="111">
+        <v>8.3467730000000007</v>
+      </c>
+      <c r="H11" s="111">
+        <v>64.201359999999994</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1998</v>
+      </c>
+      <c r="L11" s="110">
+        <v>55.5</v>
+      </c>
+      <c r="M11" s="111">
+        <v>63.1</v>
+      </c>
+      <c r="N11" s="111">
+        <v>66.3</v>
+      </c>
+      <c r="O11" s="111">
+        <v>24.4</v>
+      </c>
+      <c r="P11" s="111">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q11" s="111">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C12" s="110">
+        <v>93.847269999999995</v>
+      </c>
+      <c r="D12" s="111">
+        <v>65.531019999999998</v>
+      </c>
+      <c r="E12" s="111">
+        <v>87.192170000000004</v>
+      </c>
+      <c r="F12" s="111">
+        <v>31.438506</v>
+      </c>
+      <c r="G12" s="111">
+        <v>34.666226999999999</v>
+      </c>
+      <c r="H12" s="111">
+        <v>68.556219999999996</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1999</v>
+      </c>
+      <c r="L12" s="110">
+        <v>74.3</v>
+      </c>
+      <c r="M12" s="111">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="N12" s="111">
+        <v>86.907499999999999</v>
+      </c>
+      <c r="O12" s="111">
+        <v>28.1</v>
+      </c>
+      <c r="P12" s="111">
+        <v>73.090400000000002</v>
+      </c>
+      <c r="Q12" s="111">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="110">
+        <v>75.226839999999996</v>
+      </c>
+      <c r="D13" s="111">
+        <v>67.548680000000004</v>
+      </c>
+      <c r="E13" s="111">
+        <v>112.07442</v>
+      </c>
+      <c r="F13" s="111">
+        <v>41.750691000000003</v>
+      </c>
+      <c r="G13" s="111">
+        <v>2.1815340000000001</v>
+      </c>
+      <c r="H13" s="111">
+        <v>71.960840000000005</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L13" s="110">
+        <v>62.784880000000001</v>
+      </c>
+      <c r="M13" s="111">
+        <v>76.2</v>
+      </c>
+      <c r="N13" s="111">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="O13" s="111">
+        <v>29.5</v>
+      </c>
+      <c r="P13" s="111">
+        <v>11.8</v>
+      </c>
+      <c r="Q13" s="111">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C14" s="110">
+        <v>82.436000000000007</v>
+      </c>
+      <c r="D14" s="111">
+        <v>72.42089</v>
+      </c>
+      <c r="E14" s="111">
+        <v>98.561070000000001</v>
+      </c>
+      <c r="F14" s="111">
+        <v>43.672367999999999</v>
+      </c>
+      <c r="G14" s="111">
+        <v>95.793923000000007</v>
+      </c>
+      <c r="H14" s="111">
+        <v>100.1499</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2001</v>
+      </c>
+      <c r="L14" s="110">
+        <v>87.1</v>
+      </c>
+      <c r="M14" s="111">
+        <v>52.389020000000002</v>
+      </c>
+      <c r="N14" s="111">
+        <v>89.3</v>
+      </c>
+      <c r="O14" s="111">
+        <v>51.5</v>
+      </c>
+      <c r="P14" s="111">
+        <v>63.1</v>
+      </c>
+      <c r="Q14" s="111">
+        <v>99.328479999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C15" s="110">
+        <v>107.11982999999999</v>
+      </c>
+      <c r="D15" s="111">
+        <v>72.733699999999999</v>
+      </c>
+      <c r="E15" s="111">
+        <v>100.41547</v>
+      </c>
+      <c r="F15" s="111">
+        <v>48.096949000000002</v>
+      </c>
+      <c r="G15" s="111">
+        <v>22.618903</v>
+      </c>
+      <c r="H15" s="111">
+        <v>90.10069</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2002</v>
+      </c>
+      <c r="L15" s="110">
+        <v>89.3</v>
+      </c>
+      <c r="M15" s="111">
+        <v>89.5</v>
+      </c>
+      <c r="N15" s="111">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="O15" s="111">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="P15" s="111">
+        <v>75.830110000000005</v>
+      </c>
+      <c r="Q15" s="111">
+        <v>102.04439000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C16" s="110">
+        <v>73.320700000000002</v>
+      </c>
+      <c r="D16" s="111">
+        <v>83.556070000000005</v>
+      </c>
+      <c r="E16" s="111">
+        <v>69.915750000000003</v>
+      </c>
+      <c r="F16" s="111">
+        <v>48.765231999999997</v>
+      </c>
+      <c r="G16" s="111">
+        <v>111.305955</v>
+      </c>
+      <c r="H16" s="111">
+        <v>88.840419999999995</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2003</v>
+      </c>
+      <c r="L16" s="110">
+        <v>70.2</v>
+      </c>
+      <c r="M16" s="111">
+        <v>63.1</v>
+      </c>
+      <c r="N16" s="111">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="O16" s="111">
+        <v>60.5</v>
+      </c>
+      <c r="P16" s="111">
+        <v>76.3</v>
+      </c>
+      <c r="Q16" s="111">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C17" s="110">
+        <v>84.510729999999995</v>
+      </c>
+      <c r="D17" s="111">
+        <v>44.570630000000001</v>
+      </c>
+      <c r="E17" s="111">
+        <v>91.957269999999994</v>
+      </c>
+      <c r="F17" s="111">
+        <v>48.122436</v>
+      </c>
+      <c r="G17" s="111">
+        <v>38.512540999999999</v>
+      </c>
+      <c r="H17" s="111">
+        <v>99.226600000000005</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2004</v>
+      </c>
+      <c r="L17" s="110">
+        <v>90.1</v>
+      </c>
+      <c r="M17" s="111">
+        <v>66.3</v>
+      </c>
+      <c r="N17" s="111">
+        <v>70.5</v>
+      </c>
+      <c r="O17" s="111">
+        <v>39.1</v>
+      </c>
+      <c r="P17" s="111">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="111">
+        <v>79.515450000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="110">
+        <v>63.87229</v>
+      </c>
+      <c r="D18" s="111">
+        <v>77.072140000000005</v>
+      </c>
+      <c r="E18" s="111">
+        <v>138.19628</v>
+      </c>
+      <c r="F18" s="111">
+        <v>34.564048</v>
+      </c>
+      <c r="G18" s="111">
+        <v>62.816350999999997</v>
+      </c>
+      <c r="H18" s="111">
+        <v>37.746479999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="L18" s="110">
+        <v>60.5</v>
+      </c>
+      <c r="M18" s="111">
+        <v>75.315160000000006</v>
+      </c>
+      <c r="N18" s="111">
+        <v>107.2</v>
+      </c>
+      <c r="O18" s="111">
+        <v>31.1</v>
+      </c>
+      <c r="P18" s="111">
+        <v>63.4</v>
+      </c>
+      <c r="Q18" s="111">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C19" s="110">
+        <v>138.36099999999999</v>
+      </c>
+      <c r="D19" s="111">
+        <v>43.534410000000001</v>
+      </c>
+      <c r="E19" s="111">
+        <v>63.806420000000003</v>
+      </c>
+      <c r="F19" s="111">
+        <v>35.032598</v>
+      </c>
+      <c r="G19" s="111">
+        <v>97.641544999999994</v>
+      </c>
+      <c r="H19" s="111">
+        <v>176.24691999999999</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2006</v>
+      </c>
+      <c r="L19" s="110">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="M19" s="111">
+        <v>20</v>
+      </c>
+      <c r="N19" s="111">
+        <v>63.4</v>
+      </c>
+      <c r="O19" s="111">
+        <v>50.2</v>
+      </c>
+      <c r="P19" s="111">
+        <v>101.2</v>
+      </c>
+      <c r="Q19" s="111">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="110">
+        <v>111.85732</v>
+      </c>
+      <c r="D20" s="111">
+        <v>63.103259999999999</v>
+      </c>
+      <c r="E20" s="111">
+        <v>111.85959</v>
+      </c>
+      <c r="F20" s="111">
+        <v>36.688772</v>
+      </c>
+      <c r="G20" s="111">
+        <v>124.33933500000001</v>
+      </c>
+      <c r="H20" s="111">
+        <v>127.78977</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2007</v>
+      </c>
+      <c r="L20" s="110">
+        <v>120.4</v>
+      </c>
+      <c r="M20" s="111">
+        <v>45.392420000000001</v>
+      </c>
+      <c r="N20" s="111">
+        <v>89.004599999999996</v>
+      </c>
+      <c r="O20" s="111">
+        <v>51</v>
+      </c>
+      <c r="P20" s="111">
+        <v>103.1</v>
+      </c>
+      <c r="Q20" s="111">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="110">
+        <v>95.058400000000006</v>
+      </c>
+      <c r="D21" s="111">
+        <v>21.168800000000001</v>
+      </c>
+      <c r="E21" s="111">
+        <v>127.24003999999999</v>
+      </c>
+      <c r="F21" s="111">
+        <v>31.640650999999998</v>
+      </c>
+      <c r="G21" s="111">
+        <v>118.984269</v>
+      </c>
+      <c r="H21" s="111">
+        <v>141.85505000000001</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2008</v>
+      </c>
+      <c r="L21" s="110">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="M21" s="111">
+        <v>17.2</v>
+      </c>
+      <c r="N21" s="111">
+        <v>103.1</v>
+      </c>
+      <c r="O21" s="111">
+        <v>42.5</v>
+      </c>
+      <c r="P21" s="111">
+        <v>66.7</v>
+      </c>
+      <c r="Q21" s="111">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C22" s="110">
+        <v>104.01706</v>
+      </c>
+      <c r="D22" s="111">
+        <v>11.94337</v>
+      </c>
+      <c r="E22" s="111">
+        <v>92.688029999999998</v>
+      </c>
+      <c r="F22" s="111">
+        <v>25.475653999999999</v>
+      </c>
+      <c r="G22" s="111">
+        <v>64.405343000000002</v>
+      </c>
+      <c r="H22" s="111">
+        <v>124.28609</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2009</v>
+      </c>
+      <c r="L22" s="110">
+        <v>110.1</v>
+      </c>
+      <c r="M22" s="111">
+        <v>31.1</v>
+      </c>
+      <c r="N22" s="111">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="O22" s="111">
+        <v>25.7</v>
+      </c>
+      <c r="P22" s="111">
+        <v>52.909100000000002</v>
+      </c>
+      <c r="Q22" s="111">
+        <v>76.309110000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C23" s="110">
+        <v>112.40527</v>
+      </c>
+      <c r="D23" s="111">
+        <v>60.57837</v>
+      </c>
+      <c r="E23" s="111">
+        <v>60.134529999999998</v>
+      </c>
+      <c r="F23" s="111">
+        <v>43.570169999999997</v>
+      </c>
+      <c r="G23" s="111">
+        <v>111.984531</v>
+      </c>
+      <c r="H23" s="111">
+        <v>164.61401000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="L23" s="110">
+        <v>120.2</v>
+      </c>
+      <c r="M23" s="111">
+        <v>24.4</v>
+      </c>
+      <c r="N23" s="111">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="O23" s="111">
+        <v>60.3</v>
+      </c>
+      <c r="P23" s="111">
+        <v>88.340180000000004</v>
+      </c>
+      <c r="Q23" s="111">
+        <v>110.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:K6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="116"/>
+    </row>
+    <row r="5" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="59"/>
+      <c r="D5" s="114">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="G5" s="113">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="K5" s="113">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5658,26 +6747,26 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="59">
+      <c r="C5" s="91">
         <v>0.05</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="59">
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="91">
         <v>0.1</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="59">
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="91">
         <v>0.15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="59">
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="91">
         <v>0.2</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
@@ -5991,26 +7080,26 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="59">
+      <c r="D8" s="91">
         <v>0.05</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="59">
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="91">
         <v>0.1</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="59">
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="91">
         <v>0.15</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="59">
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="91">
         <v>0.2</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="61"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93"/>
     </row>
     <row r="9" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
@@ -7033,26 +8122,26 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="59">
+      <c r="C5" s="91">
         <v>0.05</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="59">
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="91">
         <v>0.1</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="59">
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="91">
         <v>0.15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="59">
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="91">
         <v>0.2</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
@@ -7354,7 +8443,7 @@
   <dimension ref="B6:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:N27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7364,26 +8453,26 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="59">
+      <c r="C6" s="91">
         <v>0.05</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="59">
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="91">
         <v>0.1</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="59">
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="91">
         <v>0.15</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="59">
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="91">
         <v>0.2</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="20" t="s">
@@ -8270,24 +9359,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="62"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="65" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="66"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="62"/>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="61" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="25">
@@ -8316,13 +9405,13 @@
       </c>
     </row>
     <row r="6" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="62">
         <v>0.69159789999999999</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="63">
         <v>0.69475849999999995</v>
       </c>
       <c r="F6" s="18">
@@ -8334,7 +9423,7 @@
       <c r="H6" s="19">
         <v>0.76247529999999997</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="63">
         <v>0.69321860000000002</v>
       </c>
       <c r="J6" s="18">
@@ -8361,7 +9450,7 @@
   <dimension ref="B5:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8372,8 +9461,8 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -8396,7 +9485,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="61" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -8422,10 +9511,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="64">
         <v>0.05</v>
       </c>
       <c r="D7" s="36">
@@ -8448,8 +9537,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="73"/>
-      <c r="C8" s="76">
+      <c r="B8" s="98"/>
+      <c r="C8" s="65">
         <v>0.1</v>
       </c>
       <c r="D8" s="24">
@@ -8472,8 +9561,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="73"/>
-      <c r="C9" s="76">
+      <c r="B9" s="98"/>
+      <c r="C9" s="65">
         <v>0.15</v>
       </c>
       <c r="D9" s="24">
@@ -8496,8 +9585,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="74"/>
-      <c r="C10" s="77">
+      <c r="B10" s="99"/>
+      <c r="C10" s="66">
         <v>0.2</v>
       </c>
       <c r="D10" s="39">
@@ -8520,10 +9609,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="64">
         <v>0.05</v>
       </c>
       <c r="D11" s="36">
@@ -8546,8 +9635,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="73"/>
-      <c r="C12" s="76">
+      <c r="B12" s="98"/>
+      <c r="C12" s="65">
         <v>0.1</v>
       </c>
       <c r="D12" s="24">
@@ -8570,8 +9659,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="76">
+      <c r="B13" s="98"/>
+      <c r="C13" s="65">
         <v>0.15</v>
       </c>
       <c r="D13" s="24">
@@ -8594,8 +9683,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
-      <c r="C14" s="77">
+      <c r="B14" s="99"/>
+      <c r="C14" s="66">
         <v>0.2</v>
       </c>
       <c r="D14" s="39">
